--- a/data excel.xlsx
+++ b/data excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Documents\UWO CBE\Courses\CBE 9133 - AI in Chemical Engineering\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237A02C6-B92F-421A-92AC-0142D924799A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838A590E-0990-44BE-B99A-728D18C43382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -620,25 +620,13 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -664,9 +652,6 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -981,7 +966,7 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -990,7 +975,7 @@
     <col min="19" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1001,25 +986,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>648</v>
       </c>
@@ -1049,7 +1034,7 @@
       </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>648</v>
       </c>
@@ -1079,7 +1064,7 @@
       </c>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>648</v>
       </c>
@@ -1108,7 +1093,7 @@
         <v>59.942999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>648</v>
       </c>
@@ -1137,7 +1122,7 @@
         <v>47.48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>648</v>
       </c>
@@ -1166,7 +1151,7 @@
         <v>37.213999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>648</v>
       </c>
@@ -1195,7 +1180,7 @@
         <v>23.550999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>648</v>
       </c>
@@ -1224,7 +1209,7 @@
         <v>61.527999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>648</v>
       </c>
@@ -1253,7 +1238,7 @@
         <v>52.853999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>648</v>
       </c>
@@ -1282,7 +1267,7 @@
         <v>44.503</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>648</v>
       </c>
@@ -1311,7 +1296,7 @@
         <v>31.003</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>648</v>
       </c>
@@ -1340,7 +1325,7 @@
         <v>21.225999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>648</v>
       </c>
@@ -1369,7 +1354,7 @@
         <v>10.021000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>673</v>
       </c>
@@ -1398,7 +1383,7 @@
         <v>67.337999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>673</v>
       </c>
@@ -1427,7 +1412,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>673</v>
       </c>
@@ -1456,7 +1441,7 @@
         <v>51.387</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>673</v>
       </c>
@@ -1485,7 +1470,7 @@
         <v>36.953000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>673</v>
       </c>
@@ -1514,7 +1499,7 @@
         <v>24.568999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>673</v>
       </c>
@@ -1543,7 +1528,7 @@
         <v>11.675000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>673</v>
       </c>
@@ -1572,7 +1557,7 @@
         <v>51.682000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>673</v>
       </c>
@@ -1601,7 +1586,7 @@
         <v>42.045999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>673</v>
       </c>
@@ -1630,7 +1615,7 @@
         <v>33.283000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>673</v>
       </c>
@@ -1659,7 +1644,7 @@
         <v>20.353999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>673</v>
       </c>
@@ -1688,7 +1673,7 @@
         <v>12.148999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>673</v>
       </c>
@@ -1717,7 +1702,7 @@
         <v>4.3630000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>698</v>
       </c>
@@ -1746,7 +1731,7 @@
         <v>47.073</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>698</v>
       </c>
@@ -1775,7 +1760,7 @@
         <v>35.567999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>698</v>
       </c>
@@ -1804,7 +1789,7 @@
         <v>28.687000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>698</v>
       </c>
@@ -1833,7 +1818,7 @@
         <v>15.664</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>698</v>
       </c>
@@ -1862,7 +1847,7 @@
         <v>8.8870000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>698</v>
       </c>
@@ -1891,7 +1876,7 @@
         <v>2.8109999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>698</v>
       </c>
@@ -1920,7 +1905,7 @@
         <v>28.981000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>698</v>
       </c>
@@ -1949,7 +1934,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>698</v>
       </c>
@@ -1978,7 +1963,7 @@
         <v>13.494</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>698</v>
       </c>
@@ -2007,7 +1992,7 @@
         <v>5.1029999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>698</v>
       </c>
@@ -2036,7 +2021,7 @@
         <v>1.8380000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>698</v>
       </c>
@@ -2065,7 +2050,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>723</v>
       </c>
@@ -2094,7 +2079,7 @@
         <v>24.695</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>723</v>
       </c>
@@ -2123,7 +2108,7 @@
         <v>12.813000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>723</v>
       </c>
@@ -2152,7 +2137,7 @@
         <v>10.843999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>723</v>
       </c>
@@ -2181,7 +2166,7 @@
         <v>5.1890000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>723</v>
       </c>
@@ -2210,7 +2195,7 @@
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>723</v>
       </c>
@@ -2239,7 +2224,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>723</v>
       </c>
@@ -2268,7 +2253,7 @@
         <v>10.334</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>723</v>
       </c>
@@ -2297,7 +2282,7 @@
         <v>4.6059999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>723</v>
       </c>
@@ -2326,7 +2311,7 @@
         <v>2.5179999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>723</v>
       </c>
@@ -2355,7 +2340,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>723</v>
       </c>
@@ -2384,7 +2369,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>723</v>
       </c>
@@ -2413,7 +2398,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>748</v>
       </c>
@@ -2442,7 +2427,7 @@
         <v>21.207000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>748</v>
       </c>
@@ -2471,7 +2456,7 @@
         <v>8.3160000000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>748</v>
       </c>
@@ -2500,7 +2485,7 @@
         <v>4.3159999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>748</v>
       </c>
@@ -2529,7 +2514,7 @@
         <v>2.028</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>748</v>
       </c>
@@ -2558,7 +2543,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>748</v>
       </c>
@@ -2587,7 +2572,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>748</v>
       </c>
@@ -2616,7 +2601,7 @@
         <v>6.2140000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>748</v>
       </c>
@@ -2645,7 +2630,7 @@
         <v>2.2970000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>748</v>
       </c>
@@ -2674,7 +2659,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>748</v>
       </c>
@@ -2703,7 +2688,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>748</v>
       </c>
@@ -2732,7 +2717,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>748</v>
       </c>
@@ -2761,9 +2746,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:9" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2796,7 +2781,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2810,2804 +2795,2804 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
-        <v>673</v>
-      </c>
-      <c r="B2" s="18">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19">
-        <v>0</v>
-      </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
-        <v>673</v>
-      </c>
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>673</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>673</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
         <v>0.35</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="9">
         <v>0.99890000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
-        <v>673</v>
-      </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19">
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>673</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14">
         <v>0.7</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="9">
         <v>0.99139999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>673</v>
-      </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19">
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>673</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
         <v>1.05</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="9">
         <v>0.98429999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>673</v>
-      </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19">
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>673</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
         <v>1.4</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="9">
         <v>0.8427</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>673</v>
-      </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="19">
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>673</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
         <v>1.75</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="9">
         <v>0.5111</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
-        <v>673</v>
-      </c>
-      <c r="B8" s="18">
-        <v>1</v>
-      </c>
-      <c r="C8" s="19">
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>673</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
         <v>2.1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="9">
         <v>0.24740000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>673</v>
-      </c>
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="19">
+    <row r="9" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>673</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="9">
         <v>0.1651</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
-        <v>673</v>
-      </c>
-      <c r="B10" s="18">
-        <v>1</v>
-      </c>
-      <c r="C10" s="19">
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>673</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
         <v>2.8</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="9">
         <v>0.14779999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
-        <v>673</v>
-      </c>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="19">
+    <row r="11" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>673</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
         <v>3.15</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="9">
         <v>0.14449999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
-        <v>698</v>
-      </c>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0</v>
-      </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
-        <v>698</v>
-      </c>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19">
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>698</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>698</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
         <v>0.35</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="9">
         <v>0.99760000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
-        <v>698</v>
-      </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="19">
+    <row r="14" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>698</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14">
         <v>0.7</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="9">
         <v>0.9879</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
-        <v>698</v>
-      </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="19">
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>698</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14">
         <v>1.05</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="9">
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
-        <v>698</v>
-      </c>
-      <c r="B16" s="18">
-        <v>1</v>
-      </c>
-      <c r="C16" s="19">
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>698</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14">
         <v>1.4</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="9">
         <v>0.60270000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
-        <v>698</v>
-      </c>
-      <c r="B17" s="18">
-        <v>1</v>
-      </c>
-      <c r="C17" s="19">
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>698</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14">
         <v>1.75</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="9">
         <v>0.2923</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
-        <v>698</v>
-      </c>
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="19">
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>698</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14">
         <v>2.1</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="9">
         <v>0.17580000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
-        <v>698</v>
-      </c>
-      <c r="B19" s="18">
-        <v>1</v>
-      </c>
-      <c r="C19" s="19">
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>698</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="9">
         <v>0.14990000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
-        <v>698</v>
-      </c>
-      <c r="B20" s="18">
-        <v>1</v>
-      </c>
-      <c r="C20" s="19">
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>698</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14">
         <v>2.8</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="9">
         <v>0.1449</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
-        <v>698</v>
-      </c>
-      <c r="B21" s="18">
-        <v>1</v>
-      </c>
-      <c r="C21" s="19">
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>698</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14">
         <v>3.15</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="9">
         <v>0.14419999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
-        <v>723</v>
-      </c>
-      <c r="B22" s="18">
-        <v>1</v>
-      </c>
-      <c r="C22" s="19">
-        <v>0</v>
-      </c>
-      <c r="D22" s="20">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
-        <v>723</v>
-      </c>
-      <c r="B23" s="18">
-        <v>1</v>
-      </c>
-      <c r="C23" s="19">
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>723</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>723</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
         <v>0.35</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="9">
         <v>0.98240000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
-        <v>723</v>
-      </c>
-      <c r="B24" s="18">
-        <v>1</v>
-      </c>
-      <c r="C24" s="19">
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>723</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14">
         <v>0.7</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="9">
         <v>0.93569999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
-        <v>723</v>
-      </c>
-      <c r="B25" s="18">
-        <v>1</v>
-      </c>
-      <c r="C25" s="19">
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>723</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
         <v>1.05</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="9">
         <v>0.69269999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
-        <v>723</v>
-      </c>
-      <c r="B26" s="18">
-        <v>1</v>
-      </c>
-      <c r="C26" s="19">
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>723</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14">
         <v>1.4</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="9">
         <v>0.3513</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
-        <v>723</v>
-      </c>
-      <c r="B27" s="18">
-        <v>1</v>
-      </c>
-      <c r="C27" s="19">
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>723</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14">
         <v>1.75</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="9">
         <v>0.19159999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
-        <v>723</v>
-      </c>
-      <c r="B28" s="18">
-        <v>1</v>
-      </c>
-      <c r="C28" s="19">
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>723</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14">
         <v>2.1</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="9">
         <v>0.15310000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
-        <v>723</v>
-      </c>
-      <c r="B29" s="18">
-        <v>1</v>
-      </c>
-      <c r="C29" s="19">
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>723</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="9">
         <v>0.14549999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18">
-        <v>723</v>
-      </c>
-      <c r="B30" s="18">
-        <v>1</v>
-      </c>
-      <c r="C30" s="19">
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>723</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="14">
         <v>2.8</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="9">
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18">
-        <v>723</v>
-      </c>
-      <c r="B31" s="18">
-        <v>1</v>
-      </c>
-      <c r="C31" s="19">
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>723</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="14">
         <v>3.15</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="9">
         <v>0.14380000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18">
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>748</v>
       </c>
-      <c r="B32" s="18">
-        <v>1</v>
-      </c>
-      <c r="C32" s="19">
-        <v>0</v>
-      </c>
-      <c r="D32" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>748</v>
       </c>
-      <c r="B33" s="18">
-        <v>1</v>
-      </c>
-      <c r="C33" s="19">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="14">
         <v>0.35</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="9">
         <v>0.96419999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
+    <row r="34" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>748</v>
       </c>
-      <c r="B34" s="18">
-        <v>1</v>
-      </c>
-      <c r="C34" s="19">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="14">
         <v>0.7</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="9">
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18">
+    <row r="35" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>748</v>
       </c>
-      <c r="B35" s="18">
-        <v>1</v>
-      </c>
-      <c r="C35" s="19">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="14">
         <v>1.05</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="9">
         <v>0.42480000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18">
+    <row r="36" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>748</v>
       </c>
-      <c r="B36" s="18">
-        <v>1</v>
-      </c>
-      <c r="C36" s="19">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="14">
         <v>1.4</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="9">
         <v>0.2145</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18">
+    <row r="37" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>748</v>
       </c>
-      <c r="B37" s="18">
-        <v>1</v>
-      </c>
-      <c r="C37" s="19">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="14">
         <v>1.75</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="9">
         <v>0.1578</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18">
+    <row r="38" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>748</v>
       </c>
-      <c r="B38" s="18">
-        <v>1</v>
-      </c>
-      <c r="C38" s="19">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="14">
         <v>2.1</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="9">
         <v>0.1464</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18">
+    <row r="39" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>748</v>
       </c>
-      <c r="B39" s="18">
-        <v>1</v>
-      </c>
-      <c r="C39" s="19">
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="9">
         <v>0.14419999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18">
+    <row r="40" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>748</v>
       </c>
-      <c r="B40" s="18">
-        <v>1</v>
-      </c>
-      <c r="C40" s="19">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="14">
         <v>2.8</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="9">
         <v>0.14380000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18">
+    <row r="41" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>748</v>
       </c>
-      <c r="B41" s="18">
-        <v>1</v>
-      </c>
-      <c r="C41" s="19">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="14">
         <v>3.15</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="9">
         <v>0.14449999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18">
-        <v>673</v>
-      </c>
-      <c r="B42" s="18">
+    <row r="42" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>673</v>
+      </c>
+      <c r="B42" s="3">
         <v>0.5</v>
       </c>
-      <c r="C42" s="19">
-        <v>0</v>
-      </c>
-      <c r="D42" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18">
-        <v>673</v>
-      </c>
-      <c r="B43" s="18">
+      <c r="C42" s="14">
+        <v>0</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>673</v>
+      </c>
+      <c r="B43" s="3">
         <v>0.5</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="14">
         <v>0.35</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="9">
         <v>0.99739999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18">
-        <v>673</v>
-      </c>
-      <c r="B44" s="18">
+    <row r="44" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>673</v>
+      </c>
+      <c r="B44" s="3">
         <v>0.5</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="14">
         <v>0.7</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="9">
         <v>0.99029999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18">
-        <v>673</v>
-      </c>
-      <c r="B45" s="18">
+    <row r="45" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>673</v>
+      </c>
+      <c r="B45" s="3">
         <v>0.5</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="14">
         <v>1.05</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="9">
         <v>0.95920000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18">
-        <v>673</v>
-      </c>
-      <c r="B46" s="18">
+    <row r="46" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>673</v>
+      </c>
+      <c r="B46" s="3">
         <v>0.5</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="14">
         <v>1.4</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="9">
         <v>0.75849999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18">
-        <v>673</v>
-      </c>
-      <c r="B47" s="18">
+    <row r="47" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>673</v>
+      </c>
+      <c r="B47" s="3">
         <v>0.5</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="14">
         <v>1.75</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="9">
         <v>0.4088</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18">
-        <v>673</v>
-      </c>
-      <c r="B48" s="18">
+    <row r="48" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>673</v>
+      </c>
+      <c r="B48" s="3">
         <v>0.5</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="14">
         <v>2.1</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="9">
         <v>0.2092</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18">
-        <v>673</v>
-      </c>
-      <c r="B49" s="18">
+    <row r="49" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>673</v>
+      </c>
+      <c r="B49" s="3">
         <v>0.5</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="9">
         <v>0.15670000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18">
-        <v>673</v>
-      </c>
-      <c r="B50" s="18">
+    <row r="50" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>673</v>
+      </c>
+      <c r="B50" s="3">
         <v>0.5</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="14">
         <v>2.8</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="9">
         <v>0.1462</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18">
-        <v>673</v>
-      </c>
-      <c r="B51" s="18">
+    <row r="51" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>673</v>
+      </c>
+      <c r="B51" s="3">
         <v>0.5</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="14">
         <v>3.15</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="9">
         <v>0.14419999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18">
-        <v>698</v>
-      </c>
-      <c r="B52" s="18">
+    <row r="52" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>698</v>
+      </c>
+      <c r="B52" s="3">
         <v>0.5</v>
       </c>
-      <c r="C52" s="19">
-        <v>0</v>
-      </c>
-      <c r="D52" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18">
-        <v>698</v>
-      </c>
-      <c r="B53" s="18">
+      <c r="C52" s="14">
+        <v>0</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>698</v>
+      </c>
+      <c r="B53" s="3">
         <v>0.5</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="14">
         <v>0.35</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="9">
         <v>0.99839999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18">
-        <v>698</v>
-      </c>
-      <c r="B54" s="18">
+    <row r="54" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>698</v>
+      </c>
+      <c r="B54" s="3">
         <v>0.5</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="14">
         <v>0.7</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="9">
         <v>0.98070000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18">
-        <v>698</v>
-      </c>
-      <c r="B55" s="18">
+    <row r="55" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>698</v>
+      </c>
+      <c r="B55" s="3">
         <v>0.5</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="14">
         <v>1.05</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="9">
         <v>0.82950000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="18">
-        <v>698</v>
-      </c>
-      <c r="B56" s="18">
+    <row r="56" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>698</v>
+      </c>
+      <c r="B56" s="3">
         <v>0.5</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="14">
         <v>1.4</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="9">
         <v>0.49220000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18">
-        <v>698</v>
-      </c>
-      <c r="B57" s="18">
+    <row r="57" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>698</v>
+      </c>
+      <c r="B57" s="3">
         <v>0.5</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="14">
         <v>1.75</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="9">
         <v>0.23960000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="18">
-        <v>698</v>
-      </c>
-      <c r="B58" s="18">
+    <row r="58" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>698</v>
+      </c>
+      <c r="B58" s="3">
         <v>0.5</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="14">
         <v>2.1</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="9">
         <v>0.1633</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="18">
-        <v>698</v>
-      </c>
-      <c r="B59" s="18">
+    <row r="59" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>698</v>
+      </c>
+      <c r="B59" s="3">
         <v>0.5</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="9">
         <v>0.1474</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18">
-        <v>698</v>
-      </c>
-      <c r="B60" s="18">
+    <row r="60" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>698</v>
+      </c>
+      <c r="B60" s="3">
         <v>0.5</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="14">
         <v>2.8</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="9">
         <v>0.1444</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18">
-        <v>698</v>
-      </c>
-      <c r="B61" s="18">
+    <row r="61" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>698</v>
+      </c>
+      <c r="B61" s="3">
         <v>0.5</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="14">
         <v>3.15</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="9">
         <v>0.14380000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18">
-        <v>723</v>
-      </c>
-      <c r="B62" s="18">
+    <row r="62" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>723</v>
+      </c>
+      <c r="B62" s="3">
         <v>0.5</v>
       </c>
-      <c r="C62" s="19">
-        <v>0</v>
-      </c>
-      <c r="D62" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="18">
-        <v>723</v>
-      </c>
-      <c r="B63" s="18">
+      <c r="C62" s="14">
+        <v>0</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>723</v>
+      </c>
+      <c r="B63" s="3">
         <v>0.5</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="14">
         <v>0.35</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="9">
         <v>0.99539999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="18">
-        <v>723</v>
-      </c>
-      <c r="B64" s="18">
+    <row r="64" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>723</v>
+      </c>
+      <c r="B64" s="3">
         <v>0.5</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="14">
         <v>0.7</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="9">
         <v>0.88590000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="18">
-        <v>723</v>
-      </c>
-      <c r="B65" s="18">
+    <row r="65" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>723</v>
+      </c>
+      <c r="B65" s="3">
         <v>0.5</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="14">
         <v>1.05</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="9">
         <v>0.58309999999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18">
-        <v>723</v>
-      </c>
-      <c r="B66" s="18">
+    <row r="66" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>723</v>
+      </c>
+      <c r="B66" s="3">
         <v>0.5</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="14">
         <v>1.4</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="9">
         <v>0.28160000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="18">
-        <v>723</v>
-      </c>
-      <c r="B67" s="18">
+    <row r="67" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>723</v>
+      </c>
+      <c r="B67" s="3">
         <v>0.5</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="14">
         <v>1.75</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="9">
         <v>0.17319999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18">
-        <v>723</v>
-      </c>
-      <c r="B68" s="18">
+    <row r="68" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>723</v>
+      </c>
+      <c r="B68" s="3">
         <v>0.5</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="14">
         <v>2.1</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="9">
         <v>0.14940000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18">
-        <v>723</v>
-      </c>
-      <c r="B69" s="18">
+    <row r="69" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>723</v>
+      </c>
+      <c r="B69" s="3">
         <v>0.5</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="9">
         <v>0.14480000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="18">
-        <v>723</v>
-      </c>
-      <c r="B70" s="18">
+    <row r="70" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>723</v>
+      </c>
+      <c r="B70" s="3">
         <v>0.5</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="14">
         <v>2.8</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="9">
         <v>0.1439</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="18">
-        <v>723</v>
-      </c>
-      <c r="B71" s="18">
+    <row r="71" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>723</v>
+      </c>
+      <c r="B71" s="3">
         <v>0.5</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="14">
         <v>3.15</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="9">
         <v>0.14460000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="18">
+    <row r="72" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>748</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="3">
         <v>0.5</v>
       </c>
-      <c r="C72" s="19">
-        <v>0</v>
-      </c>
-      <c r="D72" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="18">
+      <c r="C72" s="14">
+        <v>0</v>
+      </c>
+      <c r="D72" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>748</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="3">
         <v>0.5</v>
       </c>
-      <c r="C73" s="19">
+      <c r="C73" s="14">
         <v>0.35</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D73" s="9">
         <v>0.92830000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="18">
+    <row r="74" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>748</v>
       </c>
-      <c r="B74" s="18">
+      <c r="B74" s="3">
         <v>0.5</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="14">
         <v>0.7</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="9">
         <v>0.67400000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18">
+    <row r="75" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>748</v>
       </c>
-      <c r="B75" s="18">
+      <c r="B75" s="3">
         <v>0.5</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="14">
         <v>1.05</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="9">
         <v>0.33750000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18">
+    <row r="76" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>748</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="3">
         <v>0.5</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="14">
         <v>1.4</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="9">
         <v>0.18779999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="18">
+    <row r="77" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>748</v>
       </c>
-      <c r="B77" s="18">
+      <c r="B77" s="3">
         <v>0.5</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C77" s="14">
         <v>1.75</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D77" s="9">
         <v>0.15229999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="18">
+    <row r="78" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>748</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="3">
         <v>0.5</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="14">
         <v>2.1</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="9">
         <v>0.14530000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="18">
+    <row r="79" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>748</v>
       </c>
-      <c r="B79" s="18">
+      <c r="B79" s="3">
         <v>0.5</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C79" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D79" s="9">
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="18">
+    <row r="80" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>748</v>
       </c>
-      <c r="B80" s="18">
+      <c r="B80" s="3">
         <v>0.5</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="14">
         <v>2.8</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="9">
         <v>0.14380000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="18">
+    <row r="81" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>748</v>
       </c>
-      <c r="B81" s="18">
+      <c r="B81" s="3">
         <v>0.5</v>
       </c>
-      <c r="C81" s="19">
+      <c r="C81" s="14">
         <v>3.15</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D81" s="9">
         <v>0.14369999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="18">
-        <v>673</v>
-      </c>
-      <c r="B82" s="18">
+    <row r="82" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>673</v>
+      </c>
+      <c r="B82" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C82" s="19">
-        <v>0</v>
-      </c>
-      <c r="D82" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="18">
-        <v>673</v>
-      </c>
-      <c r="B83" s="18">
+      <c r="C82" s="14">
+        <v>0</v>
+      </c>
+      <c r="D82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>673</v>
+      </c>
+      <c r="B83" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C83" s="14">
         <v>0.35</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="9">
         <v>0.99570000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="18">
-        <v>673</v>
-      </c>
-      <c r="B84" s="18">
+    <row r="84" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>673</v>
+      </c>
+      <c r="B84" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C84" s="19">
+      <c r="C84" s="14">
         <v>0.7</v>
       </c>
-      <c r="D84" s="21">
+      <c r="D84" s="9">
         <v>0.98240000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="18">
-        <v>673</v>
-      </c>
-      <c r="B85" s="18">
+    <row r="85" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>673</v>
+      </c>
+      <c r="B85" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="14">
         <v>1.05</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="9">
         <v>0.92079999999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="18">
-        <v>673</v>
-      </c>
-      <c r="B86" s="18">
+    <row r="86" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>673</v>
+      </c>
+      <c r="B86" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C86" s="19">
+      <c r="C86" s="14">
         <v>1.4</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="9">
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="18">
-        <v>673</v>
-      </c>
-      <c r="B87" s="18">
+    <row r="87" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>673</v>
+      </c>
+      <c r="B87" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C87" s="14">
         <v>1.75</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D87" s="9">
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="18">
-        <v>673</v>
-      </c>
-      <c r="B88" s="18">
+    <row r="88" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>673</v>
+      </c>
+      <c r="B88" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C88" s="19">
+      <c r="C88" s="14">
         <v>2.1</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="9">
         <v>0.18429999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="18">
-        <v>673</v>
-      </c>
-      <c r="B89" s="18">
+    <row r="89" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>673</v>
+      </c>
+      <c r="B89" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C89" s="19">
+      <c r="C89" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="9">
         <v>0.15160000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="18">
-        <v>673</v>
-      </c>
-      <c r="B90" s="18">
+    <row r="90" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>673</v>
+      </c>
+      <c r="B90" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C90" s="19">
+      <c r="C90" s="14">
         <v>2.8</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="9">
         <v>0.1452</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="18">
-        <v>673</v>
-      </c>
-      <c r="B91" s="18">
+    <row r="91" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>673</v>
+      </c>
+      <c r="B91" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C91" s="19">
+      <c r="C91" s="14">
         <v>3.15</v>
       </c>
-      <c r="D91" s="21">
+      <c r="D91" s="9">
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="18">
-        <v>698</v>
-      </c>
-      <c r="B92" s="18">
+    <row r="92" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>698</v>
+      </c>
+      <c r="B92" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C92" s="19">
-        <v>0</v>
-      </c>
-      <c r="D92" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="18">
-        <v>698</v>
-      </c>
-      <c r="B93" s="18">
+      <c r="C92" s="14">
+        <v>0</v>
+      </c>
+      <c r="D92" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>698</v>
+      </c>
+      <c r="B93" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C93" s="19">
+      <c r="C93" s="14">
         <v>0.35</v>
       </c>
-      <c r="D93" s="21">
+      <c r="D93" s="9">
         <v>0.98909999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="18">
-        <v>698</v>
-      </c>
-      <c r="B94" s="18">
+    <row r="94" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>698</v>
+      </c>
+      <c r="B94" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C94" s="19">
+      <c r="C94" s="14">
         <v>0.7</v>
       </c>
-      <c r="D94" s="21">
+      <c r="D94" s="9">
         <v>0.9536</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="18">
-        <v>698</v>
-      </c>
-      <c r="B95" s="18">
+    <row r="95" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>698</v>
+      </c>
+      <c r="B95" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C95" s="19">
+      <c r="C95" s="14">
         <v>1.05</v>
       </c>
-      <c r="D95" s="21">
+      <c r="D95" s="9">
         <v>0.74170000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="18">
-        <v>698</v>
-      </c>
-      <c r="B96" s="18">
+    <row r="96" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>698</v>
+      </c>
+      <c r="B96" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C96" s="14">
         <v>1.4</v>
       </c>
-      <c r="D96" s="21">
+      <c r="D96" s="9">
         <v>0.3926</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="18">
-        <v>698</v>
-      </c>
-      <c r="B97" s="18">
+    <row r="97" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>698</v>
+      </c>
+      <c r="B97" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C97" s="19">
+      <c r="C97" s="14">
         <v>1.75</v>
       </c>
-      <c r="D97" s="21">
+      <c r="D97" s="9">
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="18">
-        <v>698</v>
-      </c>
-      <c r="B98" s="18">
+    <row r="98" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>698</v>
+      </c>
+      <c r="B98" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C98" s="19">
+      <c r="C98" s="14">
         <v>2.1</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="9">
         <v>0.15559999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="18">
-        <v>698</v>
-      </c>
-      <c r="B99" s="18">
+    <row r="99" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>698</v>
+      </c>
+      <c r="B99" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C99" s="19">
+      <c r="C99" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D99" s="21">
+      <c r="D99" s="9">
         <v>0.1459</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="18">
-        <v>698</v>
-      </c>
-      <c r="B100" s="18">
+    <row r="100" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>698</v>
+      </c>
+      <c r="B100" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C100" s="19">
+      <c r="C100" s="14">
         <v>2.8</v>
       </c>
-      <c r="D100" s="21">
+      <c r="D100" s="9">
         <v>0.14410000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="18">
-        <v>698</v>
-      </c>
-      <c r="B101" s="18">
+    <row r="101" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>698</v>
+      </c>
+      <c r="B101" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C101" s="19">
+      <c r="C101" s="14">
         <v>3.15</v>
       </c>
-      <c r="D101" s="21">
+      <c r="D101" s="9">
         <v>0.14349999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="18">
-        <v>723</v>
-      </c>
-      <c r="B102" s="18">
+    <row r="102" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>723</v>
+      </c>
+      <c r="B102" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C102" s="19">
-        <v>0</v>
-      </c>
-      <c r="D102" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="18">
-        <v>723</v>
-      </c>
-      <c r="B103" s="18">
+      <c r="C102" s="14">
+        <v>0</v>
+      </c>
+      <c r="D102" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>723</v>
+      </c>
+      <c r="B103" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C103" s="19">
+      <c r="C103" s="14">
         <v>0.35</v>
       </c>
-      <c r="D103" s="21">
+      <c r="D103" s="9">
         <v>0.9768</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="18">
-        <v>723</v>
-      </c>
-      <c r="B104" s="18">
+    <row r="104" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>723</v>
+      </c>
+      <c r="B104" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C104" s="19">
+      <c r="C104" s="14">
         <v>0.7</v>
       </c>
-      <c r="D104" s="21">
+      <c r="D104" s="9">
         <v>0.81559999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="18">
-        <v>723</v>
-      </c>
-      <c r="B105" s="18">
+    <row r="105" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>723</v>
+      </c>
+      <c r="B105" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C105" s="19">
+      <c r="C105" s="14">
         <v>1.05</v>
       </c>
-      <c r="D105" s="21">
+      <c r="D105" s="9">
         <v>0.47360000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="18">
-        <v>723</v>
-      </c>
-      <c r="B106" s="18">
+    <row r="106" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>723</v>
+      </c>
+      <c r="B106" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C106" s="19">
+      <c r="C106" s="14">
         <v>1.4</v>
       </c>
-      <c r="D106" s="21">
+      <c r="D106" s="9">
         <v>0.23219999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="18">
-        <v>723</v>
-      </c>
-      <c r="B107" s="18">
+    <row r="107" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>723</v>
+      </c>
+      <c r="B107" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C107" s="19">
+      <c r="C107" s="14">
         <v>1.75</v>
       </c>
-      <c r="D107" s="21">
+      <c r="D107" s="9">
         <v>0.16170000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="18">
-        <v>723</v>
-      </c>
-      <c r="B108" s="18">
+    <row r="108" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>723</v>
+      </c>
+      <c r="B108" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C108" s="19">
+      <c r="C108" s="14">
         <v>2.1</v>
       </c>
-      <c r="D108" s="21">
+      <c r="D108" s="9">
         <v>0.14710000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="18">
-        <v>723</v>
-      </c>
-      <c r="B109" s="18">
+    <row r="109" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>723</v>
+      </c>
+      <c r="B109" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C109" s="19">
+      <c r="C109" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D109" s="21">
+      <c r="D109" s="9">
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="18">
-        <v>723</v>
-      </c>
-      <c r="B110" s="18">
+    <row r="110" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>723</v>
+      </c>
+      <c r="B110" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C110" s="19">
+      <c r="C110" s="14">
         <v>2.8</v>
       </c>
-      <c r="D110" s="21">
+      <c r="D110" s="9">
         <v>0.14319999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="18">
-        <v>723</v>
-      </c>
-      <c r="B111" s="18">
+    <row r="111" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>723</v>
+      </c>
+      <c r="B111" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C111" s="19">
+      <c r="C111" s="14">
         <v>3.15</v>
       </c>
-      <c r="D111" s="21">
+      <c r="D111" s="9">
         <v>0.14360000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="18">
+    <row r="112" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
         <v>748</v>
       </c>
-      <c r="B112" s="18">
+      <c r="B112" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C112" s="19">
-        <v>0</v>
-      </c>
-      <c r="D112" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="18">
+      <c r="C112" s="14">
+        <v>0</v>
+      </c>
+      <c r="D112" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
         <v>748</v>
       </c>
-      <c r="B113" s="18">
+      <c r="B113" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C113" s="19">
+      <c r="C113" s="14">
         <v>0.35</v>
       </c>
-      <c r="D113" s="21">
+      <c r="D113" s="9">
         <v>0.87509999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="18">
+    <row r="114" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
         <v>748</v>
       </c>
-      <c r="B114" s="18">
+      <c r="B114" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C114" s="19">
+      <c r="C114" s="14">
         <v>0.7</v>
       </c>
-      <c r="D114" s="21">
+      <c r="D114" s="9">
         <v>0.56340000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="18">
+    <row r="115" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
         <v>748</v>
       </c>
-      <c r="B115" s="18">
+      <c r="B115" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C115" s="19">
+      <c r="C115" s="14">
         <v>1.05</v>
       </c>
-      <c r="D115" s="21">
+      <c r="D115" s="9">
         <v>0.27160000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="18">
+    <row r="116" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
         <v>748</v>
       </c>
-      <c r="B116" s="18">
+      <c r="B116" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C116" s="19">
+      <c r="C116" s="14">
         <v>1.4</v>
       </c>
-      <c r="D116" s="21">
+      <c r="D116" s="9">
         <v>0.17080000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="18">
+    <row r="117" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
         <v>748</v>
       </c>
-      <c r="B117" s="18">
+      <c r="B117" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C117" s="19">
+      <c r="C117" s="14">
         <v>1.75</v>
       </c>
-      <c r="D117" s="21">
+      <c r="D117" s="9">
         <v>0.1489</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="18">
+    <row r="118" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
         <v>748</v>
       </c>
-      <c r="B118" s="18">
+      <c r="B118" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C118" s="19">
+      <c r="C118" s="14">
         <v>2.1</v>
       </c>
-      <c r="D118" s="21">
+      <c r="D118" s="9">
         <v>0.1447</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="18">
+    <row r="119" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
         <v>748</v>
       </c>
-      <c r="B119" s="18">
+      <c r="B119" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C119" s="19">
+      <c r="C119" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D119" s="21">
+      <c r="D119" s="9">
         <v>0.1439</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="18">
+    <row r="120" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
         <v>748</v>
       </c>
-      <c r="B120" s="18">
+      <c r="B120" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C120" s="19">
+      <c r="C120" s="14">
         <v>2.8</v>
       </c>
-      <c r="D120" s="21">
+      <c r="D120" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="18">
+    <row r="121" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
         <v>748</v>
       </c>
-      <c r="B121" s="18">
+      <c r="B121" s="3">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C121" s="19">
+      <c r="C121" s="14">
         <v>3.15</v>
       </c>
-      <c r="D121" s="21">
+      <c r="D121" s="9">
         <v>0.1434</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="18">
-        <v>673</v>
-      </c>
-      <c r="B122" s="18">
+    <row r="122" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>673</v>
+      </c>
+      <c r="B122" s="3">
         <v>0.2</v>
       </c>
-      <c r="C122" s="19">
-        <v>0</v>
-      </c>
-      <c r="D122" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="18">
-        <v>673</v>
-      </c>
-      <c r="B123" s="18">
+      <c r="C122" s="14">
+        <v>0</v>
+      </c>
+      <c r="D122" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>673</v>
+      </c>
+      <c r="B123" s="3">
         <v>0.2</v>
       </c>
-      <c r="C123" s="19">
+      <c r="C123" s="14">
         <v>0.35</v>
       </c>
-      <c r="D123" s="21">
+      <c r="D123" s="9">
         <v>0.99239999999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="18">
-        <v>673</v>
-      </c>
-      <c r="B124" s="18">
+    <row r="124" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>673</v>
+      </c>
+      <c r="B124" s="3">
         <v>0.2</v>
       </c>
-      <c r="C124" s="19">
+      <c r="C124" s="14">
         <v>0.7</v>
       </c>
-      <c r="D124" s="21">
+      <c r="D124" s="9">
         <v>0.96819999999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="18">
-        <v>673</v>
-      </c>
-      <c r="B125" s="18">
+    <row r="125" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>673</v>
+      </c>
+      <c r="B125" s="3">
         <v>0.2</v>
       </c>
-      <c r="C125" s="19">
+      <c r="C125" s="14">
         <v>1.05</v>
       </c>
-      <c r="D125" s="21">
+      <c r="D125" s="9">
         <v>0.78659999999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="18">
-        <v>673</v>
-      </c>
-      <c r="B126" s="18">
+    <row r="126" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>673</v>
+      </c>
+      <c r="B126" s="3">
         <v>0.2</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C126" s="14">
         <v>1.4</v>
       </c>
-      <c r="D126" s="21">
+      <c r="D126" s="9">
         <v>0.43859999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="18">
-        <v>673</v>
-      </c>
-      <c r="B127" s="18">
+    <row r="127" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>673</v>
+      </c>
+      <c r="B127" s="3">
         <v>0.2</v>
       </c>
-      <c r="C127" s="19">
+      <c r="C127" s="14">
         <v>1.75</v>
       </c>
-      <c r="D127" s="21">
+      <c r="D127" s="9">
         <v>0.21929999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="18">
-        <v>673</v>
-      </c>
-      <c r="B128" s="18">
+    <row r="128" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>673</v>
+      </c>
+      <c r="B128" s="3">
         <v>0.2</v>
       </c>
-      <c r="C128" s="19">
+      <c r="C128" s="14">
         <v>2.1</v>
       </c>
-      <c r="D128" s="21">
+      <c r="D128" s="9">
         <v>0.15890000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="18">
-        <v>673</v>
-      </c>
-      <c r="B129" s="18">
+    <row r="129" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>673</v>
+      </c>
+      <c r="B129" s="3">
         <v>0.2</v>
       </c>
-      <c r="C129" s="19">
+      <c r="C129" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D129" s="21">
+      <c r="D129" s="9">
         <v>0.14660000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="18">
-        <v>673</v>
-      </c>
-      <c r="B130" s="18">
+    <row r="130" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>673</v>
+      </c>
+      <c r="B130" s="3">
         <v>0.2</v>
       </c>
-      <c r="C130" s="19">
+      <c r="C130" s="14">
         <v>2.8</v>
       </c>
-      <c r="D130" s="21">
+      <c r="D130" s="9">
         <v>0.14419999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="18">
-        <v>673</v>
-      </c>
-      <c r="B131" s="18">
+    <row r="131" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>673</v>
+      </c>
+      <c r="B131" s="3">
         <v>0.2</v>
       </c>
-      <c r="C131" s="19">
+      <c r="C131" s="14">
         <v>3.15</v>
       </c>
-      <c r="D131" s="21">
+      <c r="D131" s="9">
         <v>0.14380000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="18">
-        <v>698</v>
-      </c>
-      <c r="B132" s="18">
+    <row r="132" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>698</v>
+      </c>
+      <c r="B132" s="3">
         <v>0.2</v>
       </c>
-      <c r="C132" s="19">
-        <v>0</v>
-      </c>
-      <c r="D132" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="18">
-        <v>698</v>
-      </c>
-      <c r="B133" s="18">
+      <c r="C132" s="14">
+        <v>0</v>
+      </c>
+      <c r="D132" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>698</v>
+      </c>
+      <c r="B133" s="3">
         <v>0.2</v>
       </c>
-      <c r="C133" s="19">
+      <c r="C133" s="14">
         <v>0.35</v>
       </c>
-      <c r="D133" s="21">
+      <c r="D133" s="9">
         <v>0.98680000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="18">
-        <v>698</v>
-      </c>
-      <c r="B134" s="18">
+    <row r="134" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>698</v>
+      </c>
+      <c r="B134" s="3">
         <v>0.2</v>
       </c>
-      <c r="C134" s="19">
+      <c r="C134" s="14">
         <v>0.7</v>
       </c>
-      <c r="D134" s="21">
+      <c r="D134" s="9">
         <v>0.85219999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="18">
-        <v>698</v>
-      </c>
-      <c r="B135" s="18">
+    <row r="135" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>698</v>
+      </c>
+      <c r="B135" s="3">
         <v>0.2</v>
       </c>
-      <c r="C135" s="19">
+      <c r="C135" s="14">
         <v>1.05</v>
       </c>
-      <c r="D135" s="21">
+      <c r="D135" s="9">
         <v>0.52549999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="18">
-        <v>698</v>
-      </c>
-      <c r="B136" s="18">
+    <row r="136" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>698</v>
+      </c>
+      <c r="B136" s="3">
         <v>0.2</v>
       </c>
-      <c r="C136" s="19">
+      <c r="C136" s="14">
         <v>1.4</v>
       </c>
-      <c r="D136" s="21">
+      <c r="D136" s="9">
         <v>0.25369999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="18">
-        <v>698</v>
-      </c>
-      <c r="B137" s="18">
+    <row r="137" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>698</v>
+      </c>
+      <c r="B137" s="3">
         <v>0.2</v>
       </c>
-      <c r="C137" s="19">
+      <c r="C137" s="14">
         <v>1.75</v>
       </c>
-      <c r="D137" s="21">
+      <c r="D137" s="9">
         <v>0.1666</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="18">
-        <v>698</v>
-      </c>
-      <c r="B138" s="18">
+    <row r="138" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>698</v>
+      </c>
+      <c r="B138" s="3">
         <v>0.2</v>
       </c>
-      <c r="C138" s="19">
+      <c r="C138" s="14">
         <v>2.1</v>
       </c>
-      <c r="D138" s="21">
+      <c r="D138" s="9">
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="18">
-        <v>698</v>
-      </c>
-      <c r="B139" s="18">
+    <row r="139" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>698</v>
+      </c>
+      <c r="B139" s="3">
         <v>0.2</v>
       </c>
-      <c r="C139" s="19">
+      <c r="C139" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D139" s="21">
+      <c r="D139" s="9">
         <v>0.14449999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="18">
-        <v>698</v>
-      </c>
-      <c r="B140" s="18">
+    <row r="140" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>698</v>
+      </c>
+      <c r="B140" s="3">
         <v>0.2</v>
       </c>
-      <c r="C140" s="19">
+      <c r="C140" s="14">
         <v>2.8</v>
       </c>
-      <c r="D140" s="21">
+      <c r="D140" s="9">
         <v>0.14410000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="18">
-        <v>698</v>
-      </c>
-      <c r="B141" s="18">
+    <row r="141" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>698</v>
+      </c>
+      <c r="B141" s="3">
         <v>0.2</v>
       </c>
-      <c r="C141" s="19">
+      <c r="C141" s="14">
         <v>3.15</v>
       </c>
-      <c r="D141" s="21">
+      <c r="D141" s="9">
         <v>0.14330000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="18">
-        <v>723</v>
-      </c>
-      <c r="B142" s="18">
+    <row r="142" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>723</v>
+      </c>
+      <c r="B142" s="3">
         <v>0.2</v>
       </c>
-      <c r="C142" s="19">
-        <v>0</v>
-      </c>
-      <c r="D142" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="18">
-        <v>723</v>
-      </c>
-      <c r="B143" s="18">
+      <c r="C142" s="14">
+        <v>0</v>
+      </c>
+      <c r="D142" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>723</v>
+      </c>
+      <c r="B143" s="3">
         <v>0.2</v>
       </c>
-      <c r="C143" s="19">
+      <c r="C143" s="14">
         <v>0.35</v>
       </c>
-      <c r="D143" s="21">
+      <c r="D143" s="9">
         <v>0.9032</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="18">
-        <v>723</v>
-      </c>
-      <c r="B144" s="18">
+    <row r="144" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>723</v>
+      </c>
+      <c r="B144" s="3">
         <v>0.2</v>
       </c>
-      <c r="C144" s="19">
+      <c r="C144" s="14">
         <v>0.7</v>
       </c>
-      <c r="D144" s="21">
+      <c r="D144" s="9">
         <v>0.61729999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="18">
-        <v>723</v>
-      </c>
-      <c r="B145" s="18">
+    <row r="145" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>723</v>
+      </c>
+      <c r="B145" s="3">
         <v>0.2</v>
       </c>
-      <c r="C145" s="19">
+      <c r="C145" s="14">
         <v>1.05</v>
       </c>
-      <c r="D145" s="21">
+      <c r="D145" s="9">
         <v>0.30070000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="18">
-        <v>723</v>
-      </c>
-      <c r="B146" s="18">
+    <row r="146" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>723</v>
+      </c>
+      <c r="B146" s="3">
         <v>0.2</v>
       </c>
-      <c r="C146" s="19">
+      <c r="C146" s="14">
         <v>1.4</v>
       </c>
-      <c r="D146" s="21">
+      <c r="D146" s="9">
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="18">
-        <v>723</v>
-      </c>
-      <c r="B147" s="18">
+    <row r="147" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>723</v>
+      </c>
+      <c r="B147" s="3">
         <v>0.2</v>
       </c>
-      <c r="C147" s="19">
+      <c r="C147" s="14">
         <v>1.75</v>
       </c>
-      <c r="D147" s="21">
+      <c r="D147" s="9">
         <v>0.15029999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="18">
-        <v>723</v>
-      </c>
-      <c r="B148" s="18">
+    <row r="148" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>723</v>
+      </c>
+      <c r="B148" s="3">
         <v>0.2</v>
       </c>
-      <c r="C148" s="19">
+      <c r="C148" s="14">
         <v>2.1</v>
       </c>
-      <c r="D148" s="21">
+      <c r="D148" s="9">
         <v>0.1449</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="18">
-        <v>723</v>
-      </c>
-      <c r="B149" s="18">
+    <row r="149" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>723</v>
+      </c>
+      <c r="B149" s="3">
         <v>0.2</v>
       </c>
-      <c r="C149" s="19">
+      <c r="C149" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D149" s="21">
+      <c r="D149" s="9">
         <v>0.1439</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="18">
-        <v>723</v>
-      </c>
-      <c r="B150" s="18">
+    <row r="150" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>723</v>
+      </c>
+      <c r="B150" s="3">
         <v>0.2</v>
       </c>
-      <c r="C150" s="19">
+      <c r="C150" s="14">
         <v>2.8</v>
       </c>
-      <c r="D150" s="21">
+      <c r="D150" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="18">
-        <v>723</v>
-      </c>
-      <c r="B151" s="18">
+    <row r="151" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>723</v>
+      </c>
+      <c r="B151" s="3">
         <v>0.2</v>
       </c>
-      <c r="C151" s="19">
+      <c r="C151" s="14">
         <v>3.15</v>
       </c>
-      <c r="D151" s="21">
+      <c r="D151" s="9">
         <v>0.1434</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="18">
+    <row r="152" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
         <v>748</v>
       </c>
-      <c r="B152" s="18">
+      <c r="B152" s="3">
         <v>0.2</v>
       </c>
-      <c r="C152" s="19">
-        <v>0</v>
-      </c>
-      <c r="D152" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="18">
+      <c r="C152" s="14">
+        <v>0</v>
+      </c>
+      <c r="D152" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
         <v>748</v>
       </c>
-      <c r="B153" s="18">
+      <c r="B153" s="3">
         <v>0.2</v>
       </c>
-      <c r="C153" s="19">
+      <c r="C153" s="14">
         <v>0.35</v>
       </c>
-      <c r="D153" s="21">
+      <c r="D153" s="9">
         <v>0.75639999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="18">
+    <row r="154" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
         <v>748</v>
       </c>
-      <c r="B154" s="18">
+      <c r="B154" s="3">
         <v>0.2</v>
       </c>
-      <c r="C154" s="19">
+      <c r="C154" s="14">
         <v>0.7</v>
       </c>
-      <c r="D154" s="21">
+      <c r="D154" s="9">
         <v>0.36209999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="18">
+    <row r="155" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
         <v>748</v>
       </c>
-      <c r="B155" s="18">
+      <c r="B155" s="3">
         <v>0.2</v>
       </c>
-      <c r="C155" s="19">
+      <c r="C155" s="14">
         <v>1.05</v>
       </c>
-      <c r="D155" s="21">
+      <c r="D155" s="9">
         <v>0.19470000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="18">
+    <row r="156" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
         <v>748</v>
       </c>
-      <c r="B156" s="18">
+      <c r="B156" s="3">
         <v>0.2</v>
       </c>
-      <c r="C156" s="19">
+      <c r="C156" s="14">
         <v>1.4</v>
       </c>
-      <c r="D156" s="21">
+      <c r="D156" s="9">
         <v>0.1537</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="18">
+    <row r="157" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
         <v>748</v>
       </c>
-      <c r="B157" s="18">
+      <c r="B157" s="3">
         <v>0.2</v>
       </c>
-      <c r="C157" s="19">
+      <c r="C157" s="14">
         <v>1.75</v>
       </c>
-      <c r="D157" s="21">
+      <c r="D157" s="9">
         <v>0.14560000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="18">
+    <row r="158" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
         <v>748</v>
       </c>
-      <c r="B158" s="18">
+      <c r="B158" s="3">
         <v>0.2</v>
       </c>
-      <c r="C158" s="19">
+      <c r="C158" s="14">
         <v>2.1</v>
       </c>
-      <c r="D158" s="21">
+      <c r="D158" s="9">
         <v>0.14410000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="18">
+    <row r="159" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
         <v>748</v>
       </c>
-      <c r="B159" s="18">
+      <c r="B159" s="3">
         <v>0.2</v>
       </c>
-      <c r="C159" s="19">
+      <c r="C159" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D159" s="21">
+      <c r="D159" s="9">
         <v>0.14380000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="18">
+    <row r="160" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
         <v>748</v>
       </c>
-      <c r="B160" s="18">
+      <c r="B160" s="3">
         <v>0.2</v>
       </c>
-      <c r="C160" s="19">
+      <c r="C160" s="14">
         <v>2.8</v>
       </c>
-      <c r="D160" s="21">
+      <c r="D160" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="18">
+    <row r="161" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
         <v>748</v>
       </c>
-      <c r="B161" s="18">
+      <c r="B161" s="3">
         <v>0.2</v>
       </c>
-      <c r="C161" s="19">
+      <c r="C161" s="14">
         <v>3.15</v>
       </c>
-      <c r="D161" s="21">
+      <c r="D161" s="9">
         <v>0.14360000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="18">
-        <v>673</v>
-      </c>
-      <c r="B162" s="18">
-        <v>0</v>
-      </c>
-      <c r="C162" s="19">
-        <v>0</v>
-      </c>
-      <c r="D162" s="21">
+    <row r="162" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>673</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0</v>
+      </c>
+      <c r="C162" s="14">
+        <v>0</v>
+      </c>
+      <c r="D162" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="18">
-        <v>673</v>
-      </c>
-      <c r="B163" s="18">
-        <v>0</v>
-      </c>
-      <c r="C163" s="19">
+    <row r="163" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>673</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0</v>
+      </c>
+      <c r="C163" s="14">
         <v>0.35</v>
       </c>
-      <c r="D163" s="21">
+      <c r="D163" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="18">
-        <v>673</v>
-      </c>
-      <c r="B164" s="18">
-        <v>0</v>
-      </c>
-      <c r="C164" s="19">
+    <row r="164" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>673</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0</v>
+      </c>
+      <c r="C164" s="14">
         <v>0.7</v>
       </c>
-      <c r="D164" s="21">
+      <c r="D164" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="18">
-        <v>673</v>
-      </c>
-      <c r="B165" s="18">
-        <v>0</v>
-      </c>
-      <c r="C165" s="19">
+    <row r="165" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>673</v>
+      </c>
+      <c r="B165" s="3">
+        <v>0</v>
+      </c>
+      <c r="C165" s="14">
         <v>1.05</v>
       </c>
-      <c r="D165" s="21">
+      <c r="D165" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="166" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="18">
-        <v>673</v>
-      </c>
-      <c r="B166" s="18">
-        <v>0</v>
-      </c>
-      <c r="C166" s="19">
+    <row r="166" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>673</v>
+      </c>
+      <c r="B166" s="3">
+        <v>0</v>
+      </c>
+      <c r="C166" s="14">
         <v>1.4</v>
       </c>
-      <c r="D166" s="21">
+      <c r="D166" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="18">
-        <v>673</v>
-      </c>
-      <c r="B167" s="18">
-        <v>0</v>
-      </c>
-      <c r="C167" s="19">
+    <row r="167" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>673</v>
+      </c>
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+      <c r="C167" s="14">
         <v>1.75</v>
       </c>
-      <c r="D167" s="21">
+      <c r="D167" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="18">
-        <v>673</v>
-      </c>
-      <c r="B168" s="18">
-        <v>0</v>
-      </c>
-      <c r="C168" s="19">
+    <row r="168" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>673</v>
+      </c>
+      <c r="B168" s="3">
+        <v>0</v>
+      </c>
+      <c r="C168" s="14">
         <v>2.1</v>
       </c>
-      <c r="D168" s="21">
+      <c r="D168" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="18">
-        <v>673</v>
-      </c>
-      <c r="B169" s="18">
-        <v>0</v>
-      </c>
-      <c r="C169" s="19">
+    <row r="169" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>673</v>
+      </c>
+      <c r="B169" s="3">
+        <v>0</v>
+      </c>
+      <c r="C169" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D169" s="21">
+      <c r="D169" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="18">
-        <v>673</v>
-      </c>
-      <c r="B170" s="18">
-        <v>0</v>
-      </c>
-      <c r="C170" s="19">
+    <row r="170" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>673</v>
+      </c>
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+      <c r="C170" s="14">
         <v>2.8</v>
       </c>
-      <c r="D170" s="21">
+      <c r="D170" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="171" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="18">
-        <v>673</v>
-      </c>
-      <c r="B171" s="18">
-        <v>0</v>
-      </c>
-      <c r="C171" s="19">
+    <row r="171" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>673</v>
+      </c>
+      <c r="B171" s="3">
+        <v>0</v>
+      </c>
+      <c r="C171" s="14">
         <v>3.15</v>
       </c>
-      <c r="D171" s="21">
+      <c r="D171" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="18">
-        <v>698</v>
-      </c>
-      <c r="B172" s="18">
-        <v>0</v>
-      </c>
-      <c r="C172" s="19">
-        <v>0</v>
-      </c>
-      <c r="D172" s="21">
+    <row r="172" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>698</v>
+      </c>
+      <c r="B172" s="3">
+        <v>0</v>
+      </c>
+      <c r="C172" s="14">
+        <v>0</v>
+      </c>
+      <c r="D172" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="173" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="18">
-        <v>698</v>
-      </c>
-      <c r="B173" s="18">
-        <v>0</v>
-      </c>
-      <c r="C173" s="19">
+    <row r="173" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>698</v>
+      </c>
+      <c r="B173" s="3">
+        <v>0</v>
+      </c>
+      <c r="C173" s="14">
         <v>0.35</v>
       </c>
-      <c r="D173" s="21">
+      <c r="D173" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="174" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="18">
-        <v>698</v>
-      </c>
-      <c r="B174" s="18">
-        <v>0</v>
-      </c>
-      <c r="C174" s="19">
+    <row r="174" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>698</v>
+      </c>
+      <c r="B174" s="3">
+        <v>0</v>
+      </c>
+      <c r="C174" s="14">
         <v>0.7</v>
       </c>
-      <c r="D174" s="21">
+      <c r="D174" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="175" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="18">
-        <v>698</v>
-      </c>
-      <c r="B175" s="18">
-        <v>0</v>
-      </c>
-      <c r="C175" s="19">
+    <row r="175" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>698</v>
+      </c>
+      <c r="B175" s="3">
+        <v>0</v>
+      </c>
+      <c r="C175" s="14">
         <v>1.05</v>
       </c>
-      <c r="D175" s="21">
+      <c r="D175" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="176" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="18">
-        <v>698</v>
-      </c>
-      <c r="B176" s="18">
-        <v>0</v>
-      </c>
-      <c r="C176" s="19">
+    <row r="176" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>698</v>
+      </c>
+      <c r="B176" s="3">
+        <v>0</v>
+      </c>
+      <c r="C176" s="14">
         <v>1.4</v>
       </c>
-      <c r="D176" s="21">
+      <c r="D176" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="18">
-        <v>698</v>
-      </c>
-      <c r="B177" s="18">
-        <v>0</v>
-      </c>
-      <c r="C177" s="19">
+    <row r="177" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>698</v>
+      </c>
+      <c r="B177" s="3">
+        <v>0</v>
+      </c>
+      <c r="C177" s="14">
         <v>1.75</v>
       </c>
-      <c r="D177" s="21">
+      <c r="D177" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="18">
-        <v>698</v>
-      </c>
-      <c r="B178" s="18">
-        <v>0</v>
-      </c>
-      <c r="C178" s="19">
+    <row r="178" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>698</v>
+      </c>
+      <c r="B178" s="3">
+        <v>0</v>
+      </c>
+      <c r="C178" s="14">
         <v>2.1</v>
       </c>
-      <c r="D178" s="21">
+      <c r="D178" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="18">
-        <v>698</v>
-      </c>
-      <c r="B179" s="18">
-        <v>0</v>
-      </c>
-      <c r="C179" s="19">
+    <row r="179" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>698</v>
+      </c>
+      <c r="B179" s="3">
+        <v>0</v>
+      </c>
+      <c r="C179" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D179" s="21">
+      <c r="D179" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="18">
-        <v>698</v>
-      </c>
-      <c r="B180" s="18">
-        <v>0</v>
-      </c>
-      <c r="C180" s="19">
+    <row r="180" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>698</v>
+      </c>
+      <c r="B180" s="3">
+        <v>0</v>
+      </c>
+      <c r="C180" s="14">
         <v>2.8</v>
       </c>
-      <c r="D180" s="21">
+      <c r="D180" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="18">
-        <v>698</v>
-      </c>
-      <c r="B181" s="18">
-        <v>0</v>
-      </c>
-      <c r="C181" s="19">
+    <row r="181" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>698</v>
+      </c>
+      <c r="B181" s="3">
+        <v>0</v>
+      </c>
+      <c r="C181" s="14">
         <v>3.15</v>
       </c>
-      <c r="D181" s="21">
+      <c r="D181" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="18">
-        <v>723</v>
-      </c>
-      <c r="B182" s="18">
-        <v>0</v>
-      </c>
-      <c r="C182" s="19">
-        <v>0</v>
-      </c>
-      <c r="D182" s="21">
+    <row r="182" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>723</v>
+      </c>
+      <c r="B182" s="3">
+        <v>0</v>
+      </c>
+      <c r="C182" s="14">
+        <v>0</v>
+      </c>
+      <c r="D182" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="18">
-        <v>723</v>
-      </c>
-      <c r="B183" s="18">
-        <v>0</v>
-      </c>
-      <c r="C183" s="19">
+    <row r="183" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>723</v>
+      </c>
+      <c r="B183" s="3">
+        <v>0</v>
+      </c>
+      <c r="C183" s="14">
         <v>0.35</v>
       </c>
-      <c r="D183" s="21">
+      <c r="D183" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="18">
-        <v>723</v>
-      </c>
-      <c r="B184" s="18">
-        <v>0</v>
-      </c>
-      <c r="C184" s="19">
+    <row r="184" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>723</v>
+      </c>
+      <c r="B184" s="3">
+        <v>0</v>
+      </c>
+      <c r="C184" s="14">
         <v>0.7</v>
       </c>
-      <c r="D184" s="21">
+      <c r="D184" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="18">
-        <v>723</v>
-      </c>
-      <c r="B185" s="18">
-        <v>0</v>
-      </c>
-      <c r="C185" s="19">
+    <row r="185" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>723</v>
+      </c>
+      <c r="B185" s="3">
+        <v>0</v>
+      </c>
+      <c r="C185" s="14">
         <v>1.05</v>
       </c>
-      <c r="D185" s="21">
+      <c r="D185" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="18">
-        <v>723</v>
-      </c>
-      <c r="B186" s="18">
-        <v>0</v>
-      </c>
-      <c r="C186" s="19">
+    <row r="186" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>723</v>
+      </c>
+      <c r="B186" s="3">
+        <v>0</v>
+      </c>
+      <c r="C186" s="14">
         <v>1.4</v>
       </c>
-      <c r="D186" s="21">
+      <c r="D186" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="18">
-        <v>723</v>
-      </c>
-      <c r="B187" s="18">
-        <v>0</v>
-      </c>
-      <c r="C187" s="19">
+    <row r="187" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>723</v>
+      </c>
+      <c r="B187" s="3">
+        <v>0</v>
+      </c>
+      <c r="C187" s="14">
         <v>1.75</v>
       </c>
-      <c r="D187" s="21">
+      <c r="D187" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="18">
-        <v>723</v>
-      </c>
-      <c r="B188" s="18">
-        <v>0</v>
-      </c>
-      <c r="C188" s="19">
+    <row r="188" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>723</v>
+      </c>
+      <c r="B188" s="3">
+        <v>0</v>
+      </c>
+      <c r="C188" s="14">
         <v>2.1</v>
       </c>
-      <c r="D188" s="21">
+      <c r="D188" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="18">
-        <v>723</v>
-      </c>
-      <c r="B189" s="18">
-        <v>0</v>
-      </c>
-      <c r="C189" s="19">
+    <row r="189" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>723</v>
+      </c>
+      <c r="B189" s="3">
+        <v>0</v>
+      </c>
+      <c r="C189" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D189" s="21">
+      <c r="D189" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="18">
-        <v>723</v>
-      </c>
-      <c r="B190" s="18">
-        <v>0</v>
-      </c>
-      <c r="C190" s="19">
+    <row r="190" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>723</v>
+      </c>
+      <c r="B190" s="3">
+        <v>0</v>
+      </c>
+      <c r="C190" s="14">
         <v>2.8</v>
       </c>
-      <c r="D190" s="21">
+      <c r="D190" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="18">
-        <v>723</v>
-      </c>
-      <c r="B191" s="18">
-        <v>0</v>
-      </c>
-      <c r="C191" s="19">
+    <row r="191" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>723</v>
+      </c>
+      <c r="B191" s="3">
+        <v>0</v>
+      </c>
+      <c r="C191" s="14">
         <v>3.15</v>
       </c>
-      <c r="D191" s="21">
+      <c r="D191" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="18">
+    <row r="192" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
         <v>748</v>
       </c>
-      <c r="B192" s="18">
-        <v>0</v>
-      </c>
-      <c r="C192" s="19">
-        <v>0</v>
-      </c>
-      <c r="D192" s="21">
+      <c r="B192" s="3">
+        <v>0</v>
+      </c>
+      <c r="C192" s="14">
+        <v>0</v>
+      </c>
+      <c r="D192" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="193" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="18">
+    <row r="193" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
         <v>748</v>
       </c>
-      <c r="B193" s="18">
-        <v>0</v>
-      </c>
-      <c r="C193" s="19">
+      <c r="B193" s="3">
+        <v>0</v>
+      </c>
+      <c r="C193" s="14">
         <v>0.35</v>
       </c>
-      <c r="D193" s="21">
+      <c r="D193" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="18">
+    <row r="194" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
         <v>748</v>
       </c>
-      <c r="B194" s="18">
-        <v>0</v>
-      </c>
-      <c r="C194" s="19">
+      <c r="B194" s="3">
+        <v>0</v>
+      </c>
+      <c r="C194" s="14">
         <v>0.7</v>
       </c>
-      <c r="D194" s="21">
+      <c r="D194" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="18">
+    <row r="195" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
         <v>748</v>
       </c>
-      <c r="B195" s="18">
-        <v>0</v>
-      </c>
-      <c r="C195" s="19">
+      <c r="B195" s="3">
+        <v>0</v>
+      </c>
+      <c r="C195" s="14">
         <v>1.05</v>
       </c>
-      <c r="D195" s="21">
+      <c r="D195" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="18">
+    <row r="196" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
         <v>748</v>
       </c>
-      <c r="B196" s="18">
-        <v>0</v>
-      </c>
-      <c r="C196" s="19">
+      <c r="B196" s="3">
+        <v>0</v>
+      </c>
+      <c r="C196" s="14">
         <v>1.4</v>
       </c>
-      <c r="D196" s="21">
+      <c r="D196" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="197" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="18">
+    <row r="197" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
         <v>748</v>
       </c>
-      <c r="B197" s="18">
-        <v>0</v>
-      </c>
-      <c r="C197" s="19">
+      <c r="B197" s="3">
+        <v>0</v>
+      </c>
+      <c r="C197" s="14">
         <v>1.75</v>
       </c>
-      <c r="D197" s="21">
+      <c r="D197" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="18">
+    <row r="198" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
         <v>748</v>
       </c>
-      <c r="B198" s="18">
-        <v>0</v>
-      </c>
-      <c r="C198" s="19">
+      <c r="B198" s="3">
+        <v>0</v>
+      </c>
+      <c r="C198" s="14">
         <v>2.1</v>
       </c>
-      <c r="D198" s="21">
+      <c r="D198" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="199" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="18">
+    <row r="199" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
         <v>748</v>
       </c>
-      <c r="B199" s="18">
-        <v>0</v>
-      </c>
-      <c r="C199" s="19">
+      <c r="B199" s="3">
+        <v>0</v>
+      </c>
+      <c r="C199" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D199" s="21">
+      <c r="D199" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="200" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="18">
+    <row r="200" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
         <v>748</v>
       </c>
-      <c r="B200" s="18">
-        <v>0</v>
-      </c>
-      <c r="C200" s="19">
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+      <c r="C200" s="14">
         <v>2.8</v>
       </c>
-      <c r="D200" s="21">
+      <c r="D200" s="9">
         <v>0.1431</v>
       </c>
     </row>
-    <row r="201" spans="1:4" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="18">
+    <row r="201" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
         <v>748</v>
       </c>
-      <c r="B201" s="18">
-        <v>0</v>
-      </c>
-      <c r="C201" s="19">
+      <c r="B201" s="3">
+        <v>0</v>
+      </c>
+      <c r="C201" s="14">
         <v>3.15</v>
       </c>
-      <c r="D201" s="21">
+      <c r="D201" s="9">
         <v>0.1431</v>
       </c>
     </row>
@@ -5640,7 +5625,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -5671,22 +5656,22 @@
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="20">
         <v>1.7160000000000002E-2</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="20">
         <v>0.30402000000000001</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="20">
         <v>0.40014</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="20">
         <v>0.16749</v>
       </c>
       <c r="H2" s="5">
         <v>0.11119999999999999</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="21">
         <v>1.31E-8</v>
       </c>
     </row>
@@ -5700,22 +5685,22 @@
       <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <v>1.7160000000000002E-2</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="22">
         <v>0.30402000000000001</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="22">
         <v>0.40014</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="22">
         <v>0.16749</v>
       </c>
       <c r="H3" s="9">
         <v>0.11119999999999999</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="23">
         <v>1.7E-8</v>
       </c>
     </row>
@@ -5723,28 +5708,28 @@
       <c r="A4" s="8">
         <v>673</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="24">
         <v>0.7</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>1.7160000000000002E-2</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="22">
         <v>0.30402000000000001</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="22">
         <v>0.40014</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="22">
         <v>0.16749</v>
       </c>
       <c r="H4" s="9">
         <v>0.11119999999999999</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="23">
         <v>2.9099999999999999E-8</v>
       </c>
     </row>
@@ -5758,22 +5743,22 @@
       <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <v>1.7160000000000002E-2</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="22">
         <v>0.30402000000000001</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="22">
         <v>0.40014</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="22">
         <v>0.16749</v>
       </c>
       <c r="H5" s="9">
         <v>0.11119999999999999</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="23">
         <v>8.9900000000000004E-8</v>
       </c>
     </row>
@@ -5781,28 +5766,28 @@
       <c r="A6" s="8">
         <v>673</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="24">
         <v>1.4</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>1.7160000000000002E-2</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="22">
         <v>0.30402000000000001</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="22">
         <v>0.40014</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <v>0.16749</v>
       </c>
       <c r="H6" s="9">
         <v>0.11119999999999999</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="23">
         <v>2.0099999999999998E-6</v>
       </c>
     </row>
@@ -5816,22 +5801,22 @@
       <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>1.7149999999999999E-2</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="22">
         <v>0.30387999999999998</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="22">
         <v>0.39996999999999999</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <v>0.16741</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="22">
         <v>0.11115</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="23">
         <v>4.37E-4</v>
       </c>
     </row>
@@ -5839,7 +5824,7 @@
       <c r="A8" s="8">
         <v>673</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="24">
         <v>2.1</v>
       </c>
       <c r="C8" s="8">
@@ -5848,16 +5833,16 @@
       <c r="D8" s="9">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="22">
         <v>0.29938999999999999</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="22">
         <v>0.39406000000000002</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="22">
         <v>0.16494</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="22">
         <v>0.10951</v>
       </c>
       <c r="I8" s="9">
@@ -5874,22 +5859,22 @@
       <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <v>1.6449999999999999E-2</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="22">
         <v>0.29143999999999998</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="22">
         <v>0.38357999999999998</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="22">
         <v>0.16055</v>
       </c>
       <c r="H9" s="9">
         <v>0.1066</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="22">
         <v>4.138E-2</v>
       </c>
     </row>
@@ -5897,28 +5882,28 @@
       <c r="A10" s="8">
         <v>673</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="24">
         <v>2.8</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>1.6289999999999999E-2</v>
       </c>
       <c r="E10" s="9">
         <v>0.28870000000000001</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="22">
         <v>0.37998999999999999</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <v>0.15905</v>
       </c>
       <c r="H10" s="9">
         <v>0.1056</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="22">
         <v>5.0369999999999998E-2</v>
       </c>
     </row>
@@ -5932,22 +5917,22 @@
       <c r="C11" s="8">
         <v>1</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="22">
         <v>1.626E-2</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="22">
         <v>0.28815000000000002</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="22">
         <v>0.37925999999999999</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="22">
         <v>0.15875</v>
       </c>
       <c r="H11" s="9">
         <v>0.10539999999999999</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="22">
         <v>5.2179999999999997E-2</v>
       </c>
     </row>
@@ -5958,25 +5943,25 @@
       <c r="B12" s="8">
         <v>0</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="24">
         <v>0.5</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="22">
         <v>1.7149999999999999E-2</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="22">
         <v>0.30397000000000002</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="22">
         <v>0.40009</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <v>0.16746</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="22">
         <v>0.11118</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="23">
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
@@ -5987,25 +5972,25 @@
       <c r="B13" s="14">
         <v>0.35</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="24">
         <v>0.5</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <v>1.7149999999999999E-2</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="22">
         <v>0.30396000000000001</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="22">
         <v>0.40006999999999998</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="22">
         <v>0.16746</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="22">
         <v>0.11118</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="23">
         <v>1.84E-4</v>
       </c>
     </row>
@@ -6013,28 +5998,28 @@
       <c r="A14" s="8">
         <v>673</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="24">
         <v>0.7</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <v>0.5</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="22">
         <v>1.7149999999999999E-2</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="22">
         <v>0.30392000000000002</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="22">
         <v>0.40001999999999999</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="22">
         <v>0.16743</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="22">
         <v>0.11115999999999999</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="23">
         <v>3.1100000000000002E-4</v>
       </c>
     </row>
@@ -6045,25 +6030,25 @@
       <c r="B15" s="14">
         <v>1.05</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="24">
         <v>0.5</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="22">
         <v>1.7139999999999999E-2</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="22">
         <v>0.30374000000000001</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="22">
         <v>0.39978000000000002</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="22">
         <v>0.16733000000000001</v>
       </c>
       <c r="H15" s="9">
         <v>0.1111</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="23">
         <v>9.0399999999999996E-4</v>
       </c>
     </row>
@@ -6071,25 +6056,25 @@
       <c r="A16" s="8">
         <v>673</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="24">
         <v>1.4</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="24">
         <v>0.5</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="22">
         <v>1.704E-2</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="22">
         <v>0.30198000000000003</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="22">
         <v>0.39745999999999998</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="22">
         <v>0.16636000000000001</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="22">
         <v>0.11045000000000001</v>
       </c>
       <c r="I16" s="9">
@@ -6103,22 +6088,22 @@
       <c r="B17" s="14">
         <v>1.75</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="24">
         <v>0.5</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="22">
         <v>1.6119999999999999E-2</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="22">
         <v>0.28565000000000002</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="22">
         <v>0.37597000000000003</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="22">
         <v>0.15737000000000001</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="22">
         <v>0.10448</v>
       </c>
       <c r="I17" s="9">
@@ -6129,25 +6114,25 @@
       <c r="A18" s="8">
         <v>673</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="24">
         <v>2.1</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="24">
         <v>0.5</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="22">
         <v>1.435E-2</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="22">
         <v>0.25436999999999999</v>
       </c>
       <c r="F18" s="9">
         <v>0.33479999999999999</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="22">
         <v>0.14013</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="22">
         <v>9.3039999999999998E-2</v>
       </c>
       <c r="I18" s="9">
@@ -6161,25 +6146,25 @@
       <c r="B19" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="24">
         <v>0.5</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="22">
         <v>1.362E-2</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="22">
         <v>0.24126</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="22">
         <v>0.31755</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="22">
         <v>0.13291</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="22">
         <v>8.8249999999999995E-2</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="22">
         <v>0.20641000000000001</v>
       </c>
     </row>
@@ -6187,28 +6172,28 @@
       <c r="A20" s="8">
         <v>673</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="24">
         <v>2.8</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="24">
         <v>0.5</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="22">
         <v>1.346E-2</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="22">
         <v>0.23845</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="22">
         <v>0.31385000000000002</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="22">
         <v>0.13136999999999999</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="22">
         <v>8.7220000000000006E-2</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="22">
         <v>0.21565999999999999</v>
       </c>
     </row>
@@ -6219,26 +6204,26 @@
       <c r="B21" s="14">
         <v>3.15</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="24">
         <v>0.5</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="22">
         <v>1.3429999999999999E-2</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="22">
         <v>0.23794000000000001</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="22">
         <v>0.31317</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="22">
         <v>0.13108</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="22">
         <f>SUM(D21:G21)</f>
         <v>0.69562000000000002</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="22">
         <v>0.21734999999999999</v>
       </c>
     </row>
@@ -6255,19 +6240,19 @@
       <c r="D22" s="9">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="22">
         <v>0.30292999999999998</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="22">
         <v>0.39871000000000001</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="22">
         <v>0.16689000000000001</v>
       </c>
       <c r="H22" s="9">
         <v>0.1108</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="22">
         <v>3.5699999999999998E-3</v>
       </c>
     </row>
@@ -6281,22 +6266,22 @@
       <c r="C23" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="22">
         <v>1.7069999999999998E-2</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="22">
         <v>0.30257000000000001</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="22">
         <v>0.39823999999999998</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="22">
         <v>0.16669</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="22">
         <v>0.11067</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="22">
         <v>4.7600000000000003E-3</v>
       </c>
     </row>
@@ -6304,25 +6289,25 @@
       <c r="A24" s="8">
         <v>673</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="24">
         <v>0.7</v>
       </c>
       <c r="C24" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="22">
         <v>1.702E-2</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="22">
         <v>0.30164000000000002</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="22">
         <v>0.39701999999999998</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="22">
         <v>0.16617999999999999</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="22">
         <v>0.11033</v>
       </c>
       <c r="I24" s="9">
@@ -6339,22 +6324,22 @@
       <c r="C25" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="22">
         <v>1.6820000000000002E-2</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="22">
         <v>0.29813000000000001</v>
       </c>
       <c r="F25" s="9">
         <v>0.39240000000000003</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="22">
         <v>0.16425000000000001</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="22">
         <v>0.10904999999999999</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="22">
         <v>1.9349999999999999E-2</v>
       </c>
     </row>
@@ -6362,28 +6347,28 @@
       <c r="A26" s="8">
         <v>673</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="24">
         <v>1.4</v>
       </c>
       <c r="C26" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="22">
         <v>1.585E-2</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="22">
         <v>0.28090999999999999</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="22">
         <v>0.36973</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="22">
         <v>0.15476000000000001</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="22">
         <v>0.10274999999999999</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="22">
         <v>7.6009999999999994E-2</v>
       </c>
     </row>
@@ -6397,22 +6382,22 @@
       <c r="C27" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="22">
         <v>1.333E-2</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="22">
         <v>0.23621</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="22">
         <v>0.31089</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="22">
         <v>0.13013</v>
       </c>
       <c r="H27" s="9">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="22">
         <v>0.22303999999999999</v>
       </c>
     </row>
@@ -6420,28 +6405,28 @@
       <c r="A28" s="8">
         <v>673</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="24">
         <v>2.1</v>
       </c>
       <c r="C28" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="22">
         <v>1.163E-2</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="22">
         <v>0.20613000000000001</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="22">
         <v>0.27131</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="22">
         <v>0.11355999999999999</v>
       </c>
       <c r="H28" s="9">
         <v>7.5399999999999995E-2</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="22">
         <v>0.32196999999999998</v>
       </c>
     </row>
@@ -6455,7 +6440,7 @@
       <c r="C29" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="22">
         <v>1.119E-2</v>
       </c>
       <c r="E29" s="9">
@@ -6464,13 +6449,13 @@
       <c r="F29" s="10">
         <v>0.26100000000000001</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="22">
         <v>0.10924</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="22">
         <v>7.2529999999999997E-2</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="22">
         <v>0.34773999999999999</v>
       </c>
     </row>
@@ -6478,28 +6463,28 @@
       <c r="A30" s="8">
         <v>673</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="24">
         <v>2.8</v>
       </c>
       <c r="C30" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="22">
         <v>1.111E-2</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="22">
         <v>0.19681000000000001</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="22">
         <v>0.25902999999999998</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="22">
         <v>0.10842</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="22">
         <v>7.1980000000000002E-2</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="22">
         <v>0.35265000000000002</v>
       </c>
     </row>
@@ -6513,22 +6498,22 @@
       <c r="C31" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="22">
         <v>1.1089999999999999E-2</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="22">
         <v>0.19653999999999999</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="22">
         <v>0.25868000000000002</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="22">
         <v>0.10828</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="22">
         <v>7.1889999999999996E-2</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="22">
         <v>0.35353000000000001</v>
       </c>
     </row>
@@ -6539,25 +6524,25 @@
       <c r="B32" s="8">
         <v>0</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="24">
         <v>0.2</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="22">
         <v>1.6320000000000001E-2</v>
       </c>
       <c r="E32" s="9">
         <v>0.28920000000000001</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="22">
         <v>0.38063999999999998</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="22">
         <v>0.15931999999999999</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="22">
         <v>0.10578</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="22">
         <v>4.8730000000000002E-2</v>
       </c>
     </row>
@@ -6568,25 +6553,25 @@
       <c r="B33" s="14">
         <v>0.35</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="24">
         <v>0.2</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="22">
         <v>1.6049999999999998E-2</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="22">
         <v>0.28444999999999998</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="22">
         <v>0.37437999999999999</v>
       </c>
       <c r="G33" s="9">
         <v>0.15670000000000001</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="22">
         <v>0.10403999999999999</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="22">
         <v>6.4369999999999997E-2</v>
       </c>
     </row>
@@ -6594,16 +6579,16 @@
       <c r="A34" s="8">
         <v>673</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="24">
         <v>0.7</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="24">
         <v>0.2</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="22">
         <v>1.5429999999999999E-2</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="22">
         <v>0.27337</v>
       </c>
       <c r="F34" s="9">
@@ -6612,10 +6597,10 @@
       <c r="G34" s="9">
         <v>0.15060000000000001</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="22">
         <v>9.9989999999999996E-2</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="22">
         <v>0.10082000000000001</v>
       </c>
     </row>
@@ -6626,25 +6611,25 @@
       <c r="B35" s="14">
         <v>1.05</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="24">
         <v>0.2</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="22">
         <v>1.379E-2</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="22">
         <v>0.24440999999999999</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="22">
         <v>0.32168999999999998</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="22">
         <v>0.13464999999999999</v>
       </c>
       <c r="H35" s="9">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="22">
         <v>0.19606999999999999</v>
       </c>
     </row>
@@ -6652,28 +6637,28 @@
       <c r="A36" s="8">
         <v>673</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="24">
         <v>1.4</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="24">
         <v>0.2</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="22">
         <v>1.082E-2</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="22">
         <v>0.19170999999999999</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="22">
         <v>0.25233</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="22">
         <v>0.10562000000000001</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="22">
         <v>7.0120000000000002E-2</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="22">
         <v>0.36939</v>
       </c>
     </row>
@@ -6684,25 +6669,25 @@
       <c r="B37" s="14">
         <v>1.75</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="24">
         <v>0.2</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="22">
         <v>8.8100000000000001E-3</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="22">
         <v>0.15618000000000001</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="22">
         <v>0.20555999999999999</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="22">
         <v>8.6040000000000005E-2</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="22">
         <v>5.7119999999999997E-2</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="22">
         <v>0.48629</v>
       </c>
     </row>
@@ -6710,28 +6695,28 @@
       <c r="A38" s="8">
         <v>673</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="24">
         <v>2.1</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="24">
         <v>0.2</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="22">
         <v>8.26E-3</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="22">
         <v>0.14635000000000001</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="22">
         <v>0.19262000000000001</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="22">
         <v>8.0619999999999997E-2</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="22">
         <v>5.3530000000000001E-2</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="22">
         <v>0.51861999999999997</v>
       </c>
     </row>
@@ -6742,22 +6727,22 @@
       <c r="B39" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="24">
         <v>0.2</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="22">
         <v>8.1499999999999993E-3</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="22">
         <v>0.14444000000000001</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="22">
         <v>0.19011</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="22">
         <v>7.9570000000000002E-2</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="22">
         <v>5.2830000000000002E-2</v>
       </c>
       <c r="I39" s="9">
@@ -6768,28 +6753,28 @@
       <c r="A40" s="8">
         <v>673</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="24">
         <v>2.8</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="24">
         <v>0.2</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="22">
         <v>8.1300000000000001E-3</v>
       </c>
       <c r="E40" s="9">
         <v>0.14410000000000001</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="22">
         <v>0.18966</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="22">
         <v>7.9380000000000006E-2</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="22">
         <v>5.271E-2</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="22">
         <v>0.52602000000000004</v>
       </c>
     </row>
@@ -6800,25 +6785,25 @@
       <c r="B41" s="14">
         <v>3.15</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="24">
         <v>0.2</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="22">
         <v>8.1300000000000001E-3</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="22">
         <v>0.14404</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F41" s="22">
         <v>0.18958</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="22">
         <v>7.9350000000000004E-2</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="22">
         <v>5.2679999999999998E-2</v>
       </c>
-      <c r="I41" s="26">
+      <c r="I41" s="22">
         <v>0.52622000000000002</v>
       </c>
     </row>
@@ -6832,22 +6817,22 @@
       <c r="C42" s="8">
         <v>1</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="22">
         <v>0.32646999999999998</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="22">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="22">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="22">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="23">
         <v>1.1600000000000001E-7</v>
       </c>
     </row>
@@ -6861,22 +6846,22 @@
       <c r="C43" s="8">
         <v>1</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="22">
         <v>0.32646999999999998</v>
       </c>
-      <c r="F43" s="26">
+      <c r="F43" s="22">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="22">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H43" s="26">
+      <c r="H43" s="22">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="23">
         <v>1.31E-7</v>
       </c>
     </row>
@@ -6884,28 +6869,28 @@
       <c r="A44" s="8">
         <v>698</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="24">
         <v>0.7</v>
       </c>
       <c r="C44" s="8">
         <v>1</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="22">
         <v>0.32646999999999998</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F44" s="22">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="22">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="22">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I44" s="23">
         <v>2.1400000000000001E-7</v>
       </c>
     </row>
@@ -6919,22 +6904,22 @@
       <c r="C45" s="8">
         <v>1</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="22">
         <v>0.32646999999999998</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="22">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="22">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="22">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="23">
         <v>1.24E-8</v>
       </c>
     </row>
@@ -6942,28 +6927,28 @@
       <c r="A46" s="8">
         <v>698</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="24">
         <v>1.4</v>
       </c>
       <c r="C46" s="8">
         <v>1</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D46" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E46" s="26">
+      <c r="E46" s="22">
         <v>0.32646999999999998</v>
       </c>
-      <c r="F46" s="26">
+      <c r="F46" s="22">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G46" s="22">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H46" s="26">
+      <c r="H46" s="22">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="23">
         <v>1.9000000000000001E-9</v>
       </c>
     </row>
@@ -6977,22 +6962,22 @@
       <c r="C47" s="8">
         <v>1</v>
       </c>
-      <c r="D47" s="26">
+      <c r="D47" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E47" s="26">
+      <c r="E47" s="22">
         <v>0.32645999999999997</v>
       </c>
-      <c r="F47" s="26">
+      <c r="F47" s="22">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G47" s="22">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H47" s="26">
+      <c r="H47" s="22">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="23">
         <v>1.9199999999999999E-5</v>
       </c>
     </row>
@@ -7000,28 +6985,28 @@
       <c r="A48" s="8">
         <v>698</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="24">
         <v>2.1</v>
       </c>
       <c r="C48" s="8">
         <v>1</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D48" s="22">
         <v>2.111E-2</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="22">
         <v>0.32601999999999998</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F48" s="22">
         <v>0.40233999999999998</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="22">
         <v>0.14402999999999999</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="22">
         <v>0.10514999999999999</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="22">
         <v>1.3600000000000001E-3</v>
       </c>
     </row>
@@ -7035,22 +7020,22 @@
       <c r="C49" s="8">
         <v>1</v>
       </c>
-      <c r="D49" s="26">
+      <c r="D49" s="22">
         <v>2.1059999999999999E-2</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="22">
         <v>0.32532</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F49" s="22">
         <v>0.40146999999999999</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="22">
         <v>0.14371999999999999</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H49" s="22">
         <v>0.10492</v>
       </c>
-      <c r="I49" s="26">
+      <c r="I49" s="22">
         <v>3.5100000000000001E-3</v>
       </c>
     </row>
@@ -7058,28 +7043,28 @@
       <c r="A50" s="8">
         <v>698</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="24">
         <v>2.8</v>
       </c>
       <c r="C50" s="8">
         <v>1</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="22">
         <v>2.1049999999999999E-2</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E50" s="22">
         <v>0.32508999999999999</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F50" s="22">
         <v>0.40118999999999999</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="22">
         <v>0.14360999999999999</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H50" s="22">
         <v>0.10485</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="22">
         <v>4.2100000000000002E-3</v>
       </c>
     </row>
@@ -7093,22 +7078,22 @@
       <c r="C51" s="8">
         <v>1</v>
       </c>
-      <c r="D51" s="26">
+      <c r="D51" s="22">
         <v>2.104E-2</v>
       </c>
-      <c r="E51" s="26">
+      <c r="E51" s="22">
         <v>0.32506000000000002</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F51" s="22">
         <v>0.40114</v>
       </c>
       <c r="G51" s="9">
         <v>0.14360000000000001</v>
       </c>
-      <c r="H51" s="26">
+      <c r="H51" s="22">
         <v>0.10484</v>
       </c>
-      <c r="I51" s="26">
+      <c r="I51" s="22">
         <v>4.3200000000000001E-3</v>
       </c>
     </row>
@@ -7119,25 +7104,25 @@
       <c r="B52" s="8">
         <v>0</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="24">
         <v>0.5</v>
       </c>
-      <c r="D52" s="26">
+      <c r="D52" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E52" s="26">
+      <c r="E52" s="22">
         <v>0.32646999999999998</v>
       </c>
-      <c r="F52" s="26">
+      <c r="F52" s="22">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G52" s="22">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H52" s="26">
+      <c r="H52" s="22">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="23">
         <v>1.31E-8</v>
       </c>
     </row>
@@ -7148,25 +7133,25 @@
       <c r="B53" s="14">
         <v>0.35</v>
       </c>
-      <c r="C53" s="28">
+      <c r="C53" s="24">
         <v>0.5</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E53" s="22">
         <v>0.32646999999999998</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F53" s="22">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G53" s="26">
+      <c r="G53" s="22">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H53" s="26">
+      <c r="H53" s="22">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I53" s="23">
         <v>1.3399999999999999E-8</v>
       </c>
     </row>
@@ -7174,28 +7159,28 @@
       <c r="A54" s="8">
         <v>698</v>
       </c>
-      <c r="B54" s="28">
+      <c r="B54" s="24">
         <v>0.7</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="24">
         <v>0.5</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D54" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E54" s="26">
+      <c r="E54" s="22">
         <v>0.32646999999999998</v>
       </c>
-      <c r="F54" s="26">
+      <c r="F54" s="22">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="22">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H54" s="26">
+      <c r="H54" s="22">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I54" s="23">
         <v>1.7800000000000001E-8</v>
       </c>
     </row>
@@ -7206,25 +7191,25 @@
       <c r="B55" s="14">
         <v>1.05</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="24">
         <v>0.5</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D55" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E55" s="22">
         <v>0.32646999999999998</v>
       </c>
-      <c r="F55" s="26">
+      <c r="F55" s="22">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G55" s="26">
+      <c r="G55" s="22">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H55" s="26">
+      <c r="H55" s="22">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="23">
         <v>2.3200000000000001E-7</v>
       </c>
     </row>
@@ -7232,28 +7217,28 @@
       <c r="A56" s="8">
         <v>698</v>
       </c>
-      <c r="B56" s="28">
+      <c r="B56" s="24">
         <v>1.4</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="24">
         <v>0.5</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D56" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E56" s="26">
+      <c r="E56" s="22">
         <v>0.32643</v>
       </c>
-      <c r="F56" s="26">
+      <c r="F56" s="22">
         <v>0.40283999999999998</v>
       </c>
-      <c r="G56" s="26">
+      <c r="G56" s="22">
         <v>0.14421</v>
       </c>
-      <c r="H56" s="26">
+      <c r="H56" s="22">
         <v>0.10528</v>
       </c>
-      <c r="I56" s="27">
+      <c r="I56" s="23">
         <v>1.0399999999999999E-4</v>
       </c>
     </row>
@@ -7264,25 +7249,25 @@
       <c r="B57" s="14">
         <v>1.75</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="24">
         <v>0.5</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="22">
         <v>2.0910000000000002E-2</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="22">
         <v>0.32301999999999997</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F57" s="22">
         <v>0.39862999999999998</v>
       </c>
       <c r="G57" s="9">
         <v>0.14269999999999999</v>
       </c>
-      <c r="H57" s="26">
+      <c r="H57" s="22">
         <v>0.10417999999999999</v>
       </c>
-      <c r="I57" s="26">
+      <c r="I57" s="22">
         <v>1.057E-2</v>
       </c>
     </row>
@@ -7290,28 +7275,28 @@
       <c r="A58" s="8">
         <v>698</v>
       </c>
-      <c r="B58" s="28">
+      <c r="B58" s="24">
         <v>2.1</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C58" s="24">
         <v>0.5</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D58" s="22">
         <v>2.0230000000000001E-2</v>
       </c>
-      <c r="E58" s="26">
+      <c r="E58" s="22">
         <v>0.31244</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F58" s="22">
         <v>0.38557999999999998</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G58" s="22">
         <v>0.13803000000000001</v>
       </c>
-      <c r="H58" s="26">
+      <c r="H58" s="22">
         <v>0.10077</v>
       </c>
-      <c r="I58" s="26">
+      <c r="I58" s="22">
         <v>4.2950000000000002E-2</v>
       </c>
     </row>
@@ -7322,25 +7307,25 @@
       <c r="B59" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59" s="24">
         <v>0.5</v>
       </c>
-      <c r="D59" s="26">
+      <c r="D59" s="22">
         <v>1.992E-2</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E59" s="22">
         <v>0.30765999999999999</v>
       </c>
-      <c r="F59" s="26">
+      <c r="F59" s="22">
         <v>0.37968000000000002</v>
       </c>
-      <c r="G59" s="26">
+      <c r="G59" s="22">
         <v>0.13591</v>
       </c>
-      <c r="H59" s="26">
+      <c r="H59" s="22">
         <v>9.9229999999999999E-2</v>
       </c>
-      <c r="I59" s="26">
+      <c r="I59" s="22">
         <v>5.7610000000000001E-2</v>
       </c>
     </row>
@@ -7348,28 +7333,28 @@
       <c r="A60" s="8">
         <v>698</v>
       </c>
-      <c r="B60" s="28">
+      <c r="B60" s="24">
         <v>2.8</v>
       </c>
-      <c r="C60" s="28">
+      <c r="C60" s="24">
         <v>0.5</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D60" s="22">
         <v>1.985E-2</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E60" s="22">
         <v>0.30658999999999997</v>
       </c>
-      <c r="F60" s="26">
+      <c r="F60" s="22">
         <v>0.37835000000000002</v>
       </c>
-      <c r="G60" s="26">
+      <c r="G60" s="22">
         <v>0.13544</v>
       </c>
-      <c r="H60" s="26">
+      <c r="H60" s="22">
         <v>9.8879999999999996E-2</v>
       </c>
-      <c r="I60" s="26">
+      <c r="I60" s="22">
         <v>6.089E-2</v>
       </c>
     </row>
@@ -7380,25 +7365,25 @@
       <c r="B61" s="14">
         <v>3.15</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C61" s="24">
         <v>0.5</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="22">
         <v>1.983E-2</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E61" s="22">
         <v>0.30636999999999998</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="22">
         <v>0.37808000000000003</v>
       </c>
-      <c r="G61" s="26">
+      <c r="G61" s="22">
         <v>0.13533999999999999</v>
       </c>
-      <c r="H61" s="26">
+      <c r="H61" s="22">
         <v>9.8809999999999995E-2</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="22">
         <v>6.157E-2</v>
       </c>
     </row>
@@ -7412,22 +7397,22 @@
       <c r="C62" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D62" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E62" s="26">
+      <c r="E62" s="22">
         <v>0.32645999999999997</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F62" s="22">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G62" s="26">
+      <c r="G62" s="22">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H62" s="26">
+      <c r="H62" s="22">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I62" s="27">
+      <c r="I62" s="23">
         <v>4.3000000000000003E-6</v>
       </c>
     </row>
@@ -7441,22 +7426,22 @@
       <c r="C63" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D63" s="26">
+      <c r="D63" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E63" s="26">
+      <c r="E63" s="22">
         <v>0.32645999999999997</v>
       </c>
-      <c r="F63" s="26">
+      <c r="F63" s="22">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G63" s="26">
+      <c r="G63" s="22">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H63" s="26">
+      <c r="H63" s="22">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I63" s="27">
+      <c r="I63" s="23">
         <v>4.9100000000000004E-6</v>
       </c>
     </row>
@@ -7464,28 +7449,28 @@
       <c r="A64" s="8">
         <v>698</v>
       </c>
-      <c r="B64" s="28">
+      <c r="B64" s="24">
         <v>0.7</v>
       </c>
       <c r="C64" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D64" s="26">
+      <c r="D64" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E64" s="26">
+      <c r="E64" s="22">
         <v>0.32645999999999997</v>
       </c>
-      <c r="F64" s="26">
+      <c r="F64" s="22">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G64" s="26">
+      <c r="G64" s="22">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H64" s="26">
+      <c r="H64" s="22">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I64" s="27">
+      <c r="I64" s="23">
         <v>7.5800000000000003E-6</v>
       </c>
     </row>
@@ -7499,22 +7484,22 @@
       <c r="C65" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D65" s="22">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E65" s="26">
+      <c r="E65" s="22">
         <v>0.32643</v>
       </c>
-      <c r="F65" s="26">
+      <c r="F65" s="22">
         <v>0.40283999999999998</v>
       </c>
-      <c r="G65" s="26">
+      <c r="G65" s="22">
         <v>0.14421</v>
       </c>
-      <c r="H65" s="26">
+      <c r="H65" s="22">
         <v>0.10528</v>
       </c>
-      <c r="I65" s="27">
+      <c r="I65" s="23">
         <v>9.9699999999999998E-5</v>
       </c>
     </row>
@@ -7522,28 +7507,28 @@
       <c r="A66" s="8">
         <v>698</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B66" s="24">
         <v>1.4</v>
       </c>
       <c r="C66" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D66" s="26">
+      <c r="D66" s="22">
         <v>2.0990000000000002E-2</v>
       </c>
-      <c r="E66" s="26">
+      <c r="E66" s="22">
         <v>0.32417000000000001</v>
       </c>
-      <c r="F66" s="26">
+      <c r="F66" s="22">
         <v>0.40005000000000002</v>
       </c>
-      <c r="G66" s="26">
+      <c r="G66" s="22">
         <v>0.14321</v>
       </c>
-      <c r="H66" s="26">
+      <c r="H66" s="22">
         <v>0.10455</v>
       </c>
-      <c r="I66" s="26">
+      <c r="I66" s="22">
         <v>7.0499999999999998E-3</v>
       </c>
     </row>
@@ -7557,22 +7542,22 @@
       <c r="C67" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D67" s="26">
+      <c r="D67" s="22">
         <v>1.9630000000000002E-2</v>
       </c>
-      <c r="E67" s="26">
+      <c r="E67" s="22">
         <v>0.30324000000000001</v>
       </c>
-      <c r="F67" s="26">
+      <c r="F67" s="22">
         <v>0.37422</v>
       </c>
-      <c r="G67" s="26">
+      <c r="G67" s="22">
         <v>0.13396</v>
       </c>
       <c r="H67" s="9">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="I67" s="26">
+      <c r="I67" s="22">
         <v>7.1150000000000005E-2</v>
       </c>
     </row>
@@ -7580,28 +7565,28 @@
       <c r="A68" s="8">
         <v>698</v>
       </c>
-      <c r="B68" s="28">
+      <c r="B68" s="24">
         <v>2.1</v>
       </c>
       <c r="C68" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D68" s="26">
+      <c r="D68" s="22">
         <v>1.839E-2</v>
       </c>
-      <c r="E68" s="26">
+      <c r="E68" s="22">
         <v>0.28412999999999999</v>
       </c>
-      <c r="F68" s="26">
+      <c r="F68" s="22">
         <v>0.35064000000000001</v>
       </c>
-      <c r="G68" s="26">
+      <c r="G68" s="22">
         <v>0.12551999999999999</v>
       </c>
-      <c r="H68" s="26">
+      <c r="H68" s="22">
         <v>9.1639999999999999E-2</v>
       </c>
-      <c r="I68" s="26">
+      <c r="I68" s="22">
         <v>0.12967999999999999</v>
       </c>
     </row>
@@ -7615,22 +7600,22 @@
       <c r="C69" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D69" s="26">
+      <c r="D69" s="22">
         <v>1.804E-2</v>
       </c>
-      <c r="E69" s="26">
+      <c r="E69" s="22">
         <v>0.27867999999999998</v>
       </c>
-      <c r="F69" s="26">
+      <c r="F69" s="22">
         <v>0.34392</v>
       </c>
-      <c r="G69" s="26">
+      <c r="G69" s="22">
         <v>0.12311</v>
       </c>
-      <c r="H69" s="26">
+      <c r="H69" s="22">
         <v>8.9880000000000002E-2</v>
       </c>
-      <c r="I69" s="26">
+      <c r="I69" s="22">
         <v>0.14635999999999999</v>
       </c>
     </row>
@@ -7638,28 +7623,28 @@
       <c r="A70" s="8">
         <v>698</v>
       </c>
-      <c r="B70" s="28">
+      <c r="B70" s="24">
         <v>2.8</v>
       </c>
       <c r="C70" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D70" s="26">
+      <c r="D70" s="22">
         <v>1.797E-2</v>
       </c>
       <c r="E70" s="9">
         <v>0.27760000000000001</v>
       </c>
-      <c r="F70" s="26">
+      <c r="F70" s="22">
         <v>0.34258</v>
       </c>
-      <c r="G70" s="26">
+      <c r="G70" s="22">
         <v>0.12263</v>
       </c>
-      <c r="H70" s="26">
+      <c r="H70" s="22">
         <v>8.9529999999999998E-2</v>
       </c>
-      <c r="I70" s="26">
+      <c r="I70" s="22">
         <v>0.14968999999999999</v>
       </c>
     </row>
@@ -7673,22 +7658,22 @@
       <c r="C71" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D71" s="26">
+      <c r="D71" s="22">
         <v>1.7950000000000001E-2</v>
       </c>
-      <c r="E71" s="26">
+      <c r="E71" s="22">
         <v>0.27722999999999998</v>
       </c>
-      <c r="F71" s="26">
+      <c r="F71" s="22">
         <v>0.34211999999999998</v>
       </c>
-      <c r="G71" s="26">
+      <c r="G71" s="22">
         <v>0.12247</v>
       </c>
-      <c r="H71" s="26">
+      <c r="H71" s="22">
         <v>8.9410000000000003E-2</v>
       </c>
-      <c r="I71" s="26">
+      <c r="I71" s="22">
         <v>0.15082000000000001</v>
       </c>
     </row>
@@ -7699,25 +7684,25 @@
       <c r="B72" s="8">
         <v>0</v>
       </c>
-      <c r="C72" s="28">
+      <c r="C72" s="24">
         <v>0.2</v>
       </c>
-      <c r="D72" s="26">
+      <c r="D72" s="22">
         <v>2.112E-2</v>
       </c>
-      <c r="E72" s="26">
+      <c r="E72" s="22">
         <v>0.32628000000000001</v>
       </c>
-      <c r="F72" s="26">
+      <c r="F72" s="22">
         <v>0.40266000000000002</v>
       </c>
-      <c r="G72" s="26">
+      <c r="G72" s="22">
         <v>0.14413999999999999</v>
       </c>
-      <c r="H72" s="26">
+      <c r="H72" s="22">
         <v>0.10523</v>
       </c>
-      <c r="I72" s="27">
+      <c r="I72" s="23">
         <v>5.6099999999999998E-4</v>
       </c>
     </row>
@@ -7728,25 +7713,25 @@
       <c r="B73" s="14">
         <v>0.35</v>
       </c>
-      <c r="C73" s="28">
+      <c r="C73" s="24">
         <v>0.2</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D73" s="22">
         <v>2.112E-2</v>
       </c>
-      <c r="E73" s="26">
+      <c r="E73" s="22">
         <v>0.32625999999999999</v>
       </c>
-      <c r="F73" s="26">
+      <c r="F73" s="22">
         <v>0.40264</v>
       </c>
-      <c r="G73" s="26">
+      <c r="G73" s="22">
         <v>0.14413000000000001</v>
       </c>
-      <c r="H73" s="26">
+      <c r="H73" s="22">
         <v>0.10523</v>
       </c>
-      <c r="I73" s="27">
+      <c r="I73" s="23">
         <v>6.1799999999999995E-4</v>
       </c>
     </row>
@@ -7754,28 +7739,28 @@
       <c r="A74" s="8">
         <v>698</v>
       </c>
-      <c r="B74" s="28">
+      <c r="B74" s="24">
         <v>0.7</v>
       </c>
-      <c r="C74" s="28">
+      <c r="C74" s="24">
         <v>0.2</v>
       </c>
       <c r="D74" s="9">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="E74" s="26">
+      <c r="E74" s="22">
         <v>0.32593</v>
       </c>
-      <c r="F74" s="26">
+      <c r="F74" s="22">
         <v>0.40222000000000002</v>
       </c>
-      <c r="G74" s="26">
+      <c r="G74" s="22">
         <v>0.14398</v>
       </c>
-      <c r="H74" s="26">
+      <c r="H74" s="22">
         <v>0.10512000000000001</v>
       </c>
-      <c r="I74" s="26">
+      <c r="I74" s="22">
         <v>1.65E-3</v>
       </c>
     </row>
@@ -7786,25 +7771,25 @@
       <c r="B75" s="14">
         <v>1.05</v>
       </c>
-      <c r="C75" s="28">
+      <c r="C75" s="24">
         <v>0.2</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D75" s="22">
         <v>2.0750000000000001E-2</v>
       </c>
-      <c r="E75" s="26">
+      <c r="E75" s="22">
         <v>0.32055</v>
       </c>
-      <c r="F75" s="26">
+      <c r="F75" s="22">
         <v>0.39557999999999999</v>
       </c>
-      <c r="G75" s="26">
+      <c r="G75" s="22">
         <v>0.14161000000000001</v>
       </c>
-      <c r="H75" s="26">
+      <c r="H75" s="22">
         <v>0.10339</v>
       </c>
-      <c r="I75" s="26">
+      <c r="I75" s="22">
         <v>1.813E-2</v>
       </c>
     </row>
@@ -7812,28 +7797,28 @@
       <c r="A76" s="8">
         <v>698</v>
       </c>
-      <c r="B76" s="28">
+      <c r="B76" s="24">
         <v>1.4</v>
       </c>
-      <c r="C76" s="28">
+      <c r="C76" s="24">
         <v>0.2</v>
       </c>
-      <c r="D76" s="26">
+      <c r="D76" s="22">
         <v>1.8280000000000001E-2</v>
       </c>
-      <c r="E76" s="26">
+      <c r="E76" s="22">
         <v>0.28232000000000002</v>
       </c>
       <c r="F76" s="9">
         <v>0.34839999999999999</v>
       </c>
-      <c r="G76" s="26">
+      <c r="G76" s="22">
         <v>0.12472</v>
       </c>
-      <c r="H76" s="26">
+      <c r="H76" s="22">
         <v>9.1050000000000006E-2</v>
       </c>
-      <c r="I76" s="26">
+      <c r="I76" s="22">
         <v>0.13522999999999999</v>
       </c>
     </row>
@@ -7844,25 +7829,25 @@
       <c r="B77" s="14">
         <v>1.75</v>
       </c>
-      <c r="C77" s="28">
+      <c r="C77" s="24">
         <v>0.2</v>
       </c>
-      <c r="D77" s="26">
+      <c r="D77" s="22">
         <v>1.562E-2</v>
       </c>
-      <c r="E77" s="26">
+      <c r="E77" s="22">
         <v>0.24127999999999999</v>
       </c>
-      <c r="F77" s="26">
+      <c r="F77" s="22">
         <v>0.29776000000000002</v>
       </c>
-      <c r="G77" s="26">
+      <c r="G77" s="22">
         <v>0.10659</v>
       </c>
-      <c r="H77" s="26">
+      <c r="H77" s="22">
         <v>7.782E-2</v>
       </c>
-      <c r="I77" s="26">
+      <c r="I77" s="22">
         <v>0.26094000000000001</v>
       </c>
     </row>
@@ -7870,28 +7855,28 @@
       <c r="A78" s="8">
         <v>698</v>
       </c>
-      <c r="B78" s="28">
+      <c r="B78" s="24">
         <v>2.1</v>
       </c>
-      <c r="C78" s="28">
+      <c r="C78" s="24">
         <v>0.2</v>
       </c>
-      <c r="D78" s="26">
+      <c r="D78" s="22">
         <v>1.478E-2</v>
       </c>
-      <c r="E78" s="26">
+      <c r="E78" s="22">
         <v>0.22833999999999999</v>
       </c>
-      <c r="F78" s="26">
+      <c r="F78" s="22">
         <v>0.28178999999999998</v>
       </c>
-      <c r="G78" s="26">
+      <c r="G78" s="22">
         <v>0.10087</v>
       </c>
-      <c r="H78" s="26">
+      <c r="H78" s="22">
         <v>7.3649999999999993E-2</v>
       </c>
-      <c r="I78" s="26">
+      <c r="I78" s="22">
         <v>0.30057</v>
       </c>
     </row>
@@ -7902,25 +7887,25 @@
       <c r="B79" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="C79" s="28">
+      <c r="C79" s="24">
         <v>0.2</v>
       </c>
       <c r="D79" s="9">
         <v>1.46E-2</v>
       </c>
-      <c r="E79" s="26">
+      <c r="E79" s="22">
         <v>0.22559000000000001</v>
       </c>
       <c r="F79" s="9">
         <v>0.27839999999999998</v>
       </c>
-      <c r="G79" s="26">
+      <c r="G79" s="22">
         <v>9.9659999999999999E-2</v>
       </c>
-      <c r="H79" s="26">
+      <c r="H79" s="22">
         <v>7.2760000000000005E-2</v>
       </c>
-      <c r="I79" s="26">
+      <c r="I79" s="22">
         <v>0.30898999999999999</v>
       </c>
     </row>
@@ -7928,28 +7913,28 @@
       <c r="A80" s="8">
         <v>698</v>
       </c>
-      <c r="B80" s="28">
+      <c r="B80" s="24">
         <v>2.8</v>
       </c>
-      <c r="C80" s="28">
+      <c r="C80" s="24">
         <v>0.2</v>
       </c>
-      <c r="D80" s="26">
+      <c r="D80" s="22">
         <v>1.4579999999999999E-2</v>
       </c>
-      <c r="E80" s="26">
+      <c r="E80" s="22">
         <v>0.22528000000000001</v>
       </c>
-      <c r="F80" s="26">
+      <c r="F80" s="22">
         <v>0.27801999999999999</v>
       </c>
-      <c r="G80" s="26">
+      <c r="G80" s="22">
         <v>9.9519999999999997E-2</v>
       </c>
-      <c r="H80" s="26">
+      <c r="H80" s="22">
         <v>7.2660000000000002E-2</v>
       </c>
-      <c r="I80" s="26">
+      <c r="I80" s="22">
         <v>0.30993999999999999</v>
       </c>
     </row>
@@ -7960,25 +7945,25 @@
       <c r="B81" s="14">
         <v>3.15</v>
       </c>
-      <c r="C81" s="28">
+      <c r="C81" s="24">
         <v>0.2</v>
       </c>
-      <c r="D81" s="26">
+      <c r="D81" s="22">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="E81" s="26">
+      <c r="E81" s="22">
         <v>0.22466</v>
       </c>
-      <c r="F81" s="26">
+      <c r="F81" s="22">
         <v>0.27725</v>
       </c>
-      <c r="G81" s="26">
+      <c r="G81" s="22">
         <v>9.9250000000000005E-2</v>
       </c>
-      <c r="H81" s="26">
+      <c r="H81" s="22">
         <v>7.2459999999999997E-2</v>
       </c>
-      <c r="I81" s="26">
+      <c r="I81" s="22">
         <v>0.31185000000000002</v>
       </c>
     </row>
@@ -7992,22 +7977,22 @@
       <c r="C82" s="8">
         <v>1</v>
       </c>
-      <c r="D82" s="26">
+      <c r="D82" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E82" s="26">
+      <c r="E82" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F82" s="26">
+      <c r="F82" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G82" s="26">
+      <c r="G82" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H82" s="26">
+      <c r="H82" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I82" s="27">
+      <c r="I82" s="23">
         <v>2.53E-7</v>
       </c>
     </row>
@@ -8021,22 +8006,22 @@
       <c r="C83" s="8">
         <v>1</v>
       </c>
-      <c r="D83" s="26">
+      <c r="D83" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E83" s="26">
+      <c r="E83" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F83" s="26">
+      <c r="F83" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G83" s="26">
+      <c r="G83" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H83" s="26">
+      <c r="H83" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I83" s="27">
+      <c r="I83" s="23">
         <v>1.3199999999999999E-7</v>
       </c>
     </row>
@@ -8044,28 +8029,28 @@
       <c r="A84" s="8">
         <v>723</v>
       </c>
-      <c r="B84" s="28">
+      <c r="B84" s="24">
         <v>0.7</v>
       </c>
       <c r="C84" s="8">
         <v>1</v>
       </c>
-      <c r="D84" s="26">
+      <c r="D84" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E84" s="26">
+      <c r="E84" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F84" s="26">
+      <c r="F84" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G84" s="26">
+      <c r="G84" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H84" s="26">
+      <c r="H84" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I84" s="27">
+      <c r="I84" s="23">
         <v>4.1099999999999997E-8</v>
       </c>
     </row>
@@ -8079,22 +8064,22 @@
       <c r="C85" s="8">
         <v>1</v>
       </c>
-      <c r="D85" s="26">
+      <c r="D85" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E85" s="26">
+      <c r="E85" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F85" s="26">
+      <c r="F85" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G85" s="26">
+      <c r="G85" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H85" s="26">
+      <c r="H85" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I85" s="27">
+      <c r="I85" s="23">
         <v>3.55E-8</v>
       </c>
     </row>
@@ -8102,28 +8087,28 @@
       <c r="A86" s="8">
         <v>723</v>
       </c>
-      <c r="B86" s="28">
+      <c r="B86" s="24">
         <v>1.4</v>
       </c>
       <c r="C86" s="8">
         <v>1</v>
       </c>
-      <c r="D86" s="26">
+      <c r="D86" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E86" s="26">
+      <c r="E86" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F86" s="26">
+      <c r="F86" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G86" s="26">
+      <c r="G86" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H86" s="26">
+      <c r="H86" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I86" s="27">
+      <c r="I86" s="23">
         <v>5.7199999999999999E-10</v>
       </c>
     </row>
@@ -8137,22 +8122,22 @@
       <c r="C87" s="8">
         <v>1</v>
       </c>
-      <c r="D87" s="26">
+      <c r="D87" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E87" s="26">
+      <c r="E87" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F87" s="26">
+      <c r="F87" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G87" s="26">
+      <c r="G87" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H87" s="26">
+      <c r="H87" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I87" s="27">
+      <c r="I87" s="23">
         <v>1.75E-6</v>
       </c>
     </row>
@@ -8160,28 +8145,28 @@
       <c r="A88" s="8">
         <v>723</v>
       </c>
-      <c r="B88" s="28">
+      <c r="B88" s="24">
         <v>2.1</v>
       </c>
       <c r="C88" s="8">
         <v>1</v>
       </c>
-      <c r="D88" s="26">
+      <c r="D88" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E88" s="26">
+      <c r="E88" s="22">
         <v>0.34142</v>
       </c>
-      <c r="F88" s="26">
+      <c r="F88" s="22">
         <v>0.40011000000000002</v>
       </c>
-      <c r="G88" s="26">
+      <c r="G88" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H88" s="26">
+      <c r="H88" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I88" s="27">
+      <c r="I88" s="23">
         <v>2.3799999999999999E-5</v>
       </c>
     </row>
@@ -8195,22 +8180,22 @@
       <c r="C89" s="8">
         <v>1</v>
       </c>
-      <c r="D89" s="26">
+      <c r="D89" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E89" s="26">
+      <c r="E89" s="22">
         <v>0.34142</v>
       </c>
       <c r="F89" s="9">
         <v>0.40010000000000001</v>
       </c>
-      <c r="G89" s="26">
+      <c r="G89" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H89" s="26">
+      <c r="H89" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I89" s="27">
+      <c r="I89" s="23">
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
@@ -8218,28 +8203,28 @@
       <c r="A90" s="8">
         <v>723</v>
       </c>
-      <c r="B90" s="28">
+      <c r="B90" s="24">
         <v>2.8</v>
       </c>
       <c r="C90" s="8">
         <v>1</v>
       </c>
-      <c r="D90" s="26">
+      <c r="D90" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E90" s="26">
+      <c r="E90" s="22">
         <v>0.34142</v>
       </c>
       <c r="F90" s="9">
         <v>0.40010000000000001</v>
       </c>
-      <c r="G90" s="26">
+      <c r="G90" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H90" s="26">
+      <c r="H90" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I90" s="27">
+      <c r="I90" s="23">
         <v>4.4400000000000002E-5</v>
       </c>
     </row>
@@ -8253,22 +8238,22 @@
       <c r="C91" s="8">
         <v>1</v>
       </c>
-      <c r="D91" s="26">
+      <c r="D91" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E91" s="26">
+      <c r="E91" s="22">
         <v>0.34142</v>
       </c>
       <c r="F91" s="9">
         <v>0.40010000000000001</v>
       </c>
-      <c r="G91" s="26">
+      <c r="G91" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H91" s="26">
+      <c r="H91" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I91" s="27">
+      <c r="I91" s="23">
         <v>4.5000000000000003E-5</v>
       </c>
     </row>
@@ -8279,25 +8264,25 @@
       <c r="B92" s="8">
         <v>0</v>
       </c>
-      <c r="C92" s="28">
+      <c r="C92" s="24">
         <v>0.5</v>
       </c>
-      <c r="D92" s="26">
+      <c r="D92" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E92" s="26">
+      <c r="E92" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F92" s="26">
+      <c r="F92" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G92" s="26">
+      <c r="G92" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H92" s="26">
+      <c r="H92" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I92" s="27">
+      <c r="I92" s="23">
         <v>5.54E-8</v>
       </c>
     </row>
@@ -8308,25 +8293,25 @@
       <c r="B93" s="14">
         <v>0.35</v>
       </c>
-      <c r="C93" s="28">
+      <c r="C93" s="24">
         <v>0.5</v>
       </c>
-      <c r="D93" s="26">
+      <c r="D93" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E93" s="26">
+      <c r="E93" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F93" s="26">
+      <c r="F93" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G93" s="26">
+      <c r="G93" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H93" s="26">
+      <c r="H93" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I93" s="27">
+      <c r="I93" s="23">
         <v>4.29E-8</v>
       </c>
     </row>
@@ -8334,28 +8319,28 @@
       <c r="A94" s="8">
         <v>723</v>
       </c>
-      <c r="B94" s="28">
+      <c r="B94" s="24">
         <v>0.7</v>
       </c>
-      <c r="C94" s="28">
+      <c r="C94" s="24">
         <v>0.5</v>
       </c>
-      <c r="D94" s="26">
+      <c r="D94" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E94" s="26">
+      <c r="E94" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F94" s="26">
+      <c r="F94" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G94" s="26">
+      <c r="G94" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H94" s="26">
+      <c r="H94" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I94" s="27">
+      <c r="I94" s="23">
         <v>1.7900000000000001E-8</v>
       </c>
     </row>
@@ -8366,25 +8351,25 @@
       <c r="B95" s="14">
         <v>1.05</v>
       </c>
-      <c r="C95" s="28">
+      <c r="C95" s="24">
         <v>0.5</v>
       </c>
-      <c r="D95" s="26">
+      <c r="D95" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E95" s="26">
+      <c r="E95" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F95" s="26">
+      <c r="F95" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G95" s="26">
+      <c r="G95" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H95" s="26">
+      <c r="H95" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I95" s="27">
+      <c r="I95" s="23">
         <v>3.9700000000000001E-9</v>
       </c>
     </row>
@@ -8392,28 +8377,28 @@
       <c r="A96" s="8">
         <v>723</v>
       </c>
-      <c r="B96" s="28">
+      <c r="B96" s="24">
         <v>1.4</v>
       </c>
-      <c r="C96" s="28">
+      <c r="C96" s="24">
         <v>0.5</v>
       </c>
-      <c r="D96" s="26">
+      <c r="D96" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E96" s="26">
+      <c r="E96" s="22">
         <v>0.34140999999999999</v>
       </c>
       <c r="F96" s="9">
         <v>0.40010000000000001</v>
       </c>
-      <c r="G96" s="26">
+      <c r="G96" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H96" s="26">
+      <c r="H96" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I96" s="27">
+      <c r="I96" s="23">
         <v>5.52E-5</v>
       </c>
     </row>
@@ -8424,25 +8409,25 @@
       <c r="B97" s="14">
         <v>1.75</v>
       </c>
-      <c r="C97" s="28">
+      <c r="C97" s="24">
         <v>0.5</v>
       </c>
-      <c r="D97" s="26">
+      <c r="D97" s="22">
         <v>2.342E-2</v>
       </c>
-      <c r="E97" s="26">
+      <c r="E97" s="22">
         <v>0.34066000000000002</v>
       </c>
-      <c r="F97" s="26">
+      <c r="F97" s="22">
         <v>0.39922000000000002</v>
       </c>
-      <c r="G97" s="26">
+      <c r="G97" s="22">
         <v>0.13453999999999999</v>
       </c>
-      <c r="H97" s="26">
+      <c r="H97" s="22">
         <v>9.9909999999999999E-2</v>
       </c>
-      <c r="I97" s="26">
+      <c r="I97" s="22">
         <v>2.2499999999999998E-3</v>
       </c>
     </row>
@@ -8450,28 +8435,28 @@
       <c r="A98" s="8">
         <v>723</v>
       </c>
-      <c r="B98" s="28">
+      <c r="B98" s="24">
         <v>2.1</v>
       </c>
-      <c r="C98" s="28">
+      <c r="C98" s="24">
         <v>0.5</v>
       </c>
-      <c r="D98" s="26">
+      <c r="D98" s="22">
         <v>2.3349999999999999E-2</v>
       </c>
-      <c r="E98" s="26">
+      <c r="E98" s="22">
         <v>0.33968999999999999</v>
       </c>
-      <c r="F98" s="26">
+      <c r="F98" s="22">
         <v>0.39807999999999999</v>
       </c>
-      <c r="G98" s="26">
+      <c r="G98" s="22">
         <v>0.13416</v>
       </c>
-      <c r="H98" s="26">
+      <c r="H98" s="22">
         <v>9.962E-2</v>
       </c>
-      <c r="I98" s="26">
+      <c r="I98" s="22">
         <v>5.0899999999999999E-3</v>
       </c>
     </row>
@@ -8482,25 +8467,25 @@
       <c r="B99" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="C99" s="28">
+      <c r="C99" s="24">
         <v>0.5</v>
       </c>
-      <c r="D99" s="26">
+      <c r="D99" s="22">
         <v>2.333E-2</v>
       </c>
       <c r="E99" s="9">
         <v>0.33939999999999998</v>
       </c>
-      <c r="F99" s="26">
+      <c r="F99" s="22">
         <v>0.39772999999999997</v>
       </c>
-      <c r="G99" s="26">
+      <c r="G99" s="22">
         <v>0.13403999999999999</v>
       </c>
-      <c r="H99" s="26">
+      <c r="H99" s="22">
         <v>9.9540000000000003E-2</v>
       </c>
-      <c r="I99" s="26">
+      <c r="I99" s="22">
         <v>5.96E-3</v>
       </c>
     </row>
@@ -8508,28 +8493,28 @@
       <c r="A100" s="8">
         <v>723</v>
       </c>
-      <c r="B100" s="28">
+      <c r="B100" s="24">
         <v>2.8</v>
       </c>
-      <c r="C100" s="28">
+      <c r="C100" s="24">
         <v>0.5</v>
       </c>
-      <c r="D100" s="26">
+      <c r="D100" s="22">
         <v>2.333E-2</v>
       </c>
-      <c r="E100" s="26">
+      <c r="E100" s="22">
         <v>0.33933000000000002</v>
       </c>
-      <c r="F100" s="26">
+      <c r="F100" s="22">
         <v>0.39766000000000001</v>
       </c>
-      <c r="G100" s="26">
+      <c r="G100" s="22">
         <v>0.13400999999999999</v>
       </c>
-      <c r="H100" s="26">
+      <c r="H100" s="22">
         <v>9.9519999999999997E-2</v>
       </c>
-      <c r="I100" s="26">
+      <c r="I100" s="22">
         <v>6.1500000000000001E-3</v>
       </c>
     </row>
@@ -8540,22 +8525,22 @@
       <c r="B101" s="14">
         <v>3.15</v>
       </c>
-      <c r="C101" s="28">
+      <c r="C101" s="24">
         <v>0.5</v>
       </c>
-      <c r="D101" s="26">
+      <c r="D101" s="22">
         <v>2.333E-2</v>
       </c>
-      <c r="E101" s="26">
+      <c r="E101" s="22">
         <v>0.33938000000000001</v>
       </c>
-      <c r="F101" s="26">
+      <c r="F101" s="22">
         <v>0.39772000000000002</v>
       </c>
-      <c r="G101" s="26">
+      <c r="G101" s="22">
         <v>0.13403000000000001</v>
       </c>
-      <c r="H101" s="26">
+      <c r="H101" s="22">
         <v>9.9529999999999993E-2</v>
       </c>
       <c r="I101" s="10">
@@ -8572,22 +8557,22 @@
       <c r="C102" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D102" s="26">
+      <c r="D102" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E102" s="26">
+      <c r="E102" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F102" s="26">
+      <c r="F102" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G102" s="26">
+      <c r="G102" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H102" s="26">
+      <c r="H102" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I102" s="27">
+      <c r="I102" s="23">
         <v>9.1600000000000004E-10</v>
       </c>
     </row>
@@ -8601,22 +8586,22 @@
       <c r="C103" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D103" s="26">
+      <c r="D103" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E103" s="26">
+      <c r="E103" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F103" s="26">
+      <c r="F103" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G103" s="26">
+      <c r="G103" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H103" s="26">
+      <c r="H103" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I103" s="27">
+      <c r="I103" s="23">
         <v>1.19E-9</v>
       </c>
     </row>
@@ -8624,28 +8609,28 @@
       <c r="A104" s="8">
         <v>723</v>
       </c>
-      <c r="B104" s="28">
+      <c r="B104" s="24">
         <v>0.7</v>
       </c>
       <c r="C104" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D104" s="26">
+      <c r="D104" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E104" s="26">
+      <c r="E104" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F104" s="26">
+      <c r="F104" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G104" s="26">
+      <c r="G104" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H104" s="26">
+      <c r="H104" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I104" s="27">
+      <c r="I104" s="23">
         <v>1.03E-8</v>
       </c>
     </row>
@@ -8659,22 +8644,22 @@
       <c r="C105" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D105" s="26">
+      <c r="D105" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E105" s="26">
+      <c r="E105" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F105" s="26">
+      <c r="F105" s="22">
         <v>0.40011000000000002</v>
       </c>
-      <c r="G105" s="26">
+      <c r="G105" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H105" s="26">
+      <c r="H105" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I105" s="27">
+      <c r="I105" s="23">
         <v>1.7200000000000001E-5</v>
       </c>
     </row>
@@ -8682,28 +8667,28 @@
       <c r="A106" s="8">
         <v>723</v>
       </c>
-      <c r="B106" s="28">
+      <c r="B106" s="24">
         <v>1.4</v>
       </c>
       <c r="C106" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D106" s="26">
+      <c r="D106" s="22">
         <v>2.3369999999999998E-2</v>
       </c>
-      <c r="E106" s="26">
+      <c r="E106" s="22">
         <v>0.33999000000000001</v>
       </c>
-      <c r="F106" s="26">
+      <c r="F106" s="22">
         <v>0.39843000000000001</v>
       </c>
-      <c r="G106" s="26">
+      <c r="G106" s="22">
         <v>0.13427</v>
       </c>
-      <c r="H106" s="26">
+      <c r="H106" s="22">
         <v>9.9709999999999993E-2</v>
       </c>
-      <c r="I106" s="26">
+      <c r="I106" s="22">
         <v>4.2300000000000003E-3</v>
       </c>
     </row>
@@ -8717,22 +8702,22 @@
       <c r="C107" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D107" s="26">
+      <c r="D107" s="22">
         <v>2.2970000000000001E-2</v>
       </c>
-      <c r="E107" s="26">
+      <c r="E107" s="22">
         <v>0.33418999999999999</v>
       </c>
-      <c r="F107" s="26">
+      <c r="F107" s="22">
         <v>0.39162999999999998</v>
       </c>
-      <c r="G107" s="26">
+      <c r="G107" s="22">
         <v>0.13197999999999999</v>
       </c>
-      <c r="H107" s="26">
+      <c r="H107" s="22">
         <v>9.801E-2</v>
       </c>
-      <c r="I107" s="26">
+      <c r="I107" s="22">
         <v>2.1219999999999999E-2</v>
       </c>
     </row>
@@ -8740,28 +8725,28 @@
       <c r="A108" s="8">
         <v>723</v>
       </c>
-      <c r="B108" s="28">
+      <c r="B108" s="24">
         <v>2.1</v>
       </c>
       <c r="C108" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D108" s="26">
+      <c r="D108" s="22">
         <v>2.2780000000000002E-2</v>
       </c>
       <c r="E108" s="9">
         <v>0.33129999999999998</v>
       </c>
-      <c r="F108" s="26">
+      <c r="F108" s="22">
         <v>0.38824999999999998</v>
       </c>
-      <c r="G108" s="26">
+      <c r="G108" s="22">
         <v>0.13084000000000001</v>
       </c>
-      <c r="H108" s="26">
+      <c r="H108" s="22">
         <v>9.7159999999999996E-2</v>
       </c>
-      <c r="I108" s="26">
+      <c r="I108" s="22">
         <v>2.9659999999999999E-2</v>
       </c>
     </row>
@@ -8775,22 +8760,22 @@
       <c r="C109" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D109" s="26">
+      <c r="D109" s="22">
         <v>2.273E-2</v>
       </c>
-      <c r="E109" s="26">
+      <c r="E109" s="22">
         <v>0.33062999999999998</v>
       </c>
-      <c r="F109" s="26">
+      <c r="F109" s="22">
         <v>0.38746999999999998</v>
       </c>
-      <c r="G109" s="26">
+      <c r="G109" s="22">
         <v>0.13058</v>
       </c>
-      <c r="H109" s="26">
+      <c r="H109" s="22">
         <v>9.6970000000000001E-2</v>
       </c>
-      <c r="I109" s="26">
+      <c r="I109" s="22">
         <v>3.1629999999999998E-2</v>
       </c>
     </row>
@@ -8798,28 +8783,28 @@
       <c r="A110" s="8">
         <v>723</v>
       </c>
-      <c r="B110" s="28">
+      <c r="B110" s="24">
         <v>2.8</v>
       </c>
       <c r="C110" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D110" s="26">
+      <c r="D110" s="22">
         <v>2.2710000000000001E-2</v>
       </c>
-      <c r="E110" s="26">
+      <c r="E110" s="22">
         <v>0.33035999999999999</v>
       </c>
-      <c r="F110" s="26">
+      <c r="F110" s="22">
         <v>0.38713999999999998</v>
       </c>
-      <c r="G110" s="26">
+      <c r="G110" s="22">
         <v>0.13047</v>
       </c>
-      <c r="H110" s="26">
+      <c r="H110" s="22">
         <v>9.6879999999999994E-2</v>
       </c>
-      <c r="I110" s="26">
+      <c r="I110" s="22">
         <v>3.2439999999999997E-2</v>
       </c>
     </row>
@@ -8833,22 +8818,22 @@
       <c r="C111" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D111" s="26">
+      <c r="D111" s="22">
         <v>2.2720000000000001E-2</v>
       </c>
-      <c r="E111" s="26">
+      <c r="E111" s="22">
         <v>0.33045999999999998</v>
       </c>
-      <c r="F111" s="26">
+      <c r="F111" s="22">
         <v>0.38725999999999999</v>
       </c>
-      <c r="G111" s="26">
+      <c r="G111" s="22">
         <v>0.13050999999999999</v>
       </c>
-      <c r="H111" s="26">
+      <c r="H111" s="22">
         <v>9.6909999999999996E-2</v>
       </c>
-      <c r="I111" s="26">
+      <c r="I111" s="22">
         <v>3.2140000000000002E-2</v>
       </c>
     </row>
@@ -8859,25 +8844,25 @@
       <c r="B112" s="8">
         <v>0</v>
       </c>
-      <c r="C112" s="28">
+      <c r="C112" s="24">
         <v>0.2</v>
       </c>
-      <c r="D112" s="26">
+      <c r="D112" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E112" s="26">
+      <c r="E112" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F112" s="26">
+      <c r="F112" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G112" s="26">
+      <c r="G112" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H112" s="26">
+      <c r="H112" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I112" s="27">
+      <c r="I112" s="23">
         <v>9.8200000000000008E-7</v>
       </c>
     </row>
@@ -8888,25 +8873,25 @@
       <c r="B113" s="14">
         <v>0.35</v>
       </c>
-      <c r="C113" s="28">
+      <c r="C113" s="24">
         <v>0.2</v>
       </c>
-      <c r="D113" s="26">
+      <c r="D113" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E113" s="26">
+      <c r="E113" s="22">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F113" s="26">
+      <c r="F113" s="22">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G113" s="26">
+      <c r="G113" s="22">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H113" s="26">
+      <c r="H113" s="22">
         <v>0.10013</v>
       </c>
-      <c r="I113" s="27">
+      <c r="I113" s="23">
         <v>3.6399999999999999E-6</v>
       </c>
     </row>
@@ -8914,28 +8899,28 @@
       <c r="A114" s="8">
         <v>723</v>
       </c>
-      <c r="B114" s="28">
+      <c r="B114" s="24">
         <v>0.7</v>
       </c>
-      <c r="C114" s="28">
+      <c r="C114" s="24">
         <v>0.2</v>
       </c>
-      <c r="D114" s="26">
+      <c r="D114" s="22">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E114" s="26">
+      <c r="E114" s="22">
         <v>0.34137000000000001</v>
       </c>
-      <c r="F114" s="26">
+      <c r="F114" s="22">
         <v>0.40005000000000002</v>
       </c>
-      <c r="G114" s="26">
+      <c r="G114" s="22">
         <v>0.13482</v>
       </c>
-      <c r="H114" s="26">
+      <c r="H114" s="22">
         <v>0.10011</v>
       </c>
-      <c r="I114" s="27">
+      <c r="I114" s="23">
         <v>1.8100000000000001E-4</v>
       </c>
     </row>
@@ -8946,25 +8931,25 @@
       <c r="B115" s="14">
         <v>1.05</v>
       </c>
-      <c r="C115" s="28">
+      <c r="C115" s="24">
         <v>0.2</v>
       </c>
-      <c r="D115" s="26">
+      <c r="D115" s="22">
         <v>2.315E-2</v>
       </c>
-      <c r="E115" s="26">
+      <c r="E115" s="22">
         <v>0.33671000000000001</v>
       </c>
-      <c r="F115" s="26">
+      <c r="F115" s="22">
         <v>0.39459</v>
       </c>
-      <c r="G115" s="26">
+      <c r="G115" s="22">
         <v>0.13297999999999999</v>
       </c>
-      <c r="H115" s="26">
+      <c r="H115" s="22">
         <v>9.8750000000000004E-2</v>
       </c>
-      <c r="I115" s="26">
+      <c r="I115" s="22">
         <v>1.3820000000000001E-2</v>
       </c>
     </row>
@@ -8972,28 +8957,28 @@
       <c r="A116" s="8">
         <v>723</v>
       </c>
-      <c r="B116" s="28">
+      <c r="B116" s="24">
         <v>1.4</v>
       </c>
-      <c r="C116" s="28">
+      <c r="C116" s="24">
         <v>0.2</v>
       </c>
-      <c r="D116" s="26">
+      <c r="D116" s="22">
         <v>2.171E-2</v>
       </c>
-      <c r="E116" s="26">
+      <c r="E116" s="22">
         <v>0.31584000000000001</v>
       </c>
-      <c r="F116" s="26">
+      <c r="F116" s="22">
         <v>0.37013000000000001</v>
       </c>
-      <c r="G116" s="26">
+      <c r="G116" s="22">
         <v>0.12474</v>
       </c>
-      <c r="H116" s="26">
+      <c r="H116" s="22">
         <v>9.2630000000000004E-2</v>
       </c>
-      <c r="I116" s="26">
+      <c r="I116" s="22">
         <v>7.4959999999999999E-2</v>
       </c>
     </row>
@@ -9004,25 +8989,25 @@
       <c r="B117" s="14">
         <v>1.75</v>
       </c>
-      <c r="C117" s="28">
+      <c r="C117" s="24">
         <v>0.2</v>
       </c>
-      <c r="D117" s="26">
+      <c r="D117" s="22">
         <v>2.0889999999999999E-2</v>
       </c>
-      <c r="E117" s="26">
+      <c r="E117" s="22">
         <v>0.30381000000000002</v>
       </c>
-      <c r="F117" s="26">
+      <c r="F117" s="22">
         <v>0.35603000000000001</v>
       </c>
-      <c r="G117" s="26">
+      <c r="G117" s="22">
         <v>0.11999</v>
       </c>
       <c r="H117" s="9">
         <v>8.9099999999999999E-2</v>
       </c>
-      <c r="I117" s="26">
+      <c r="I117" s="22">
         <v>0.11019</v>
       </c>
     </row>
@@ -9030,28 +9015,28 @@
       <c r="A118" s="8">
         <v>723</v>
       </c>
-      <c r="B118" s="28">
+      <c r="B118" s="24">
         <v>2.1</v>
       </c>
-      <c r="C118" s="28">
+      <c r="C118" s="24">
         <v>0.2</v>
       </c>
-      <c r="D118" s="26">
+      <c r="D118" s="22">
         <v>2.068E-2</v>
       </c>
-      <c r="E118" s="26">
+      <c r="E118" s="22">
         <v>0.30087000000000003</v>
       </c>
-      <c r="F118" s="26">
+      <c r="F118" s="22">
         <v>0.35258</v>
       </c>
-      <c r="G118" s="26">
+      <c r="G118" s="22">
         <v>0.11882</v>
       </c>
-      <c r="H118" s="26">
+      <c r="H118" s="22">
         <v>8.8239999999999999E-2</v>
       </c>
-      <c r="I118" s="26">
+      <c r="I118" s="22">
         <v>0.11881</v>
       </c>
     </row>
@@ -9062,25 +9047,25 @@
       <c r="B119" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="C119" s="28">
+      <c r="C119" s="24">
         <v>0.2</v>
       </c>
-      <c r="D119" s="26">
+      <c r="D119" s="22">
         <v>2.0639999999999999E-2</v>
       </c>
       <c r="E119" s="9">
         <v>0.30030000000000001</v>
       </c>
-      <c r="F119" s="26">
+      <c r="F119" s="22">
         <v>0.35191</v>
       </c>
       <c r="G119" s="9">
         <v>0.1186</v>
       </c>
-      <c r="H119" s="26">
+      <c r="H119" s="22">
         <v>8.8069999999999996E-2</v>
       </c>
-      <c r="I119" s="26">
+      <c r="I119" s="22">
         <v>0.12048</v>
       </c>
     </row>
@@ -9088,28 +9073,28 @@
       <c r="A120" s="8">
         <v>723</v>
       </c>
-      <c r="B120" s="28">
+      <c r="B120" s="24">
         <v>2.8</v>
       </c>
-      <c r="C120" s="28">
+      <c r="C120" s="24">
         <v>0.2</v>
       </c>
-      <c r="D120" s="26">
+      <c r="D120" s="22">
         <v>2.061E-2</v>
       </c>
-      <c r="E120" s="26">
+      <c r="E120" s="22">
         <v>0.29982999999999999</v>
       </c>
-      <c r="F120" s="26">
+      <c r="F120" s="22">
         <v>0.35137000000000002</v>
       </c>
-      <c r="G120" s="26">
+      <c r="G120" s="22">
         <v>0.11841</v>
       </c>
-      <c r="H120" s="26">
+      <c r="H120" s="22">
         <v>8.7929999999999994E-2</v>
       </c>
-      <c r="I120" s="26">
+      <c r="I120" s="22">
         <v>0.12184</v>
       </c>
     </row>
@@ -9120,25 +9105,25 @@
       <c r="B121" s="14">
         <v>3.15</v>
       </c>
-      <c r="C121" s="28">
+      <c r="C121" s="24">
         <v>0.2</v>
       </c>
-      <c r="D121" s="26">
+      <c r="D121" s="22">
         <v>2.0619999999999999E-2</v>
       </c>
-      <c r="E121" s="26">
+      <c r="E121" s="22">
         <v>0.30001</v>
       </c>
-      <c r="F121" s="26">
+      <c r="F121" s="22">
         <v>0.35156999999999999</v>
       </c>
-      <c r="G121" s="26">
+      <c r="G121" s="22">
         <v>0.11848</v>
       </c>
-      <c r="H121" s="26">
+      <c r="H121" s="22">
         <v>8.7980000000000003E-2</v>
       </c>
-      <c r="I121" s="26">
+      <c r="I121" s="22">
         <v>0.12132999999999999</v>
       </c>
     </row>
@@ -9152,22 +9137,22 @@
       <c r="C122" s="8">
         <v>1</v>
       </c>
-      <c r="D122" s="26">
+      <c r="D122" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E122" s="26">
+      <c r="E122" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F122" s="26">
+      <c r="F122" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G122" s="26">
+      <c r="G122" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H122" s="26">
+      <c r="H122" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I122" s="27">
+      <c r="I122" s="23">
         <v>1.8300000000000001E-7</v>
       </c>
     </row>
@@ -9181,22 +9166,22 @@
       <c r="C123" s="8">
         <v>1</v>
       </c>
-      <c r="D123" s="26">
+      <c r="D123" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E123" s="26">
+      <c r="E123" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F123" s="26">
+      <c r="F123" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G123" s="26">
+      <c r="G123" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H123" s="26">
+      <c r="H123" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I123" s="27">
+      <c r="I123" s="23">
         <v>1.4000000000000001E-7</v>
       </c>
     </row>
@@ -9204,28 +9189,28 @@
       <c r="A124" s="8">
         <v>748</v>
       </c>
-      <c r="B124" s="28">
+      <c r="B124" s="24">
         <v>0.7</v>
       </c>
       <c r="C124" s="8">
         <v>1</v>
       </c>
-      <c r="D124" s="26">
+      <c r="D124" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E124" s="26">
+      <c r="E124" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F124" s="26">
+      <c r="F124" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G124" s="26">
+      <c r="G124" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H124" s="26">
+      <c r="H124" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I124" s="27">
+      <c r="I124" s="23">
         <v>3.5199999999999998E-7</v>
       </c>
     </row>
@@ -9239,22 +9224,22 @@
       <c r="C125" s="8">
         <v>1</v>
       </c>
-      <c r="D125" s="26">
+      <c r="D125" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E125" s="26">
+      <c r="E125" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F125" s="26">
+      <c r="F125" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G125" s="26">
+      <c r="G125" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H125" s="26">
+      <c r="H125" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I125" s="27">
+      <c r="I125" s="23">
         <v>9.0699999999999996E-7</v>
       </c>
     </row>
@@ -9262,28 +9247,28 @@
       <c r="A126" s="8">
         <v>748</v>
       </c>
-      <c r="B126" s="28">
+      <c r="B126" s="24">
         <v>1.4</v>
       </c>
       <c r="C126" s="8">
         <v>1</v>
       </c>
-      <c r="D126" s="26">
+      <c r="D126" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E126" s="26">
+      <c r="E126" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F126" s="26">
+      <c r="F126" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G126" s="26">
+      <c r="G126" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H126" s="26">
+      <c r="H126" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I126" s="27">
+      <c r="I126" s="23">
         <v>1.52E-8</v>
       </c>
     </row>
@@ -9297,22 +9282,22 @@
       <c r="C127" s="8">
         <v>1</v>
       </c>
-      <c r="D127" s="26">
+      <c r="D127" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E127" s="26">
+      <c r="E127" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F127" s="26">
+      <c r="F127" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G127" s="26">
+      <c r="G127" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H127" s="26">
+      <c r="H127" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I127" s="27">
+      <c r="I127" s="23">
         <v>1.3999999999999999E-6</v>
       </c>
     </row>
@@ -9320,28 +9305,28 @@
       <c r="A128" s="8">
         <v>748</v>
       </c>
-      <c r="B128" s="28">
+      <c r="B128" s="24">
         <v>2.1</v>
       </c>
       <c r="C128" s="8">
         <v>1</v>
       </c>
-      <c r="D128" s="26">
+      <c r="D128" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E128" s="26">
+      <c r="E128" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F128" s="26">
+      <c r="F128" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G128" s="26">
+      <c r="G128" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H128" s="26">
+      <c r="H128" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I128" s="27">
+      <c r="I128" s="23">
         <v>3.6200000000000001E-6</v>
       </c>
     </row>
@@ -9355,22 +9340,22 @@
       <c r="C129" s="8">
         <v>1</v>
       </c>
-      <c r="D129" s="26">
+      <c r="D129" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E129" s="26">
+      <c r="E129" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F129" s="26">
+      <c r="F129" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G129" s="26">
+      <c r="G129" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H129" s="26">
+      <c r="H129" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I129" s="27">
+      <c r="I129" s="23">
         <v>4.3499999999999999E-6</v>
       </c>
     </row>
@@ -9378,28 +9363,28 @@
       <c r="A130" s="8">
         <v>748</v>
       </c>
-      <c r="B130" s="28">
+      <c r="B130" s="24">
         <v>2.8</v>
       </c>
       <c r="C130" s="8">
         <v>1</v>
       </c>
-      <c r="D130" s="26">
+      <c r="D130" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E130" s="26">
+      <c r="E130" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F130" s="26">
+      <c r="F130" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G130" s="26">
+      <c r="G130" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H130" s="26">
+      <c r="H130" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I130" s="27">
+      <c r="I130" s="23">
         <v>4.5000000000000001E-6</v>
       </c>
     </row>
@@ -9413,22 +9398,22 @@
       <c r="C131" s="8">
         <v>1</v>
       </c>
-      <c r="D131" s="26">
+      <c r="D131" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E131" s="26">
+      <c r="E131" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F131" s="26">
+      <c r="F131" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G131" s="26">
+      <c r="G131" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H131" s="26">
+      <c r="H131" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I131" s="27">
+      <c r="I131" s="23">
         <v>4.2400000000000001E-6</v>
       </c>
     </row>
@@ -9439,25 +9424,25 @@
       <c r="B132" s="8">
         <v>0</v>
       </c>
-      <c r="C132" s="28">
+      <c r="C132" s="24">
         <v>0.5</v>
       </c>
-      <c r="D132" s="26">
+      <c r="D132" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E132" s="26">
+      <c r="E132" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F132" s="26">
+      <c r="F132" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G132" s="26">
+      <c r="G132" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H132" s="26">
+      <c r="H132" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I132" s="27">
+      <c r="I132" s="23">
         <v>4.4299999999999998E-7</v>
       </c>
     </row>
@@ -9468,25 +9453,25 @@
       <c r="B133" s="14">
         <v>0.35</v>
       </c>
-      <c r="C133" s="28">
+      <c r="C133" s="24">
         <v>0.5</v>
       </c>
-      <c r="D133" s="26">
+      <c r="D133" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E133" s="26">
+      <c r="E133" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F133" s="26">
+      <c r="F133" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G133" s="26">
+      <c r="G133" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H133" s="26">
+      <c r="H133" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I133" s="27">
+      <c r="I133" s="23">
         <v>4.2599999999999998E-8</v>
       </c>
     </row>
@@ -9494,28 +9479,28 @@
       <c r="A134" s="8">
         <v>748</v>
       </c>
-      <c r="B134" s="28">
+      <c r="B134" s="24">
         <v>0.7</v>
       </c>
-      <c r="C134" s="28">
+      <c r="C134" s="24">
         <v>0.5</v>
       </c>
-      <c r="D134" s="26">
+      <c r="D134" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E134" s="26">
+      <c r="E134" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F134" s="26">
+      <c r="F134" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G134" s="26">
+      <c r="G134" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H134" s="26">
+      <c r="H134" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I134" s="27">
+      <c r="I134" s="23">
         <v>1.0999999999999999E-9</v>
       </c>
     </row>
@@ -9526,25 +9511,25 @@
       <c r="B135" s="14">
         <v>1.05</v>
       </c>
-      <c r="C135" s="28">
+      <c r="C135" s="24">
         <v>0.5</v>
       </c>
-      <c r="D135" s="26">
+      <c r="D135" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E135" s="26">
+      <c r="E135" s="22">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F135" s="26">
+      <c r="F135" s="22">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G135" s="26">
+      <c r="G135" s="22">
         <v>0.11827</v>
       </c>
-      <c r="H135" s="26">
+      <c r="H135" s="22">
         <v>8.695E-2</v>
       </c>
-      <c r="I135" s="27">
+      <c r="I135" s="23">
         <v>5.5899999999999996E-7</v>
       </c>
     </row>
@@ -9552,28 +9537,28 @@
       <c r="A136" s="8">
         <v>748</v>
       </c>
-      <c r="B136" s="28">
+      <c r="B136" s="24">
         <v>1.4</v>
       </c>
-      <c r="C136" s="28">
+      <c r="C136" s="24">
         <v>0.5</v>
       </c>
-      <c r="D136" s="26">
+      <c r="D136" s="22">
         <v>2.9239999999999999E-2</v>
       </c>
-      <c r="E136" s="26">
+      <c r="E136" s="22">
         <v>0.38180999999999998</v>
       </c>
-      <c r="F136" s="26">
+      <c r="F136" s="22">
         <v>0.38349</v>
       </c>
-      <c r="G136" s="26">
+      <c r="G136" s="22">
         <v>0.11823</v>
       </c>
-      <c r="H136" s="26">
+      <c r="H136" s="22">
         <v>8.6919999999999997E-2</v>
       </c>
-      <c r="I136" s="27">
+      <c r="I136" s="23">
         <v>3.0299999999999999E-4</v>
       </c>
     </row>
@@ -9584,25 +9569,25 @@
       <c r="B137" s="14">
         <v>1.75</v>
       </c>
-      <c r="C137" s="28">
+      <c r="C137" s="24">
         <v>0.5</v>
       </c>
-      <c r="D137" s="26">
+      <c r="D137" s="22">
         <v>2.921E-2</v>
       </c>
-      <c r="E137" s="26">
+      <c r="E137" s="22">
         <v>0.38141000000000003</v>
       </c>
-      <c r="F137" s="26">
+      <c r="F137" s="22">
         <v>0.38308999999999999</v>
       </c>
-      <c r="G137" s="26">
+      <c r="G137" s="22">
         <v>0.11811000000000001</v>
       </c>
-      <c r="H137" s="26">
+      <c r="H137" s="22">
         <v>8.6830000000000004E-2</v>
       </c>
-      <c r="I137" s="26">
+      <c r="I137" s="22">
         <v>1.3600000000000001E-3</v>
       </c>
     </row>
@@ -9610,28 +9595,28 @@
       <c r="A138" s="8">
         <v>748</v>
       </c>
-      <c r="B138" s="28">
+      <c r="B138" s="24">
         <v>2.1</v>
       </c>
-      <c r="C138" s="28">
+      <c r="C138" s="24">
         <v>0.5</v>
       </c>
-      <c r="D138" s="26">
+      <c r="D138" s="22">
         <v>2.9190000000000001E-2</v>
       </c>
-      <c r="E138" s="26">
+      <c r="E138" s="22">
         <v>0.38123000000000001</v>
       </c>
-      <c r="F138" s="26">
+      <c r="F138" s="22">
         <v>0.38290999999999997</v>
       </c>
-      <c r="G138" s="26">
+      <c r="G138" s="22">
         <v>0.11805</v>
       </c>
-      <c r="H138" s="26">
+      <c r="H138" s="22">
         <v>8.6790000000000006E-2</v>
       </c>
-      <c r="I138" s="26">
+      <c r="I138" s="22">
         <v>1.82E-3</v>
       </c>
     </row>
@@ -9642,25 +9627,25 @@
       <c r="B139" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="C139" s="28">
+      <c r="C139" s="24">
         <v>0.5</v>
       </c>
-      <c r="D139" s="26">
+      <c r="D139" s="22">
         <v>2.9190000000000001E-2</v>
       </c>
-      <c r="E139" s="26">
+      <c r="E139" s="22">
         <v>0.38118999999999997</v>
       </c>
-      <c r="F139" s="26">
+      <c r="F139" s="22">
         <v>0.38286999999999999</v>
       </c>
-      <c r="G139" s="26">
+      <c r="G139" s="22">
         <v>0.11804000000000001</v>
       </c>
-      <c r="H139" s="26">
+      <c r="H139" s="22">
         <v>8.6779999999999996E-2</v>
       </c>
-      <c r="I139" s="26">
+      <c r="I139" s="22">
         <v>1.9300000000000001E-3</v>
       </c>
     </row>
@@ -9668,28 +9653,28 @@
       <c r="A140" s="8">
         <v>748</v>
       </c>
-      <c r="B140" s="28">
+      <c r="B140" s="24">
         <v>2.8</v>
       </c>
-      <c r="C140" s="28">
+      <c r="C140" s="24">
         <v>0.5</v>
       </c>
-      <c r="D140" s="26">
+      <c r="D140" s="22">
         <v>2.9190000000000001E-2</v>
       </c>
-      <c r="E140" s="26">
+      <c r="E140" s="22">
         <v>0.38118999999999997</v>
       </c>
-      <c r="F140" s="26">
+      <c r="F140" s="22">
         <v>0.38285999999999998</v>
       </c>
-      <c r="G140" s="26">
+      <c r="G140" s="22">
         <v>0.11804000000000001</v>
       </c>
-      <c r="H140" s="26">
+      <c r="H140" s="22">
         <v>8.6779999999999996E-2</v>
       </c>
-      <c r="I140" s="26">
+      <c r="I140" s="22">
         <v>1.9400000000000001E-3</v>
       </c>
     </row>
@@ -9700,86 +9685,86 @@
       <c r="B141" s="15">
         <v>3.15</v>
       </c>
-      <c r="C141" s="29">
+      <c r="C141" s="25">
         <v>0.5</v>
       </c>
-      <c r="D141" s="30">
+      <c r="D141" s="26">
         <v>2.9190000000000001E-2</v>
       </c>
-      <c r="E141" s="30">
+      <c r="E141" s="26">
         <v>0.38118000000000002</v>
       </c>
-      <c r="F141" s="30">
+      <c r="F141" s="26">
         <v>0.38285999999999998</v>
       </c>
-      <c r="G141" s="30">
+      <c r="G141" s="26">
         <v>0.11804000000000001</v>
       </c>
-      <c r="H141" s="30">
+      <c r="H141" s="26">
         <v>8.6779999999999996E-2</v>
       </c>
-      <c r="I141" s="30">
+      <c r="I141" s="26">
         <v>1.9499999999999999E-3</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="31"/>
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="31"/>
-      <c r="F142" s="31"/>
+      <c r="A142" s="16"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
     </row>
     <row r="143" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="31"/>
-      <c r="B144" s="31"/>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="31"/>
-      <c r="F144" s="31"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="32"/>
-      <c r="B145" s="32"/>
-      <c r="C145" s="32"/>
-      <c r="D145" s="32"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
+      <c r="A145" s="27"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="31"/>
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
+      <c r="A146" s="16"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="32"/>
-      <c r="B147" s="32"/>
-      <c r="C147" s="32"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
+      <c r="A147" s="27"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
     </row>
     <row r="148" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="149" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="150" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="33"/>
-      <c r="B150" s="33"/>
-      <c r="C150" s="33"/>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
     </row>
     <row r="151" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="31"/>
-      <c r="B151" s="31"/>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="31"/>
-      <c r="F151" s="31"/>
+      <c r="A151" s="16"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data excel.xlsx
+++ b/data excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Documents\UWO CBE\Courses\CBE 9133 - AI in Chemical Engineering\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838A590E-0990-44BE-B99A-728D18C43382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1344B1B0-7603-4C3D-98E2-C68A988BC555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -635,9 +635,6 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -645,9 +642,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -658,6 +652,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2749,23 +2767,23 @@
     <row r="62" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="3" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="22.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2775,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
@@ -5603,10 +5621,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5615,7 +5634,7 @@
     <col min="10" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5625,460 +5644,459 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>673</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
+      <c r="C2" s="29">
+        <v>0.2</v>
       </c>
       <c r="D2" s="20">
+        <v>1.6320000000000001E-2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0.38063999999999998</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0.15931999999999999</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0.10578</v>
+      </c>
+      <c r="I2" s="20">
+        <v>4.8730000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>673</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.30292999999999998</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.39871000000000001</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0.16689000000000001</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.1108</v>
+      </c>
+      <c r="I3" s="21">
+        <v>3.5699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>673</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.30397000000000002</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.40009</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.16746</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.11118</v>
+      </c>
+      <c r="I4" s="22">
+        <v>1.3799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
+        <v>673</v>
+      </c>
+      <c r="B5" s="27">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31">
         <v>1.7160000000000002E-2</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E5" s="31">
         <v>0.30402000000000001</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F5" s="31">
         <v>0.40014</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G5" s="31">
         <v>0.16749</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H5" s="32">
         <v>0.11119999999999999</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I5" s="33">
         <v>1.31E-8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>673</v>
-      </c>
-      <c r="B3" s="14">
+    <row r="6" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>673</v>
+      </c>
+      <c r="B6" s="14">
         <v>0.35</v>
       </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22">
+      <c r="C6" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1.6049999999999998E-2</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.28444999999999998</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.37437999999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.10403999999999999</v>
+      </c>
+      <c r="I6" s="21">
+        <v>6.4369999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>673</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1.7069999999999998E-2</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.30257000000000001</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.39823999999999998</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.16669</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.11067</v>
+      </c>
+      <c r="I7" s="21">
+        <v>4.7600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>673</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.30396000000000001</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.40006999999999998</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.16746</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0.11118</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1.84E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>673</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
         <v>1.7160000000000002E-2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E9" s="21">
         <v>0.30402000000000001</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F9" s="21">
         <v>0.40014</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G9" s="21">
         <v>0.16749</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H9" s="9">
         <v>0.11119999999999999</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I9" s="22">
         <v>1.7E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>673</v>
-      </c>
-      <c r="B4" s="24">
+    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>673</v>
+      </c>
+      <c r="B10" s="23">
         <v>0.7</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22">
+      <c r="C10" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1.5429999999999999E-2</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.27337</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="H10" s="21">
+        <v>9.9989999999999996E-2</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0.10082000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>673</v>
+      </c>
+      <c r="B11" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1.702E-2</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.30164000000000002</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.39701999999999998</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.16617999999999999</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0.11033</v>
+      </c>
+      <c r="I11" s="9">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>673</v>
+      </c>
+      <c r="B12" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.30392000000000002</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.40001999999999999</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0.16743</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0.11115999999999999</v>
+      </c>
+      <c r="I12" s="22">
+        <v>3.1100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>673</v>
+      </c>
+      <c r="B13" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21">
         <v>1.7160000000000002E-2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E13" s="21">
         <v>0.30402000000000001</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F13" s="21">
         <v>0.40014</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G13" s="21">
         <v>0.16749</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H13" s="9">
         <v>0.11119999999999999</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I13" s="22">
         <v>2.9099999999999999E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>673</v>
-      </c>
-      <c r="B5" s="14">
+    <row r="14" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>673</v>
+      </c>
+      <c r="B14" s="14">
         <v>1.05</v>
       </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1.7160000000000002E-2</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0.30402000000000001</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0.40014</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0.16749</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.11119999999999999</v>
-      </c>
-      <c r="I5" s="23">
-        <v>8.9900000000000004E-8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>673</v>
-      </c>
-      <c r="B6" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1.7160000000000002E-2</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0.30402000000000001</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0.40014</v>
-      </c>
-      <c r="G6" s="22">
-        <v>0.16749</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.11119999999999999</v>
-      </c>
-      <c r="I6" s="23">
-        <v>2.0099999999999998E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>673</v>
-      </c>
-      <c r="B7" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0.30387999999999998</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0.39996999999999999</v>
-      </c>
-      <c r="G7" s="22">
-        <v>0.16741</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0.11115</v>
-      </c>
-      <c r="I7" s="23">
-        <v>4.37E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>673</v>
-      </c>
-      <c r="B8" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0.29938999999999999</v>
-      </c>
-      <c r="F8" s="22">
-        <v>0.39406000000000002</v>
-      </c>
-      <c r="G8" s="22">
-        <v>0.16494</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0.10951</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1.52E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>673</v>
-      </c>
-      <c r="B9" s="14">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22">
-        <v>1.6449999999999999E-2</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.29143999999999998</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0.38357999999999998</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0.16055</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.1066</v>
-      </c>
-      <c r="I9" s="22">
-        <v>4.138E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>673</v>
-      </c>
-      <c r="B10" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22">
-        <v>1.6289999999999999E-2</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.28870000000000001</v>
-      </c>
-      <c r="F10" s="22">
-        <v>0.37998999999999999</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0.15905</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.1056</v>
-      </c>
-      <c r="I10" s="22">
-        <v>5.0369999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>673</v>
-      </c>
-      <c r="B11" s="14">
-        <v>3.15</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="22">
-        <v>1.626E-2</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0.28815000000000002</v>
-      </c>
-      <c r="F11" s="22">
-        <v>0.37925999999999999</v>
-      </c>
-      <c r="G11" s="22">
-        <v>0.15875</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="I11" s="22">
-        <v>5.2179999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>673</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="22">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0.30397000000000002</v>
-      </c>
-      <c r="F12" s="22">
-        <v>0.40009</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0.16746</v>
-      </c>
-      <c r="H12" s="22">
-        <v>0.11118</v>
-      </c>
-      <c r="I12" s="23">
-        <v>1.3799999999999999E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>673</v>
-      </c>
-      <c r="B13" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="C13" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="22">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0.30396000000000001</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0.40006999999999998</v>
-      </c>
-      <c r="G13" s="22">
-        <v>0.16746</v>
-      </c>
-      <c r="H13" s="22">
-        <v>0.11118</v>
-      </c>
-      <c r="I13" s="23">
-        <v>1.84E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>673</v>
-      </c>
-      <c r="B14" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C14" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="22">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0.30392000000000002</v>
-      </c>
-      <c r="F14" s="22">
-        <v>0.40001999999999999</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0.16743</v>
-      </c>
-      <c r="H14" s="22">
-        <v>0.11115999999999999</v>
-      </c>
-      <c r="I14" s="23">
-        <v>3.1100000000000002E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1.379E-2</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.24440999999999999</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.32168999999999998</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0.13464999999999999</v>
+      </c>
+      <c r="H14" s="9">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0.19606999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>673</v>
       </c>
       <c r="B15" s="14">
         <v>1.05</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1.6820000000000002E-2</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.29813000000000001</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.39240000000000003</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0.16425000000000001</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0.10904999999999999</v>
+      </c>
+      <c r="I15" s="21">
+        <v>1.9349999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>673</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="C16" s="23">
         <v>0.5</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D16" s="21">
         <v>1.7139999999999999E-2</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E16" s="21">
         <v>0.30374000000000001</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F16" s="21">
         <v>0.39978000000000002</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G16" s="21">
         <v>0.16733000000000001</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H16" s="9">
         <v>0.1111</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I16" s="22">
         <v>9.0399999999999996E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>673</v>
-      </c>
-      <c r="B16" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C16" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="22">
-        <v>1.704E-2</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0.30198000000000003</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0.39745999999999998</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0.16636000000000001</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0.11045000000000001</v>
-      </c>
-      <c r="I16" s="9">
-        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6086,174 +6104,173 @@
         <v>673</v>
       </c>
       <c r="B17" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="C17" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1.6119999999999999E-2</v>
-      </c>
-      <c r="E17" s="22">
-        <v>0.28565000000000002</v>
-      </c>
-      <c r="F17" s="22">
-        <v>0.37597000000000003</v>
-      </c>
-      <c r="G17" s="22">
-        <v>0.15737000000000001</v>
-      </c>
-      <c r="H17" s="22">
-        <v>0.10448</v>
-      </c>
-      <c r="I17" s="9">
-        <v>6.0400000000000002E-2</v>
+        <v>1.05</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1.7160000000000002E-2</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.30402000000000001</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0.40014</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0.16749</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="I17" s="22">
+        <v>8.9900000000000004E-8</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>673</v>
       </c>
-      <c r="B18" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="C18" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="22">
-        <v>1.435E-2</v>
-      </c>
-      <c r="E18" s="22">
-        <v>0.25436999999999999</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.33479999999999999</v>
-      </c>
-      <c r="G18" s="22">
-        <v>0.14013</v>
-      </c>
-      <c r="H18" s="22">
-        <v>9.3039999999999998E-2</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0.1633</v>
+      <c r="B18" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1.082E-2</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0.19170999999999999</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0.25233</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0.10562000000000001</v>
+      </c>
+      <c r="H18" s="21">
+        <v>7.0120000000000002E-2</v>
+      </c>
+      <c r="I18" s="21">
+        <v>0.36939</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>673</v>
       </c>
-      <c r="B19" s="14">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C19" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="22">
-        <v>1.362E-2</v>
-      </c>
-      <c r="E19" s="22">
-        <v>0.24126</v>
-      </c>
-      <c r="F19" s="22">
-        <v>0.31755</v>
-      </c>
-      <c r="G19" s="22">
-        <v>0.13291</v>
-      </c>
-      <c r="H19" s="22">
-        <v>8.8249999999999995E-2</v>
-      </c>
-      <c r="I19" s="22">
-        <v>0.20641000000000001</v>
+      <c r="B19" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1.585E-2</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.28090999999999999</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0.36973</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0.15476000000000001</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0.10274999999999999</v>
+      </c>
+      <c r="I19" s="21">
+        <v>7.6009999999999994E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>673</v>
       </c>
-      <c r="B20" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C20" s="24">
+      <c r="B20" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="C20" s="23">
         <v>0.5</v>
       </c>
-      <c r="D20" s="22">
-        <v>1.346E-2</v>
-      </c>
-      <c r="E20" s="22">
-        <v>0.23845</v>
-      </c>
-      <c r="F20" s="22">
-        <v>0.31385000000000002</v>
-      </c>
-      <c r="G20" s="22">
-        <v>0.13136999999999999</v>
-      </c>
-      <c r="H20" s="22">
-        <v>8.7220000000000006E-2</v>
-      </c>
-      <c r="I20" s="22">
-        <v>0.21565999999999999</v>
+      <c r="D20" s="21">
+        <v>1.704E-2</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.30198000000000003</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0.39745999999999998</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0.16636000000000001</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0.11045000000000001</v>
+      </c>
+      <c r="I20" s="9">
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>673</v>
       </c>
-      <c r="B21" s="14">
-        <v>3.15</v>
-      </c>
-      <c r="C21" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="22">
-        <v>1.3429999999999999E-2</v>
-      </c>
-      <c r="E21" s="22">
-        <v>0.23794000000000001</v>
-      </c>
-      <c r="F21" s="22">
-        <v>0.31317</v>
-      </c>
-      <c r="G21" s="22">
-        <v>0.13108</v>
-      </c>
-      <c r="H21" s="22">
-        <f>SUM(D21:G21)</f>
-        <v>0.69562000000000002</v>
+      <c r="B21" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1.7160000000000002E-2</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.30402000000000001</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.40014</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0.16749</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.11119999999999999</v>
       </c>
       <c r="I21" s="22">
-        <v>0.21734999999999999</v>
+        <v>2.0099999999999998E-6</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>673</v>
       </c>
-      <c r="B22" s="8">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="E22" s="22">
-        <v>0.30292999999999998</v>
-      </c>
-      <c r="F22" s="22">
-        <v>0.39871000000000001</v>
-      </c>
-      <c r="G22" s="22">
-        <v>0.16689000000000001</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.1108</v>
-      </c>
-      <c r="I22" s="22">
-        <v>3.5699999999999998E-3</v>
+      <c r="B22" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="21">
+        <v>8.8100000000000001E-3</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0.15618000000000001</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.20555999999999999</v>
+      </c>
+      <c r="G22" s="21">
+        <v>8.6040000000000005E-2</v>
+      </c>
+      <c r="H22" s="21">
+        <v>5.7119999999999997E-2</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0.48629</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6261,57 +6278,57 @@
         <v>673</v>
       </c>
       <c r="B23" s="14">
-        <v>0.35</v>
+        <v>1.75</v>
       </c>
       <c r="C23" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D23" s="22">
-        <v>1.7069999999999998E-2</v>
-      </c>
-      <c r="E23" s="22">
-        <v>0.30257000000000001</v>
-      </c>
-      <c r="F23" s="22">
-        <v>0.39823999999999998</v>
-      </c>
-      <c r="G23" s="22">
-        <v>0.16669</v>
-      </c>
-      <c r="H23" s="22">
-        <v>0.11067</v>
-      </c>
-      <c r="I23" s="22">
-        <v>4.7600000000000003E-3</v>
+      <c r="D23" s="21">
+        <v>1.333E-2</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0.23621</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0.31089</v>
+      </c>
+      <c r="G23" s="21">
+        <v>0.13013</v>
+      </c>
+      <c r="H23" s="9">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0.22303999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>673</v>
       </c>
-      <c r="B24" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D24" s="22">
-        <v>1.702E-2</v>
-      </c>
-      <c r="E24" s="22">
-        <v>0.30164000000000002</v>
-      </c>
-      <c r="F24" s="22">
-        <v>0.39701999999999998</v>
-      </c>
-      <c r="G24" s="22">
-        <v>0.16617999999999999</v>
-      </c>
-      <c r="H24" s="22">
-        <v>0.11033</v>
+      <c r="B24" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1.6119999999999999E-2</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0.28565000000000002</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0.37597000000000003</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0.15737000000000001</v>
+      </c>
+      <c r="H24" s="21">
+        <v>0.10448</v>
       </c>
       <c r="I24" s="9">
-        <v>7.7999999999999996E-3</v>
+        <v>6.0400000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6319,173 +6336,173 @@
         <v>673</v>
       </c>
       <c r="B25" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="C25" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D25" s="22">
-        <v>1.6820000000000002E-2</v>
-      </c>
-      <c r="E25" s="22">
-        <v>0.29813000000000001</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0.39240000000000003</v>
-      </c>
-      <c r="G25" s="22">
-        <v>0.16425000000000001</v>
-      </c>
-      <c r="H25" s="22">
-        <v>0.10904999999999999</v>
+        <v>1.75</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="21">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0.30387999999999998</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0.39996999999999999</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0.16741</v>
+      </c>
+      <c r="H25" s="21">
+        <v>0.11115</v>
       </c>
       <c r="I25" s="22">
-        <v>1.9349999999999999E-2</v>
+        <v>4.37E-4</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>673</v>
       </c>
-      <c r="B26" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C26" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D26" s="22">
-        <v>1.585E-2</v>
-      </c>
-      <c r="E26" s="22">
-        <v>0.28090999999999999</v>
-      </c>
-      <c r="F26" s="22">
-        <v>0.36973</v>
-      </c>
-      <c r="G26" s="22">
-        <v>0.15476000000000001</v>
-      </c>
-      <c r="H26" s="22">
-        <v>0.10274999999999999</v>
-      </c>
-      <c r="I26" s="22">
-        <v>7.6009999999999994E-2</v>
+      <c r="B26" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="21">
+        <v>8.26E-3</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0.14635000000000001</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0.19262000000000001</v>
+      </c>
+      <c r="G26" s="21">
+        <v>8.0619999999999997E-2</v>
+      </c>
+      <c r="H26" s="21">
+        <v>5.3530000000000001E-2</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0.51861999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>673</v>
       </c>
-      <c r="B27" s="14">
-        <v>1.75</v>
+      <c r="B27" s="23">
+        <v>2.1</v>
       </c>
       <c r="C27" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D27" s="22">
-        <v>1.333E-2</v>
-      </c>
-      <c r="E27" s="22">
-        <v>0.23621</v>
-      </c>
-      <c r="F27" s="22">
-        <v>0.31089</v>
-      </c>
-      <c r="G27" s="22">
-        <v>0.13013</v>
+      <c r="D27" s="21">
+        <v>1.163E-2</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0.20613000000000001</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0.27131</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0.11355999999999999</v>
       </c>
       <c r="H27" s="9">
-        <v>8.6400000000000005E-2</v>
-      </c>
-      <c r="I27" s="22">
-        <v>0.22303999999999999</v>
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0.32196999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>673</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>2.1</v>
       </c>
-      <c r="C28" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D28" s="22">
-        <v>1.163E-2</v>
-      </c>
-      <c r="E28" s="22">
-        <v>0.20613000000000001</v>
-      </c>
-      <c r="F28" s="22">
-        <v>0.27131</v>
-      </c>
-      <c r="G28" s="22">
-        <v>0.11355999999999999</v>
-      </c>
-      <c r="H28" s="9">
-        <v>7.5399999999999995E-2</v>
-      </c>
-      <c r="I28" s="22">
-        <v>0.32196999999999998</v>
+      <c r="C28" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1.435E-2</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.25436999999999999</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0.14013</v>
+      </c>
+      <c r="H28" s="21">
+        <v>9.3039999999999998E-2</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0.1633</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>673</v>
       </c>
-      <c r="B29" s="14">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C29" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D29" s="22">
-        <v>1.119E-2</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0.1983</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="G29" s="22">
-        <v>0.10924</v>
-      </c>
-      <c r="H29" s="22">
-        <v>7.2529999999999997E-2</v>
-      </c>
-      <c r="I29" s="22">
-        <v>0.34773999999999999</v>
+      <c r="B29" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.29938999999999999</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0.39406000000000002</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0.16494</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0.10951</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1.52E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>673</v>
       </c>
-      <c r="B30" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C30" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D30" s="22">
-        <v>1.111E-2</v>
-      </c>
-      <c r="E30" s="22">
-        <v>0.19681000000000001</v>
-      </c>
-      <c r="F30" s="22">
-        <v>0.25902999999999998</v>
-      </c>
-      <c r="G30" s="22">
-        <v>0.10842</v>
-      </c>
-      <c r="H30" s="22">
-        <v>7.1980000000000002E-2</v>
-      </c>
-      <c r="I30" s="22">
-        <v>0.35265000000000002</v>
+      <c r="B30" s="14">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="21">
+        <v>8.1499999999999993E-3</v>
+      </c>
+      <c r="E30" s="21">
+        <v>0.14444000000000001</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0.19011</v>
+      </c>
+      <c r="G30" s="21">
+        <v>7.9570000000000002E-2</v>
+      </c>
+      <c r="H30" s="21">
+        <v>5.2830000000000002E-2</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.52490000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6493,57 +6510,57 @@
         <v>673</v>
       </c>
       <c r="B31" s="14">
-        <v>3.15</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C31" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D31" s="22">
-        <v>1.1089999999999999E-2</v>
-      </c>
-      <c r="E31" s="22">
-        <v>0.19653999999999999</v>
-      </c>
-      <c r="F31" s="22">
-        <v>0.25868000000000002</v>
-      </c>
-      <c r="G31" s="22">
-        <v>0.10828</v>
-      </c>
-      <c r="H31" s="22">
-        <v>7.1889999999999996E-2</v>
-      </c>
-      <c r="I31" s="22">
-        <v>0.35353000000000001</v>
+      <c r="D31" s="21">
+        <v>1.119E-2</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.1983</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0.10924</v>
+      </c>
+      <c r="H31" s="21">
+        <v>7.2529999999999997E-2</v>
+      </c>
+      <c r="I31" s="21">
+        <v>0.34773999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>673</v>
       </c>
-      <c r="B32" s="8">
-        <v>0</v>
-      </c>
-      <c r="C32" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D32" s="22">
-        <v>1.6320000000000001E-2</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0.28920000000000001</v>
-      </c>
-      <c r="F32" s="22">
-        <v>0.38063999999999998</v>
-      </c>
-      <c r="G32" s="22">
-        <v>0.15931999999999999</v>
-      </c>
-      <c r="H32" s="22">
-        <v>0.10578</v>
-      </c>
-      <c r="I32" s="22">
-        <v>4.8730000000000002E-2</v>
+      <c r="B32" s="14">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C32" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="21">
+        <v>1.362E-2</v>
+      </c>
+      <c r="E32" s="21">
+        <v>0.24126</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0.31755</v>
+      </c>
+      <c r="G32" s="21">
+        <v>0.13291</v>
+      </c>
+      <c r="H32" s="21">
+        <v>8.8249999999999995E-2</v>
+      </c>
+      <c r="I32" s="21">
+        <v>0.20641000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6551,173 +6568,173 @@
         <v>673</v>
       </c>
       <c r="B33" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="C33" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D33" s="22">
-        <v>1.6049999999999998E-2</v>
-      </c>
-      <c r="E33" s="22">
-        <v>0.28444999999999998</v>
-      </c>
-      <c r="F33" s="22">
-        <v>0.37437999999999999</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0.15670000000000001</v>
-      </c>
-      <c r="H33" s="22">
-        <v>0.10403999999999999</v>
-      </c>
-      <c r="I33" s="22">
-        <v>6.4369999999999997E-2</v>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="21">
+        <v>1.6449999999999999E-2</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0.29143999999999998</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0.38357999999999998</v>
+      </c>
+      <c r="G33" s="21">
+        <v>0.16055</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0.1066</v>
+      </c>
+      <c r="I33" s="21">
+        <v>4.138E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>673</v>
       </c>
-      <c r="B34" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C34" s="24">
+      <c r="B34" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C34" s="23">
         <v>0.2</v>
       </c>
-      <c r="D34" s="22">
-        <v>1.5429999999999999E-2</v>
-      </c>
-      <c r="E34" s="22">
-        <v>0.27337</v>
-      </c>
-      <c r="F34" s="9">
-        <v>0.35980000000000001</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0.15060000000000001</v>
-      </c>
-      <c r="H34" s="22">
-        <v>9.9989999999999996E-2</v>
-      </c>
-      <c r="I34" s="22">
-        <v>0.10082000000000001</v>
+      <c r="D34" s="21">
+        <v>8.1300000000000001E-3</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0.18966</v>
+      </c>
+      <c r="G34" s="21">
+        <v>7.9380000000000006E-2</v>
+      </c>
+      <c r="H34" s="21">
+        <v>5.271E-2</v>
+      </c>
+      <c r="I34" s="21">
+        <v>0.52602000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>673</v>
       </c>
-      <c r="B35" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="C35" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D35" s="22">
-        <v>1.379E-2</v>
-      </c>
-      <c r="E35" s="22">
-        <v>0.24440999999999999</v>
-      </c>
-      <c r="F35" s="22">
-        <v>0.32168999999999998</v>
-      </c>
-      <c r="G35" s="22">
-        <v>0.13464999999999999</v>
-      </c>
-      <c r="H35" s="9">
-        <v>8.9399999999999993E-2</v>
-      </c>
-      <c r="I35" s="22">
-        <v>0.19606999999999999</v>
+      <c r="B35" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D35" s="21">
+        <v>1.111E-2</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0.19681000000000001</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.25902999999999998</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0.10842</v>
+      </c>
+      <c r="H35" s="21">
+        <v>7.1980000000000002E-2</v>
+      </c>
+      <c r="I35" s="21">
+        <v>0.35265000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>673</v>
       </c>
-      <c r="B36" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C36" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D36" s="22">
-        <v>1.082E-2</v>
-      </c>
-      <c r="E36" s="22">
-        <v>0.19170999999999999</v>
-      </c>
-      <c r="F36" s="22">
-        <v>0.25233</v>
-      </c>
-      <c r="G36" s="22">
-        <v>0.10562000000000001</v>
-      </c>
-      <c r="H36" s="22">
-        <v>7.0120000000000002E-2</v>
-      </c>
-      <c r="I36" s="22">
-        <v>0.36939</v>
+      <c r="B36" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C36" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="21">
+        <v>1.346E-2</v>
+      </c>
+      <c r="E36" s="21">
+        <v>0.23845</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0.31385000000000002</v>
+      </c>
+      <c r="G36" s="21">
+        <v>0.13136999999999999</v>
+      </c>
+      <c r="H36" s="21">
+        <v>8.7220000000000006E-2</v>
+      </c>
+      <c r="I36" s="21">
+        <v>0.21565999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>673</v>
       </c>
-      <c r="B37" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="C37" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D37" s="22">
-        <v>8.8100000000000001E-3</v>
-      </c>
-      <c r="E37" s="22">
-        <v>0.15618000000000001</v>
-      </c>
-      <c r="F37" s="22">
-        <v>0.20555999999999999</v>
-      </c>
-      <c r="G37" s="22">
-        <v>8.6040000000000005E-2</v>
-      </c>
-      <c r="H37" s="22">
-        <v>5.7119999999999997E-2</v>
-      </c>
-      <c r="I37" s="22">
-        <v>0.48629</v>
+      <c r="B37" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="21">
+        <v>1.6289999999999999E-2</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.28870000000000001</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0.37998999999999999</v>
+      </c>
+      <c r="G37" s="21">
+        <v>0.15905</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0.1056</v>
+      </c>
+      <c r="I37" s="21">
+        <v>5.0369999999999998E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>673</v>
       </c>
-      <c r="B38" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="C38" s="24">
+      <c r="B38" s="14">
+        <v>3.15</v>
+      </c>
+      <c r="C38" s="23">
         <v>0.2</v>
       </c>
-      <c r="D38" s="22">
-        <v>8.26E-3</v>
-      </c>
-      <c r="E38" s="22">
-        <v>0.14635000000000001</v>
-      </c>
-      <c r="F38" s="22">
-        <v>0.19262000000000001</v>
-      </c>
-      <c r="G38" s="22">
-        <v>8.0619999999999997E-2</v>
-      </c>
-      <c r="H38" s="22">
-        <v>5.3530000000000001E-2</v>
-      </c>
-      <c r="I38" s="22">
-        <v>0.51861999999999997</v>
+      <c r="D38" s="21">
+        <v>8.1300000000000001E-3</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0.14404</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0.18958</v>
+      </c>
+      <c r="G38" s="21">
+        <v>7.9350000000000004E-2</v>
+      </c>
+      <c r="H38" s="21">
+        <v>5.2679999999999998E-2</v>
+      </c>
+      <c r="I38" s="21">
+        <v>0.52622000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6725,57 +6742,58 @@
         <v>673</v>
       </c>
       <c r="B39" s="14">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C39" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D39" s="22">
-        <v>8.1499999999999993E-3</v>
-      </c>
-      <c r="E39" s="22">
-        <v>0.14444000000000001</v>
-      </c>
-      <c r="F39" s="22">
-        <v>0.19011</v>
-      </c>
-      <c r="G39" s="22">
-        <v>7.9570000000000002E-2</v>
-      </c>
-      <c r="H39" s="22">
-        <v>5.2830000000000002E-2</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0.52490000000000003</v>
+        <v>3.15</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D39" s="21">
+        <v>1.1089999999999999E-2</v>
+      </c>
+      <c r="E39" s="21">
+        <v>0.19653999999999999</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0.25868000000000002</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0.10828</v>
+      </c>
+      <c r="H39" s="21">
+        <v>7.1889999999999996E-2</v>
+      </c>
+      <c r="I39" s="21">
+        <v>0.35353000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>673</v>
       </c>
-      <c r="B40" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C40" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D40" s="22">
-        <v>8.1300000000000001E-3</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0.14410000000000001</v>
-      </c>
-      <c r="F40" s="22">
-        <v>0.18966</v>
-      </c>
-      <c r="G40" s="22">
-        <v>7.9380000000000006E-2</v>
-      </c>
-      <c r="H40" s="22">
-        <v>5.271E-2</v>
-      </c>
-      <c r="I40" s="22">
-        <v>0.52602000000000004</v>
+      <c r="B40" s="14">
+        <v>3.15</v>
+      </c>
+      <c r="C40" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="21">
+        <v>1.3429999999999999E-2</v>
+      </c>
+      <c r="E40" s="21">
+        <v>0.23794000000000001</v>
+      </c>
+      <c r="F40" s="21">
+        <v>0.31317</v>
+      </c>
+      <c r="G40" s="21">
+        <v>0.13108</v>
+      </c>
+      <c r="H40" s="21">
+        <f>SUM(D40:G40)</f>
+        <v>0.69562000000000002</v>
+      </c>
+      <c r="I40" s="21">
+        <v>0.21734999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6785,26 +6803,26 @@
       <c r="B41" s="14">
         <v>3.15</v>
       </c>
-      <c r="C41" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D41" s="22">
-        <v>8.1300000000000001E-3</v>
-      </c>
-      <c r="E41" s="22">
-        <v>0.14404</v>
-      </c>
-      <c r="F41" s="22">
-        <v>0.18958</v>
-      </c>
-      <c r="G41" s="22">
-        <v>7.9350000000000004E-2</v>
-      </c>
-      <c r="H41" s="22">
-        <v>5.2679999999999998E-2</v>
-      </c>
-      <c r="I41" s="22">
-        <v>0.52622000000000002</v>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="21">
+        <v>1.626E-2</v>
+      </c>
+      <c r="E41" s="21">
+        <v>0.28815000000000002</v>
+      </c>
+      <c r="F41" s="21">
+        <v>0.37925999999999999</v>
+      </c>
+      <c r="G41" s="21">
+        <v>0.15875</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="I41" s="21">
+        <v>5.2179999999999997E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6814,142 +6832,142 @@
       <c r="B42" s="8">
         <v>0</v>
       </c>
-      <c r="C42" s="8">
-        <v>1</v>
-      </c>
-      <c r="D42" s="22">
-        <v>2.1129999999999999E-2</v>
-      </c>
-      <c r="E42" s="22">
-        <v>0.32646999999999998</v>
-      </c>
-      <c r="F42" s="22">
-        <v>0.40288000000000002</v>
-      </c>
-      <c r="G42" s="22">
-        <v>0.14421999999999999</v>
-      </c>
-      <c r="H42" s="22">
-        <v>0.10528999999999999</v>
-      </c>
-      <c r="I42" s="23">
-        <v>1.1600000000000001E-7</v>
+      <c r="C42" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D42" s="21">
+        <v>2.112E-2</v>
+      </c>
+      <c r="E42" s="21">
+        <v>0.32628000000000001</v>
+      </c>
+      <c r="F42" s="21">
+        <v>0.40266000000000002</v>
+      </c>
+      <c r="G42" s="21">
+        <v>0.14413999999999999</v>
+      </c>
+      <c r="H42" s="21">
+        <v>0.10523</v>
+      </c>
+      <c r="I42" s="22">
+        <v>5.6099999999999998E-4</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>698</v>
       </c>
-      <c r="B43" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="22">
+      <c r="B43" s="8">
+        <v>0</v>
+      </c>
+      <c r="C43" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D43" s="21">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E43" s="22">
-        <v>0.32646999999999998</v>
-      </c>
-      <c r="F43" s="22">
+      <c r="E43" s="21">
+        <v>0.32645999999999997</v>
+      </c>
+      <c r="F43" s="21">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="21">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="21">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I43" s="23">
-        <v>1.31E-7</v>
+      <c r="I43" s="22">
+        <v>4.3000000000000003E-6</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>698</v>
       </c>
-      <c r="B44" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C44" s="8">
-        <v>1</v>
-      </c>
-      <c r="D44" s="22">
+      <c r="B44" s="8">
+        <v>0</v>
+      </c>
+      <c r="C44" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="21">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="21">
         <v>0.32646999999999998</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="21">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="21">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="21">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I44" s="23">
-        <v>2.1400000000000001E-7</v>
+      <c r="I44" s="22">
+        <v>1.31E-8</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>698</v>
       </c>
-      <c r="B45" s="14">
-        <v>1.05</v>
+      <c r="B45" s="8">
+        <v>0</v>
       </c>
       <c r="C45" s="8">
         <v>1</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="21">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="21">
         <v>0.32646999999999998</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="21">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="21">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="21">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I45" s="23">
-        <v>1.24E-8</v>
+      <c r="I45" s="22">
+        <v>1.1600000000000001E-7</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>698</v>
       </c>
-      <c r="B46" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C46" s="8">
-        <v>1</v>
-      </c>
-      <c r="D46" s="22">
-        <v>2.1129999999999999E-2</v>
-      </c>
-      <c r="E46" s="22">
-        <v>0.32646999999999998</v>
-      </c>
-      <c r="F46" s="22">
-        <v>0.40288000000000002</v>
-      </c>
-      <c r="G46" s="22">
-        <v>0.14421999999999999</v>
-      </c>
-      <c r="H46" s="22">
-        <v>0.10528999999999999</v>
-      </c>
-      <c r="I46" s="23">
-        <v>1.9000000000000001E-9</v>
+      <c r="B46" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="C46" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D46" s="21">
+        <v>2.112E-2</v>
+      </c>
+      <c r="E46" s="21">
+        <v>0.32625999999999999</v>
+      </c>
+      <c r="F46" s="21">
+        <v>0.40264</v>
+      </c>
+      <c r="G46" s="21">
+        <v>0.14413000000000001</v>
+      </c>
+      <c r="H46" s="21">
+        <v>0.10523</v>
+      </c>
+      <c r="I46" s="22">
+        <v>6.1799999999999995E-4</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6957,57 +6975,57 @@
         <v>698</v>
       </c>
       <c r="B47" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="C47" s="8">
-        <v>1</v>
-      </c>
-      <c r="D47" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="C47" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D47" s="21">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="21">
         <v>0.32645999999999997</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="21">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="21">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="21">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I47" s="23">
-        <v>1.9199999999999999E-5</v>
+      <c r="I47" s="22">
+        <v>4.9100000000000004E-6</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>698</v>
       </c>
-      <c r="B48" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="C48" s="8">
-        <v>1</v>
-      </c>
-      <c r="D48" s="22">
-        <v>2.111E-2</v>
-      </c>
-      <c r="E48" s="22">
-        <v>0.32601999999999998</v>
-      </c>
-      <c r="F48" s="22">
-        <v>0.40233999999999998</v>
-      </c>
-      <c r="G48" s="22">
-        <v>0.14402999999999999</v>
-      </c>
-      <c r="H48" s="22">
-        <v>0.10514999999999999</v>
+      <c r="B48" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="C48" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="21">
+        <v>2.1129999999999999E-2</v>
+      </c>
+      <c r="E48" s="21">
+        <v>0.32646999999999998</v>
+      </c>
+      <c r="F48" s="21">
+        <v>0.40288000000000002</v>
+      </c>
+      <c r="G48" s="21">
+        <v>0.14421999999999999</v>
+      </c>
+      <c r="H48" s="21">
+        <v>0.10528999999999999</v>
       </c>
       <c r="I48" s="22">
-        <v>1.3600000000000001E-3</v>
+        <v>1.3399999999999999E-8</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7015,173 +7033,173 @@
         <v>698</v>
       </c>
       <c r="B49" s="14">
-        <v>2.4500000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="C49" s="8">
         <v>1</v>
       </c>
-      <c r="D49" s="22">
-        <v>2.1059999999999999E-2</v>
-      </c>
-      <c r="E49" s="22">
-        <v>0.32532</v>
-      </c>
-      <c r="F49" s="22">
-        <v>0.40146999999999999</v>
-      </c>
-      <c r="G49" s="22">
-        <v>0.14371999999999999</v>
-      </c>
-      <c r="H49" s="22">
-        <v>0.10492</v>
+      <c r="D49" s="21">
+        <v>2.1129999999999999E-2</v>
+      </c>
+      <c r="E49" s="21">
+        <v>0.32646999999999998</v>
+      </c>
+      <c r="F49" s="21">
+        <v>0.40288000000000002</v>
+      </c>
+      <c r="G49" s="21">
+        <v>0.14421999999999999</v>
+      </c>
+      <c r="H49" s="21">
+        <v>0.10528999999999999</v>
       </c>
       <c r="I49" s="22">
-        <v>3.5100000000000001E-3</v>
+        <v>1.31E-7</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>698</v>
       </c>
-      <c r="B50" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C50" s="8">
-        <v>1</v>
-      </c>
-      <c r="D50" s="22">
-        <v>2.1049999999999999E-2</v>
-      </c>
-      <c r="E50" s="22">
-        <v>0.32508999999999999</v>
-      </c>
-      <c r="F50" s="22">
-        <v>0.40118999999999999</v>
-      </c>
-      <c r="G50" s="22">
-        <v>0.14360999999999999</v>
-      </c>
-      <c r="H50" s="22">
-        <v>0.10485</v>
-      </c>
-      <c r="I50" s="22">
-        <v>4.2100000000000002E-3</v>
+      <c r="B50" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="C50" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="E50" s="21">
+        <v>0.32593</v>
+      </c>
+      <c r="F50" s="21">
+        <v>0.40222000000000002</v>
+      </c>
+      <c r="G50" s="21">
+        <v>0.14398</v>
+      </c>
+      <c r="H50" s="21">
+        <v>0.10512000000000001</v>
+      </c>
+      <c r="I50" s="21">
+        <v>1.65E-3</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>698</v>
       </c>
-      <c r="B51" s="14">
-        <v>3.15</v>
-      </c>
-      <c r="C51" s="8">
-        <v>1</v>
-      </c>
-      <c r="D51" s="22">
-        <v>2.104E-2</v>
-      </c>
-      <c r="E51" s="22">
-        <v>0.32506000000000002</v>
-      </c>
-      <c r="F51" s="22">
-        <v>0.40114</v>
-      </c>
-      <c r="G51" s="9">
-        <v>0.14360000000000001</v>
-      </c>
-      <c r="H51" s="22">
-        <v>0.10484</v>
+      <c r="B51" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D51" s="21">
+        <v>2.1129999999999999E-2</v>
+      </c>
+      <c r="E51" s="21">
+        <v>0.32645999999999997</v>
+      </c>
+      <c r="F51" s="21">
+        <v>0.40288000000000002</v>
+      </c>
+      <c r="G51" s="21">
+        <v>0.14421999999999999</v>
+      </c>
+      <c r="H51" s="21">
+        <v>0.10528999999999999</v>
       </c>
       <c r="I51" s="22">
-        <v>4.3200000000000001E-3</v>
+        <v>7.5800000000000003E-6</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>698</v>
       </c>
-      <c r="B52" s="8">
-        <v>0</v>
-      </c>
-      <c r="C52" s="24">
+      <c r="B52" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="C52" s="23">
         <v>0.5</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="21">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="21">
         <v>0.32646999999999998</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="21">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="21">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="21">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I52" s="23">
-        <v>1.31E-8</v>
+      <c r="I52" s="22">
+        <v>1.7800000000000001E-8</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>698</v>
       </c>
-      <c r="B53" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="C53" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D53" s="22">
+      <c r="B53" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="C53" s="8">
+        <v>1</v>
+      </c>
+      <c r="D53" s="21">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="21">
         <v>0.32646999999999998</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="21">
         <v>0.40288000000000002</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G53" s="21">
         <v>0.14421999999999999</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="21">
         <v>0.10528999999999999</v>
       </c>
-      <c r="I53" s="23">
-        <v>1.3399999999999999E-8</v>
+      <c r="I53" s="22">
+        <v>2.1400000000000001E-7</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>698</v>
       </c>
-      <c r="B54" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C54" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D54" s="22">
-        <v>2.1129999999999999E-2</v>
-      </c>
-      <c r="E54" s="22">
-        <v>0.32646999999999998</v>
-      </c>
-      <c r="F54" s="22">
-        <v>0.40288000000000002</v>
-      </c>
-      <c r="G54" s="22">
-        <v>0.14421999999999999</v>
-      </c>
-      <c r="H54" s="22">
-        <v>0.10528999999999999</v>
-      </c>
-      <c r="I54" s="23">
-        <v>1.7800000000000001E-8</v>
+      <c r="B54" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="C54" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D54" s="21">
+        <v>2.0750000000000001E-2</v>
+      </c>
+      <c r="E54" s="21">
+        <v>0.32055</v>
+      </c>
+      <c r="F54" s="21">
+        <v>0.39557999999999999</v>
+      </c>
+      <c r="G54" s="21">
+        <v>0.14161000000000001</v>
+      </c>
+      <c r="H54" s="21">
+        <v>0.10339</v>
+      </c>
+      <c r="I54" s="21">
+        <v>1.813E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7191,55 +7209,55 @@
       <c r="B55" s="14">
         <v>1.05</v>
       </c>
-      <c r="C55" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D55" s="22">
+      <c r="C55" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D55" s="21">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E55" s="22">
-        <v>0.32646999999999998</v>
-      </c>
-      <c r="F55" s="22">
-        <v>0.40288000000000002</v>
-      </c>
-      <c r="G55" s="22">
-        <v>0.14421999999999999</v>
-      </c>
-      <c r="H55" s="22">
-        <v>0.10528999999999999</v>
-      </c>
-      <c r="I55" s="23">
-        <v>2.3200000000000001E-7</v>
+      <c r="E55" s="21">
+        <v>0.32643</v>
+      </c>
+      <c r="F55" s="21">
+        <v>0.40283999999999998</v>
+      </c>
+      <c r="G55" s="21">
+        <v>0.14421</v>
+      </c>
+      <c r="H55" s="21">
+        <v>0.10528</v>
+      </c>
+      <c r="I55" s="22">
+        <v>9.9699999999999998E-5</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>698</v>
       </c>
-      <c r="B56" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C56" s="24">
+      <c r="B56" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="C56" s="23">
         <v>0.5</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="21">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E56" s="22">
-        <v>0.32643</v>
-      </c>
-      <c r="F56" s="22">
-        <v>0.40283999999999998</v>
-      </c>
-      <c r="G56" s="22">
-        <v>0.14421</v>
-      </c>
-      <c r="H56" s="22">
-        <v>0.10528</v>
-      </c>
-      <c r="I56" s="23">
-        <v>1.0399999999999999E-4</v>
+      <c r="E56" s="21">
+        <v>0.32646999999999998</v>
+      </c>
+      <c r="F56" s="21">
+        <v>0.40288000000000002</v>
+      </c>
+      <c r="G56" s="21">
+        <v>0.14421999999999999</v>
+      </c>
+      <c r="H56" s="21">
+        <v>0.10528999999999999</v>
+      </c>
+      <c r="I56" s="22">
+        <v>2.3200000000000001E-7</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7247,173 +7265,173 @@
         <v>698</v>
       </c>
       <c r="B57" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="C57" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D57" s="22">
-        <v>2.0910000000000002E-2</v>
-      </c>
-      <c r="E57" s="22">
-        <v>0.32301999999999997</v>
-      </c>
-      <c r="F57" s="22">
-        <v>0.39862999999999998</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0.14269999999999999</v>
-      </c>
-      <c r="H57" s="22">
-        <v>0.10417999999999999</v>
+        <v>1.05</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="D57" s="21">
+        <v>2.1129999999999999E-2</v>
+      </c>
+      <c r="E57" s="21">
+        <v>0.32646999999999998</v>
+      </c>
+      <c r="F57" s="21">
+        <v>0.40288000000000002</v>
+      </c>
+      <c r="G57" s="21">
+        <v>0.14421999999999999</v>
+      </c>
+      <c r="H57" s="21">
+        <v>0.10528999999999999</v>
       </c>
       <c r="I57" s="22">
-        <v>1.057E-2</v>
+        <v>1.24E-8</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>698</v>
       </c>
-      <c r="B58" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="C58" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D58" s="22">
-        <v>2.0230000000000001E-2</v>
-      </c>
-      <c r="E58" s="22">
-        <v>0.31244</v>
-      </c>
-      <c r="F58" s="22">
-        <v>0.38557999999999998</v>
-      </c>
-      <c r="G58" s="22">
-        <v>0.13803000000000001</v>
-      </c>
-      <c r="H58" s="22">
-        <v>0.10077</v>
-      </c>
-      <c r="I58" s="22">
-        <v>4.2950000000000002E-2</v>
+      <c r="B58" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="C58" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D58" s="21">
+        <v>1.8280000000000001E-2</v>
+      </c>
+      <c r="E58" s="21">
+        <v>0.28232000000000002</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="G58" s="21">
+        <v>0.12472</v>
+      </c>
+      <c r="H58" s="21">
+        <v>9.1050000000000006E-2</v>
+      </c>
+      <c r="I58" s="21">
+        <v>0.13522999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>698</v>
       </c>
-      <c r="B59" s="14">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C59" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D59" s="22">
-        <v>1.992E-2</v>
-      </c>
-      <c r="E59" s="22">
-        <v>0.30765999999999999</v>
-      </c>
-      <c r="F59" s="22">
-        <v>0.37968000000000002</v>
-      </c>
-      <c r="G59" s="22">
-        <v>0.13591</v>
-      </c>
-      <c r="H59" s="22">
-        <v>9.9229999999999999E-2</v>
-      </c>
-      <c r="I59" s="22">
-        <v>5.7610000000000001E-2</v>
+      <c r="B59" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D59" s="21">
+        <v>2.0990000000000002E-2</v>
+      </c>
+      <c r="E59" s="21">
+        <v>0.32417000000000001</v>
+      </c>
+      <c r="F59" s="21">
+        <v>0.40005000000000002</v>
+      </c>
+      <c r="G59" s="21">
+        <v>0.14321</v>
+      </c>
+      <c r="H59" s="21">
+        <v>0.10455</v>
+      </c>
+      <c r="I59" s="21">
+        <v>7.0499999999999998E-3</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>698</v>
       </c>
-      <c r="B60" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C60" s="24">
+      <c r="B60" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="C60" s="23">
         <v>0.5</v>
       </c>
-      <c r="D60" s="22">
-        <v>1.985E-2</v>
-      </c>
-      <c r="E60" s="22">
-        <v>0.30658999999999997</v>
-      </c>
-      <c r="F60" s="22">
-        <v>0.37835000000000002</v>
-      </c>
-      <c r="G60" s="22">
-        <v>0.13544</v>
-      </c>
-      <c r="H60" s="22">
-        <v>9.8879999999999996E-2</v>
+      <c r="D60" s="21">
+        <v>2.1129999999999999E-2</v>
+      </c>
+      <c r="E60" s="21">
+        <v>0.32643</v>
+      </c>
+      <c r="F60" s="21">
+        <v>0.40283999999999998</v>
+      </c>
+      <c r="G60" s="21">
+        <v>0.14421</v>
+      </c>
+      <c r="H60" s="21">
+        <v>0.10528</v>
       </c>
       <c r="I60" s="22">
-        <v>6.089E-2</v>
+        <v>1.0399999999999999E-4</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>698</v>
       </c>
-      <c r="B61" s="14">
-        <v>3.15</v>
-      </c>
-      <c r="C61" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D61" s="22">
-        <v>1.983E-2</v>
-      </c>
-      <c r="E61" s="22">
-        <v>0.30636999999999998</v>
-      </c>
-      <c r="F61" s="22">
-        <v>0.37808000000000003</v>
-      </c>
-      <c r="G61" s="22">
-        <v>0.13533999999999999</v>
-      </c>
-      <c r="H61" s="22">
-        <v>9.8809999999999995E-2</v>
+      <c r="B61" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="C61" s="8">
+        <v>1</v>
+      </c>
+      <c r="D61" s="21">
+        <v>2.1129999999999999E-2</v>
+      </c>
+      <c r="E61" s="21">
+        <v>0.32646999999999998</v>
+      </c>
+      <c r="F61" s="21">
+        <v>0.40288000000000002</v>
+      </c>
+      <c r="G61" s="21">
+        <v>0.14421999999999999</v>
+      </c>
+      <c r="H61" s="21">
+        <v>0.10528999999999999</v>
       </c>
       <c r="I61" s="22">
-        <v>6.157E-2</v>
+        <v>1.9000000000000001E-9</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>698</v>
       </c>
-      <c r="B62" s="8">
-        <v>0</v>
-      </c>
-      <c r="C62" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D62" s="22">
-        <v>2.1129999999999999E-2</v>
-      </c>
-      <c r="E62" s="22">
-        <v>0.32645999999999997</v>
-      </c>
-      <c r="F62" s="22">
-        <v>0.40288000000000002</v>
-      </c>
-      <c r="G62" s="22">
-        <v>0.14421999999999999</v>
-      </c>
-      <c r="H62" s="22">
-        <v>0.10528999999999999</v>
-      </c>
-      <c r="I62" s="23">
-        <v>4.3000000000000003E-6</v>
+      <c r="B62" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="C62" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D62" s="21">
+        <v>1.562E-2</v>
+      </c>
+      <c r="E62" s="21">
+        <v>0.24127999999999999</v>
+      </c>
+      <c r="F62" s="21">
+        <v>0.29776000000000002</v>
+      </c>
+      <c r="G62" s="21">
+        <v>0.10659</v>
+      </c>
+      <c r="H62" s="21">
+        <v>7.782E-2</v>
+      </c>
+      <c r="I62" s="21">
+        <v>0.26094000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7421,57 +7439,57 @@
         <v>698</v>
       </c>
       <c r="B63" s="14">
-        <v>0.35</v>
+        <v>1.75</v>
       </c>
       <c r="C63" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D63" s="22">
-        <v>2.1129999999999999E-2</v>
-      </c>
-      <c r="E63" s="22">
-        <v>0.32645999999999997</v>
-      </c>
-      <c r="F63" s="22">
-        <v>0.40288000000000002</v>
-      </c>
-      <c r="G63" s="22">
-        <v>0.14421999999999999</v>
-      </c>
-      <c r="H63" s="22">
-        <v>0.10528999999999999</v>
-      </c>
-      <c r="I63" s="23">
-        <v>4.9100000000000004E-6</v>
+      <c r="D63" s="21">
+        <v>1.9630000000000002E-2</v>
+      </c>
+      <c r="E63" s="21">
+        <v>0.30324000000000001</v>
+      </c>
+      <c r="F63" s="21">
+        <v>0.37422</v>
+      </c>
+      <c r="G63" s="21">
+        <v>0.13396</v>
+      </c>
+      <c r="H63" s="9">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="I63" s="21">
+        <v>7.1150000000000005E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>698</v>
       </c>
-      <c r="B64" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C64" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D64" s="22">
-        <v>2.1129999999999999E-2</v>
-      </c>
-      <c r="E64" s="22">
-        <v>0.32645999999999997</v>
-      </c>
-      <c r="F64" s="22">
-        <v>0.40288000000000002</v>
-      </c>
-      <c r="G64" s="22">
-        <v>0.14421999999999999</v>
-      </c>
-      <c r="H64" s="22">
-        <v>0.10528999999999999</v>
-      </c>
-      <c r="I64" s="23">
-        <v>7.5800000000000003E-6</v>
+      <c r="B64" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="C64" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="21">
+        <v>2.0910000000000002E-2</v>
+      </c>
+      <c r="E64" s="21">
+        <v>0.32301999999999997</v>
+      </c>
+      <c r="F64" s="21">
+        <v>0.39862999999999998</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="H64" s="21">
+        <v>0.10417999999999999</v>
+      </c>
+      <c r="I64" s="21">
+        <v>1.057E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7479,173 +7497,173 @@
         <v>698</v>
       </c>
       <c r="B65" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="C65" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D65" s="22">
+        <v>1.75</v>
+      </c>
+      <c r="C65" s="8">
+        <v>1</v>
+      </c>
+      <c r="D65" s="21">
         <v>2.1129999999999999E-2</v>
       </c>
-      <c r="E65" s="22">
-        <v>0.32643</v>
-      </c>
-      <c r="F65" s="22">
-        <v>0.40283999999999998</v>
-      </c>
-      <c r="G65" s="22">
-        <v>0.14421</v>
-      </c>
-      <c r="H65" s="22">
-        <v>0.10528</v>
-      </c>
-      <c r="I65" s="23">
-        <v>9.9699999999999998E-5</v>
+      <c r="E65" s="21">
+        <v>0.32645999999999997</v>
+      </c>
+      <c r="F65" s="21">
+        <v>0.40288000000000002</v>
+      </c>
+      <c r="G65" s="21">
+        <v>0.14421999999999999</v>
+      </c>
+      <c r="H65" s="21">
+        <v>0.10528999999999999</v>
+      </c>
+      <c r="I65" s="22">
+        <v>1.9199999999999999E-5</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>698</v>
       </c>
-      <c r="B66" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C66" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D66" s="22">
-        <v>2.0990000000000002E-2</v>
-      </c>
-      <c r="E66" s="22">
-        <v>0.32417000000000001</v>
-      </c>
-      <c r="F66" s="22">
-        <v>0.40005000000000002</v>
-      </c>
-      <c r="G66" s="22">
-        <v>0.14321</v>
-      </c>
-      <c r="H66" s="22">
-        <v>0.10455</v>
-      </c>
-      <c r="I66" s="22">
-        <v>7.0499999999999998E-3</v>
+      <c r="B66" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="C66" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D66" s="21">
+        <v>1.478E-2</v>
+      </c>
+      <c r="E66" s="21">
+        <v>0.22833999999999999</v>
+      </c>
+      <c r="F66" s="21">
+        <v>0.28178999999999998</v>
+      </c>
+      <c r="G66" s="21">
+        <v>0.10087</v>
+      </c>
+      <c r="H66" s="21">
+        <v>7.3649999999999993E-2</v>
+      </c>
+      <c r="I66" s="21">
+        <v>0.30057</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>698</v>
       </c>
-      <c r="B67" s="14">
-        <v>1.75</v>
+      <c r="B67" s="23">
+        <v>2.1</v>
       </c>
       <c r="C67" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D67" s="22">
-        <v>1.9630000000000002E-2</v>
-      </c>
-      <c r="E67" s="22">
-        <v>0.30324000000000001</v>
-      </c>
-      <c r="F67" s="22">
-        <v>0.37422</v>
-      </c>
-      <c r="G67" s="22">
-        <v>0.13396</v>
-      </c>
-      <c r="H67" s="9">
-        <v>9.7799999999999998E-2</v>
-      </c>
-      <c r="I67" s="22">
-        <v>7.1150000000000005E-2</v>
+      <c r="D67" s="21">
+        <v>1.839E-2</v>
+      </c>
+      <c r="E67" s="21">
+        <v>0.28412999999999999</v>
+      </c>
+      <c r="F67" s="21">
+        <v>0.35064000000000001</v>
+      </c>
+      <c r="G67" s="21">
+        <v>0.12551999999999999</v>
+      </c>
+      <c r="H67" s="21">
+        <v>9.1639999999999999E-2</v>
+      </c>
+      <c r="I67" s="21">
+        <v>0.12967999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>698</v>
       </c>
-      <c r="B68" s="24">
+      <c r="B68" s="23">
         <v>2.1</v>
       </c>
-      <c r="C68" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D68" s="22">
-        <v>1.839E-2</v>
-      </c>
-      <c r="E68" s="22">
-        <v>0.28412999999999999</v>
-      </c>
-      <c r="F68" s="22">
-        <v>0.35064000000000001</v>
-      </c>
-      <c r="G68" s="22">
-        <v>0.12551999999999999</v>
-      </c>
-      <c r="H68" s="22">
-        <v>9.1639999999999999E-2</v>
-      </c>
-      <c r="I68" s="22">
-        <v>0.12967999999999999</v>
+      <c r="C68" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="21">
+        <v>2.0230000000000001E-2</v>
+      </c>
+      <c r="E68" s="21">
+        <v>0.31244</v>
+      </c>
+      <c r="F68" s="21">
+        <v>0.38557999999999998</v>
+      </c>
+      <c r="G68" s="21">
+        <v>0.13803000000000001</v>
+      </c>
+      <c r="H68" s="21">
+        <v>0.10077</v>
+      </c>
+      <c r="I68" s="21">
+        <v>4.2950000000000002E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>698</v>
       </c>
-      <c r="B69" s="14">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C69" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D69" s="22">
-        <v>1.804E-2</v>
-      </c>
-      <c r="E69" s="22">
-        <v>0.27867999999999998</v>
-      </c>
-      <c r="F69" s="22">
-        <v>0.34392</v>
-      </c>
-      <c r="G69" s="22">
-        <v>0.12311</v>
-      </c>
-      <c r="H69" s="22">
-        <v>8.9880000000000002E-2</v>
-      </c>
-      <c r="I69" s="22">
-        <v>0.14635999999999999</v>
+      <c r="B69" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="C69" s="8">
+        <v>1</v>
+      </c>
+      <c r="D69" s="21">
+        <v>2.111E-2</v>
+      </c>
+      <c r="E69" s="21">
+        <v>0.32601999999999998</v>
+      </c>
+      <c r="F69" s="21">
+        <v>0.40233999999999998</v>
+      </c>
+      <c r="G69" s="21">
+        <v>0.14402999999999999</v>
+      </c>
+      <c r="H69" s="21">
+        <v>0.10514999999999999</v>
+      </c>
+      <c r="I69" s="21">
+        <v>1.3600000000000001E-3</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>698</v>
       </c>
-      <c r="B70" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C70" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D70" s="22">
-        <v>1.797E-2</v>
-      </c>
-      <c r="E70" s="9">
-        <v>0.27760000000000001</v>
-      </c>
-      <c r="F70" s="22">
-        <v>0.34258</v>
-      </c>
-      <c r="G70" s="22">
-        <v>0.12263</v>
-      </c>
-      <c r="H70" s="22">
-        <v>8.9529999999999998E-2</v>
-      </c>
-      <c r="I70" s="22">
-        <v>0.14968999999999999</v>
+      <c r="B70" s="14">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C70" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D70" s="9">
+        <v>1.46E-2</v>
+      </c>
+      <c r="E70" s="21">
+        <v>0.22559000000000001</v>
+      </c>
+      <c r="F70" s="9">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="G70" s="21">
+        <v>9.9659999999999999E-2</v>
+      </c>
+      <c r="H70" s="21">
+        <v>7.2760000000000005E-2</v>
+      </c>
+      <c r="I70" s="21">
+        <v>0.30898999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7653,57 +7671,57 @@
         <v>698</v>
       </c>
       <c r="B71" s="14">
-        <v>3.15</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C71" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D71" s="22">
-        <v>1.7950000000000001E-2</v>
-      </c>
-      <c r="E71" s="22">
-        <v>0.27722999999999998</v>
-      </c>
-      <c r="F71" s="22">
-        <v>0.34211999999999998</v>
-      </c>
-      <c r="G71" s="22">
-        <v>0.12247</v>
-      </c>
-      <c r="H71" s="22">
-        <v>8.9410000000000003E-2</v>
-      </c>
-      <c r="I71" s="22">
-        <v>0.15082000000000001</v>
+      <c r="D71" s="21">
+        <v>1.804E-2</v>
+      </c>
+      <c r="E71" s="21">
+        <v>0.27867999999999998</v>
+      </c>
+      <c r="F71" s="21">
+        <v>0.34392</v>
+      </c>
+      <c r="G71" s="21">
+        <v>0.12311</v>
+      </c>
+      <c r="H71" s="21">
+        <v>8.9880000000000002E-2</v>
+      </c>
+      <c r="I71" s="21">
+        <v>0.14635999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>698</v>
       </c>
-      <c r="B72" s="8">
-        <v>0</v>
-      </c>
-      <c r="C72" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D72" s="22">
-        <v>2.112E-2</v>
-      </c>
-      <c r="E72" s="22">
-        <v>0.32628000000000001</v>
-      </c>
-      <c r="F72" s="22">
-        <v>0.40266000000000002</v>
-      </c>
-      <c r="G72" s="22">
-        <v>0.14413999999999999</v>
-      </c>
-      <c r="H72" s="22">
-        <v>0.10523</v>
-      </c>
-      <c r="I72" s="23">
-        <v>5.6099999999999998E-4</v>
+      <c r="B72" s="14">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C72" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="21">
+        <v>1.992E-2</v>
+      </c>
+      <c r="E72" s="21">
+        <v>0.30765999999999999</v>
+      </c>
+      <c r="F72" s="21">
+        <v>0.37968000000000002</v>
+      </c>
+      <c r="G72" s="21">
+        <v>0.13591</v>
+      </c>
+      <c r="H72" s="21">
+        <v>9.9229999999999999E-2</v>
+      </c>
+      <c r="I72" s="21">
+        <v>5.7610000000000001E-2</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7711,173 +7729,173 @@
         <v>698</v>
       </c>
       <c r="B73" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="C73" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D73" s="22">
-        <v>2.112E-2</v>
-      </c>
-      <c r="E73" s="22">
-        <v>0.32625999999999999</v>
-      </c>
-      <c r="F73" s="22">
-        <v>0.40264</v>
-      </c>
-      <c r="G73" s="22">
-        <v>0.14413000000000001</v>
-      </c>
-      <c r="H73" s="22">
-        <v>0.10523</v>
-      </c>
-      <c r="I73" s="23">
-        <v>6.1799999999999995E-4</v>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C73" s="8">
+        <v>1</v>
+      </c>
+      <c r="D73" s="21">
+        <v>2.1059999999999999E-2</v>
+      </c>
+      <c r="E73" s="21">
+        <v>0.32532</v>
+      </c>
+      <c r="F73" s="21">
+        <v>0.40146999999999999</v>
+      </c>
+      <c r="G73" s="21">
+        <v>0.14371999999999999</v>
+      </c>
+      <c r="H73" s="21">
+        <v>0.10492</v>
+      </c>
+      <c r="I73" s="21">
+        <v>3.5100000000000001E-3</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>698</v>
       </c>
-      <c r="B74" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C74" s="24">
+      <c r="B74" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C74" s="23">
         <v>0.2</v>
       </c>
-      <c r="D74" s="9">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="E74" s="22">
-        <v>0.32593</v>
-      </c>
-      <c r="F74" s="22">
-        <v>0.40222000000000002</v>
-      </c>
-      <c r="G74" s="22">
-        <v>0.14398</v>
-      </c>
-      <c r="H74" s="22">
-        <v>0.10512000000000001</v>
-      </c>
-      <c r="I74" s="22">
-        <v>1.65E-3</v>
+      <c r="D74" s="21">
+        <v>1.4579999999999999E-2</v>
+      </c>
+      <c r="E74" s="21">
+        <v>0.22528000000000001</v>
+      </c>
+      <c r="F74" s="21">
+        <v>0.27801999999999999</v>
+      </c>
+      <c r="G74" s="21">
+        <v>9.9519999999999997E-2</v>
+      </c>
+      <c r="H74" s="21">
+        <v>7.2660000000000002E-2</v>
+      </c>
+      <c r="I74" s="21">
+        <v>0.30993999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>698</v>
       </c>
-      <c r="B75" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="C75" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D75" s="22">
-        <v>2.0750000000000001E-2</v>
-      </c>
-      <c r="E75" s="22">
-        <v>0.32055</v>
-      </c>
-      <c r="F75" s="22">
-        <v>0.39557999999999999</v>
-      </c>
-      <c r="G75" s="22">
-        <v>0.14161000000000001</v>
-      </c>
-      <c r="H75" s="22">
-        <v>0.10339</v>
-      </c>
-      <c r="I75" s="22">
-        <v>1.813E-2</v>
+      <c r="B75" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C75" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D75" s="21">
+        <v>1.797E-2</v>
+      </c>
+      <c r="E75" s="9">
+        <v>0.27760000000000001</v>
+      </c>
+      <c r="F75" s="21">
+        <v>0.34258</v>
+      </c>
+      <c r="G75" s="21">
+        <v>0.12263</v>
+      </c>
+      <c r="H75" s="21">
+        <v>8.9529999999999998E-2</v>
+      </c>
+      <c r="I75" s="21">
+        <v>0.14968999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>698</v>
       </c>
-      <c r="B76" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C76" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D76" s="22">
-        <v>1.8280000000000001E-2</v>
-      </c>
-      <c r="E76" s="22">
-        <v>0.28232000000000002</v>
-      </c>
-      <c r="F76" s="9">
-        <v>0.34839999999999999</v>
-      </c>
-      <c r="G76" s="22">
-        <v>0.12472</v>
-      </c>
-      <c r="H76" s="22">
-        <v>9.1050000000000006E-2</v>
-      </c>
-      <c r="I76" s="22">
-        <v>0.13522999999999999</v>
+      <c r="B76" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C76" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="21">
+        <v>1.985E-2</v>
+      </c>
+      <c r="E76" s="21">
+        <v>0.30658999999999997</v>
+      </c>
+      <c r="F76" s="21">
+        <v>0.37835000000000002</v>
+      </c>
+      <c r="G76" s="21">
+        <v>0.13544</v>
+      </c>
+      <c r="H76" s="21">
+        <v>9.8879999999999996E-2</v>
+      </c>
+      <c r="I76" s="21">
+        <v>6.089E-2</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>698</v>
       </c>
-      <c r="B77" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="C77" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D77" s="22">
-        <v>1.562E-2</v>
-      </c>
-      <c r="E77" s="22">
-        <v>0.24127999999999999</v>
-      </c>
-      <c r="F77" s="22">
-        <v>0.29776000000000002</v>
-      </c>
-      <c r="G77" s="22">
-        <v>0.10659</v>
-      </c>
-      <c r="H77" s="22">
-        <v>7.782E-2</v>
-      </c>
-      <c r="I77" s="22">
-        <v>0.26094000000000001</v>
+      <c r="B77" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C77" s="8">
+        <v>1</v>
+      </c>
+      <c r="D77" s="21">
+        <v>2.1049999999999999E-2</v>
+      </c>
+      <c r="E77" s="21">
+        <v>0.32508999999999999</v>
+      </c>
+      <c r="F77" s="21">
+        <v>0.40118999999999999</v>
+      </c>
+      <c r="G77" s="21">
+        <v>0.14360999999999999</v>
+      </c>
+      <c r="H77" s="21">
+        <v>0.10485</v>
+      </c>
+      <c r="I77" s="21">
+        <v>4.2100000000000002E-3</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>698</v>
       </c>
-      <c r="B78" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="C78" s="24">
+      <c r="B78" s="14">
+        <v>3.15</v>
+      </c>
+      <c r="C78" s="23">
         <v>0.2</v>
       </c>
-      <c r="D78" s="22">
-        <v>1.478E-2</v>
-      </c>
-      <c r="E78" s="22">
-        <v>0.22833999999999999</v>
-      </c>
-      <c r="F78" s="22">
-        <v>0.28178999999999998</v>
-      </c>
-      <c r="G78" s="22">
-        <v>0.10087</v>
-      </c>
-      <c r="H78" s="22">
-        <v>7.3649999999999993E-2</v>
-      </c>
-      <c r="I78" s="22">
-        <v>0.30057</v>
+      <c r="D78" s="21">
+        <v>1.4540000000000001E-2</v>
+      </c>
+      <c r="E78" s="21">
+        <v>0.22466</v>
+      </c>
+      <c r="F78" s="21">
+        <v>0.27725</v>
+      </c>
+      <c r="G78" s="21">
+        <v>9.9250000000000005E-2</v>
+      </c>
+      <c r="H78" s="21">
+        <v>7.2459999999999997E-2</v>
+      </c>
+      <c r="I78" s="21">
+        <v>0.31185000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7885,57 +7903,57 @@
         <v>698</v>
       </c>
       <c r="B79" s="14">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C79" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D79" s="9">
-        <v>1.46E-2</v>
-      </c>
-      <c r="E79" s="22">
-        <v>0.22559000000000001</v>
-      </c>
-      <c r="F79" s="9">
-        <v>0.27839999999999998</v>
-      </c>
-      <c r="G79" s="22">
-        <v>9.9659999999999999E-2</v>
-      </c>
-      <c r="H79" s="22">
-        <v>7.2760000000000005E-2</v>
-      </c>
-      <c r="I79" s="22">
-        <v>0.30898999999999999</v>
+        <v>3.15</v>
+      </c>
+      <c r="C79" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D79" s="21">
+        <v>1.7950000000000001E-2</v>
+      </c>
+      <c r="E79" s="21">
+        <v>0.27722999999999998</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0.34211999999999998</v>
+      </c>
+      <c r="G79" s="21">
+        <v>0.12247</v>
+      </c>
+      <c r="H79" s="21">
+        <v>8.9410000000000003E-2</v>
+      </c>
+      <c r="I79" s="21">
+        <v>0.15082000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>698</v>
       </c>
-      <c r="B80" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C80" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D80" s="22">
-        <v>1.4579999999999999E-2</v>
-      </c>
-      <c r="E80" s="22">
-        <v>0.22528000000000001</v>
-      </c>
-      <c r="F80" s="22">
-        <v>0.27801999999999999</v>
-      </c>
-      <c r="G80" s="22">
-        <v>9.9519999999999997E-2</v>
-      </c>
-      <c r="H80" s="22">
-        <v>7.2660000000000002E-2</v>
-      </c>
-      <c r="I80" s="22">
-        <v>0.30993999999999999</v>
+      <c r="B80" s="14">
+        <v>3.15</v>
+      </c>
+      <c r="C80" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="21">
+        <v>1.983E-2</v>
+      </c>
+      <c r="E80" s="21">
+        <v>0.30636999999999998</v>
+      </c>
+      <c r="F80" s="21">
+        <v>0.37808000000000003</v>
+      </c>
+      <c r="G80" s="21">
+        <v>0.13533999999999999</v>
+      </c>
+      <c r="H80" s="21">
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="I80" s="21">
+        <v>6.157E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7945,26 +7963,26 @@
       <c r="B81" s="14">
         <v>3.15</v>
       </c>
-      <c r="C81" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D81" s="22">
-        <v>1.4540000000000001E-2</v>
-      </c>
-      <c r="E81" s="22">
-        <v>0.22466</v>
-      </c>
-      <c r="F81" s="22">
-        <v>0.27725</v>
-      </c>
-      <c r="G81" s="22">
-        <v>9.9250000000000005E-2</v>
-      </c>
-      <c r="H81" s="22">
-        <v>7.2459999999999997E-2</v>
-      </c>
-      <c r="I81" s="22">
-        <v>0.31185000000000002</v>
+      <c r="C81" s="8">
+        <v>1</v>
+      </c>
+      <c r="D81" s="21">
+        <v>2.104E-2</v>
+      </c>
+      <c r="E81" s="21">
+        <v>0.32506000000000002</v>
+      </c>
+      <c r="F81" s="21">
+        <v>0.40114</v>
+      </c>
+      <c r="G81" s="9">
+        <v>0.14360000000000001</v>
+      </c>
+      <c r="H81" s="21">
+        <v>0.10484</v>
+      </c>
+      <c r="I81" s="21">
+        <v>4.3200000000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7974,142 +7992,142 @@
       <c r="B82" s="8">
         <v>0</v>
       </c>
-      <c r="C82" s="8">
-        <v>1</v>
-      </c>
-      <c r="D82" s="22">
+      <c r="C82" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D82" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E82" s="22">
+      <c r="E82" s="21">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F82" s="21">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G82" s="22">
+      <c r="G82" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H82" s="22">
+      <c r="H82" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I82" s="23">
-        <v>2.53E-7</v>
+      <c r="I82" s="22">
+        <v>9.8200000000000008E-7</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>723</v>
       </c>
-      <c r="B83" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="C83" s="8">
-        <v>1</v>
-      </c>
-      <c r="D83" s="22">
+      <c r="B83" s="8">
+        <v>0</v>
+      </c>
+      <c r="C83" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D83" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E83" s="21">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F83" s="21">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G83" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H83" s="22">
+      <c r="H83" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I83" s="23">
-        <v>1.3199999999999999E-7</v>
+      <c r="I83" s="22">
+        <v>9.1600000000000004E-10</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>723</v>
       </c>
-      <c r="B84" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C84" s="8">
-        <v>1</v>
-      </c>
-      <c r="D84" s="22">
+      <c r="B84" s="8">
+        <v>0</v>
+      </c>
+      <c r="C84" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E84" s="22">
+      <c r="E84" s="21">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F84" s="21">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G84" s="22">
+      <c r="G84" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H84" s="22">
+      <c r="H84" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I84" s="23">
-        <v>4.1099999999999997E-8</v>
+      <c r="I84" s="22">
+        <v>5.54E-8</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>723</v>
       </c>
-      <c r="B85" s="14">
-        <v>1.05</v>
+      <c r="B85" s="8">
+        <v>0</v>
       </c>
       <c r="C85" s="8">
         <v>1</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D85" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E85" s="21">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F85" s="21">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G85" s="22">
+      <c r="G85" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H85" s="22">
+      <c r="H85" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I85" s="23">
-        <v>3.55E-8</v>
+      <c r="I85" s="22">
+        <v>2.53E-7</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>723</v>
       </c>
-      <c r="B86" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C86" s="8">
-        <v>1</v>
-      </c>
-      <c r="D86" s="22">
+      <c r="B86" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="C86" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D86" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E86" s="22">
+      <c r="E86" s="21">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F86" s="22">
+      <c r="F86" s="21">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H86" s="22">
+      <c r="H86" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I86" s="23">
-        <v>5.7199999999999999E-10</v>
+      <c r="I86" s="22">
+        <v>3.6399999999999999E-6</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8117,57 +8135,57 @@
         <v>723</v>
       </c>
       <c r="B87" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="C87" s="8">
-        <v>1</v>
-      </c>
-      <c r="D87" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="C87" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D87" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E87" s="21">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F87" s="21">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G87" s="22">
+      <c r="G87" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H87" s="22">
+      <c r="H87" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I87" s="23">
-        <v>1.75E-6</v>
+      <c r="I87" s="22">
+        <v>1.19E-9</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>723</v>
       </c>
-      <c r="B88" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="C88" s="8">
-        <v>1</v>
-      </c>
-      <c r="D88" s="22">
+      <c r="B88" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="C88" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D88" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E88" s="22">
-        <v>0.34142</v>
-      </c>
-      <c r="F88" s="22">
-        <v>0.40011000000000002</v>
-      </c>
-      <c r="G88" s="22">
+      <c r="E88" s="21">
+        <v>0.34143000000000001</v>
+      </c>
+      <c r="F88" s="21">
+        <v>0.40011999999999998</v>
+      </c>
+      <c r="G88" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H88" s="22">
+      <c r="H88" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I88" s="23">
-        <v>2.3799999999999999E-5</v>
+      <c r="I88" s="22">
+        <v>4.29E-8</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8175,173 +8193,173 @@
         <v>723</v>
       </c>
       <c r="B89" s="14">
-        <v>2.4500000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="C89" s="8">
         <v>1</v>
       </c>
-      <c r="D89" s="22">
+      <c r="D89" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E89" s="22">
-        <v>0.34142</v>
-      </c>
-      <c r="F89" s="9">
-        <v>0.40010000000000001</v>
-      </c>
-      <c r="G89" s="22">
+      <c r="E89" s="21">
+        <v>0.34143000000000001</v>
+      </c>
+      <c r="F89" s="21">
+        <v>0.40011999999999998</v>
+      </c>
+      <c r="G89" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H89" s="22">
+      <c r="H89" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I89" s="23">
-        <v>4.0000000000000003E-5</v>
+      <c r="I89" s="22">
+        <v>1.3199999999999999E-7</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>723</v>
       </c>
-      <c r="B90" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C90" s="8">
-        <v>1</v>
-      </c>
-      <c r="D90" s="22">
+      <c r="B90" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="C90" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D90" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E90" s="22">
-        <v>0.34142</v>
-      </c>
-      <c r="F90" s="9">
-        <v>0.40010000000000001</v>
-      </c>
-      <c r="G90" s="22">
-        <v>0.13483999999999999</v>
-      </c>
-      <c r="H90" s="22">
-        <v>0.10013</v>
-      </c>
-      <c r="I90" s="23">
-        <v>4.4400000000000002E-5</v>
+      <c r="E90" s="21">
+        <v>0.34137000000000001</v>
+      </c>
+      <c r="F90" s="21">
+        <v>0.40005000000000002</v>
+      </c>
+      <c r="G90" s="21">
+        <v>0.13482</v>
+      </c>
+      <c r="H90" s="21">
+        <v>0.10011</v>
+      </c>
+      <c r="I90" s="22">
+        <v>1.8100000000000001E-4</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>723</v>
       </c>
-      <c r="B91" s="14">
-        <v>3.15</v>
-      </c>
-      <c r="C91" s="8">
-        <v>1</v>
-      </c>
-      <c r="D91" s="22">
+      <c r="B91" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="C91" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D91" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E91" s="22">
-        <v>0.34142</v>
-      </c>
-      <c r="F91" s="9">
-        <v>0.40010000000000001</v>
-      </c>
-      <c r="G91" s="22">
+      <c r="E91" s="21">
+        <v>0.34143000000000001</v>
+      </c>
+      <c r="F91" s="21">
+        <v>0.40011999999999998</v>
+      </c>
+      <c r="G91" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H91" s="22">
+      <c r="H91" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I91" s="23">
-        <v>4.5000000000000003E-5</v>
+      <c r="I91" s="22">
+        <v>1.03E-8</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>723</v>
       </c>
-      <c r="B92" s="8">
-        <v>0</v>
-      </c>
-      <c r="C92" s="24">
+      <c r="B92" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="C92" s="23">
         <v>0.5</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D92" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E92" s="22">
+      <c r="E92" s="21">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F92" s="21">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G92" s="22">
+      <c r="G92" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H92" s="22">
+      <c r="H92" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I92" s="23">
-        <v>5.54E-8</v>
+      <c r="I92" s="22">
+        <v>1.7900000000000001E-8</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>723</v>
       </c>
-      <c r="B93" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="C93" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D93" s="22">
+      <c r="B93" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="C93" s="8">
+        <v>1</v>
+      </c>
+      <c r="D93" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E93" s="22">
+      <c r="E93" s="21">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F93" s="21">
         <v>0.40011999999999998</v>
       </c>
-      <c r="G93" s="22">
+      <c r="G93" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H93" s="22">
+      <c r="H93" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I93" s="23">
-        <v>4.29E-8</v>
+      <c r="I93" s="22">
+        <v>4.1099999999999997E-8</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>723</v>
       </c>
-      <c r="B94" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C94" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D94" s="22">
-        <v>2.3470000000000001E-2</v>
-      </c>
-      <c r="E94" s="22">
-        <v>0.34143000000000001</v>
-      </c>
-      <c r="F94" s="22">
-        <v>0.40011999999999998</v>
-      </c>
-      <c r="G94" s="22">
-        <v>0.13483999999999999</v>
-      </c>
-      <c r="H94" s="22">
-        <v>0.10013</v>
-      </c>
-      <c r="I94" s="23">
-        <v>1.7900000000000001E-8</v>
+      <c r="B94" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="C94" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D94" s="21">
+        <v>2.315E-2</v>
+      </c>
+      <c r="E94" s="21">
+        <v>0.33671000000000001</v>
+      </c>
+      <c r="F94" s="21">
+        <v>0.39459</v>
+      </c>
+      <c r="G94" s="21">
+        <v>0.13297999999999999</v>
+      </c>
+      <c r="H94" s="21">
+        <v>9.8750000000000004E-2</v>
+      </c>
+      <c r="I94" s="21">
+        <v>1.3820000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8351,55 +8369,55 @@
       <c r="B95" s="14">
         <v>1.05</v>
       </c>
-      <c r="C95" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D95" s="22">
+      <c r="C95" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D95" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E95" s="22">
+      <c r="E95" s="21">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F95" s="22">
-        <v>0.40011999999999998</v>
-      </c>
-      <c r="G95" s="22">
+      <c r="F95" s="21">
+        <v>0.40011000000000002</v>
+      </c>
+      <c r="G95" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H95" s="22">
+      <c r="H95" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I95" s="23">
-        <v>3.9700000000000001E-9</v>
+      <c r="I95" s="22">
+        <v>1.7200000000000001E-5</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>723</v>
       </c>
-      <c r="B96" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C96" s="24">
+      <c r="B96" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="C96" s="23">
         <v>0.5</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E96" s="22">
-        <v>0.34140999999999999</v>
-      </c>
-      <c r="F96" s="9">
-        <v>0.40010000000000001</v>
-      </c>
-      <c r="G96" s="22">
+      <c r="E96" s="21">
+        <v>0.34143000000000001</v>
+      </c>
+      <c r="F96" s="21">
+        <v>0.40011999999999998</v>
+      </c>
+      <c r="G96" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H96" s="22">
+      <c r="H96" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I96" s="23">
-        <v>5.52E-5</v>
+      <c r="I96" s="22">
+        <v>3.9700000000000001E-9</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8407,173 +8425,173 @@
         <v>723</v>
       </c>
       <c r="B97" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="C97" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D97" s="22">
-        <v>2.342E-2</v>
-      </c>
-      <c r="E97" s="22">
-        <v>0.34066000000000002</v>
-      </c>
-      <c r="F97" s="22">
-        <v>0.39922000000000002</v>
-      </c>
-      <c r="G97" s="22">
-        <v>0.13453999999999999</v>
-      </c>
-      <c r="H97" s="22">
-        <v>9.9909999999999999E-2</v>
+        <v>1.05</v>
+      </c>
+      <c r="C97" s="8">
+        <v>1</v>
+      </c>
+      <c r="D97" s="21">
+        <v>2.3470000000000001E-2</v>
+      </c>
+      <c r="E97" s="21">
+        <v>0.34143000000000001</v>
+      </c>
+      <c r="F97" s="21">
+        <v>0.40011999999999998</v>
+      </c>
+      <c r="G97" s="21">
+        <v>0.13483999999999999</v>
+      </c>
+      <c r="H97" s="21">
+        <v>0.10013</v>
       </c>
       <c r="I97" s="22">
-        <v>2.2499999999999998E-3</v>
+        <v>3.55E-8</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>723</v>
       </c>
-      <c r="B98" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="C98" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D98" s="22">
-        <v>2.3349999999999999E-2</v>
-      </c>
-      <c r="E98" s="22">
-        <v>0.33968999999999999</v>
-      </c>
-      <c r="F98" s="22">
-        <v>0.39807999999999999</v>
-      </c>
-      <c r="G98" s="22">
-        <v>0.13416</v>
-      </c>
-      <c r="H98" s="22">
-        <v>9.962E-2</v>
-      </c>
-      <c r="I98" s="22">
-        <v>5.0899999999999999E-3</v>
+      <c r="B98" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="C98" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D98" s="21">
+        <v>2.171E-2</v>
+      </c>
+      <c r="E98" s="21">
+        <v>0.31584000000000001</v>
+      </c>
+      <c r="F98" s="21">
+        <v>0.37013000000000001</v>
+      </c>
+      <c r="G98" s="21">
+        <v>0.12474</v>
+      </c>
+      <c r="H98" s="21">
+        <v>9.2630000000000004E-2</v>
+      </c>
+      <c r="I98" s="21">
+        <v>7.4959999999999999E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>723</v>
       </c>
-      <c r="B99" s="14">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C99" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D99" s="22">
-        <v>2.333E-2</v>
-      </c>
-      <c r="E99" s="9">
-        <v>0.33939999999999998</v>
-      </c>
-      <c r="F99" s="22">
-        <v>0.39772999999999997</v>
-      </c>
-      <c r="G99" s="22">
-        <v>0.13403999999999999</v>
-      </c>
-      <c r="H99" s="22">
-        <v>9.9540000000000003E-2</v>
-      </c>
-      <c r="I99" s="22">
-        <v>5.96E-3</v>
+      <c r="B99" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="C99" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D99" s="21">
+        <v>2.3369999999999998E-2</v>
+      </c>
+      <c r="E99" s="21">
+        <v>0.33999000000000001</v>
+      </c>
+      <c r="F99" s="21">
+        <v>0.39843000000000001</v>
+      </c>
+      <c r="G99" s="21">
+        <v>0.13427</v>
+      </c>
+      <c r="H99" s="21">
+        <v>9.9709999999999993E-2</v>
+      </c>
+      <c r="I99" s="21">
+        <v>4.2300000000000003E-3</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>723</v>
       </c>
-      <c r="B100" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C100" s="24">
+      <c r="B100" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="C100" s="23">
         <v>0.5</v>
       </c>
-      <c r="D100" s="22">
-        <v>2.333E-2</v>
-      </c>
-      <c r="E100" s="22">
-        <v>0.33933000000000002</v>
-      </c>
-      <c r="F100" s="22">
-        <v>0.39766000000000001</v>
-      </c>
-      <c r="G100" s="22">
-        <v>0.13400999999999999</v>
-      </c>
-      <c r="H100" s="22">
-        <v>9.9519999999999997E-2</v>
+      <c r="D100" s="21">
+        <v>2.3470000000000001E-2</v>
+      </c>
+      <c r="E100" s="21">
+        <v>0.34140999999999999</v>
+      </c>
+      <c r="F100" s="9">
+        <v>0.40010000000000001</v>
+      </c>
+      <c r="G100" s="21">
+        <v>0.13483999999999999</v>
+      </c>
+      <c r="H100" s="21">
+        <v>0.10013</v>
       </c>
       <c r="I100" s="22">
-        <v>6.1500000000000001E-3</v>
+        <v>5.52E-5</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>723</v>
       </c>
-      <c r="B101" s="14">
-        <v>3.15</v>
-      </c>
-      <c r="C101" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D101" s="22">
-        <v>2.333E-2</v>
-      </c>
-      <c r="E101" s="22">
-        <v>0.33938000000000001</v>
-      </c>
-      <c r="F101" s="22">
-        <v>0.39772000000000002</v>
-      </c>
-      <c r="G101" s="22">
-        <v>0.13403000000000001</v>
-      </c>
-      <c r="H101" s="22">
-        <v>9.9529999999999993E-2</v>
-      </c>
-      <c r="I101" s="10">
-        <v>6.0000000000000001E-3</v>
+      <c r="B101" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="C101" s="8">
+        <v>1</v>
+      </c>
+      <c r="D101" s="21">
+        <v>2.3470000000000001E-2</v>
+      </c>
+      <c r="E101" s="21">
+        <v>0.34143000000000001</v>
+      </c>
+      <c r="F101" s="21">
+        <v>0.40011999999999998</v>
+      </c>
+      <c r="G101" s="21">
+        <v>0.13483999999999999</v>
+      </c>
+      <c r="H101" s="21">
+        <v>0.10013</v>
+      </c>
+      <c r="I101" s="22">
+        <v>5.7199999999999999E-10</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>723</v>
       </c>
-      <c r="B102" s="8">
-        <v>0</v>
-      </c>
-      <c r="C102" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D102" s="22">
-        <v>2.3470000000000001E-2</v>
-      </c>
-      <c r="E102" s="22">
-        <v>0.34143000000000001</v>
-      </c>
-      <c r="F102" s="22">
-        <v>0.40011999999999998</v>
-      </c>
-      <c r="G102" s="22">
-        <v>0.13483999999999999</v>
-      </c>
-      <c r="H102" s="22">
-        <v>0.10013</v>
-      </c>
-      <c r="I102" s="23">
-        <v>9.1600000000000004E-10</v>
+      <c r="B102" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="C102" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D102" s="21">
+        <v>2.0889999999999999E-2</v>
+      </c>
+      <c r="E102" s="21">
+        <v>0.30381000000000002</v>
+      </c>
+      <c r="F102" s="21">
+        <v>0.35603000000000001</v>
+      </c>
+      <c r="G102" s="21">
+        <v>0.11999</v>
+      </c>
+      <c r="H102" s="9">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="I102" s="21">
+        <v>0.11019</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8581,57 +8599,57 @@
         <v>723</v>
       </c>
       <c r="B103" s="14">
-        <v>0.35</v>
+        <v>1.75</v>
       </c>
       <c r="C103" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D103" s="22">
-        <v>2.3470000000000001E-2</v>
-      </c>
-      <c r="E103" s="22">
-        <v>0.34143000000000001</v>
-      </c>
-      <c r="F103" s="22">
-        <v>0.40011999999999998</v>
-      </c>
-      <c r="G103" s="22">
-        <v>0.13483999999999999</v>
-      </c>
-      <c r="H103" s="22">
-        <v>0.10013</v>
-      </c>
-      <c r="I103" s="23">
-        <v>1.19E-9</v>
+      <c r="D103" s="21">
+        <v>2.2970000000000001E-2</v>
+      </c>
+      <c r="E103" s="21">
+        <v>0.33418999999999999</v>
+      </c>
+      <c r="F103" s="21">
+        <v>0.39162999999999998</v>
+      </c>
+      <c r="G103" s="21">
+        <v>0.13197999999999999</v>
+      </c>
+      <c r="H103" s="21">
+        <v>9.801E-2</v>
+      </c>
+      <c r="I103" s="21">
+        <v>2.1219999999999999E-2</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>723</v>
       </c>
-      <c r="B104" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C104" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D104" s="22">
-        <v>2.3470000000000001E-2</v>
-      </c>
-      <c r="E104" s="22">
-        <v>0.34143000000000001</v>
-      </c>
-      <c r="F104" s="22">
-        <v>0.40011999999999998</v>
-      </c>
-      <c r="G104" s="22">
-        <v>0.13483999999999999</v>
-      </c>
-      <c r="H104" s="22">
-        <v>0.10013</v>
-      </c>
-      <c r="I104" s="23">
-        <v>1.03E-8</v>
+      <c r="B104" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="C104" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D104" s="21">
+        <v>2.342E-2</v>
+      </c>
+      <c r="E104" s="21">
+        <v>0.34066000000000002</v>
+      </c>
+      <c r="F104" s="21">
+        <v>0.39922000000000002</v>
+      </c>
+      <c r="G104" s="21">
+        <v>0.13453999999999999</v>
+      </c>
+      <c r="H104" s="21">
+        <v>9.9909999999999999E-2</v>
+      </c>
+      <c r="I104" s="21">
+        <v>2.2499999999999998E-3</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8639,173 +8657,173 @@
         <v>723</v>
       </c>
       <c r="B105" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="C105" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D105" s="22">
+        <v>1.75</v>
+      </c>
+      <c r="C105" s="8">
+        <v>1</v>
+      </c>
+      <c r="D105" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E105" s="22">
+      <c r="E105" s="21">
         <v>0.34143000000000001</v>
       </c>
-      <c r="F105" s="22">
-        <v>0.40011000000000002</v>
-      </c>
-      <c r="G105" s="22">
+      <c r="F105" s="21">
+        <v>0.40011999999999998</v>
+      </c>
+      <c r="G105" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H105" s="22">
+      <c r="H105" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I105" s="23">
-        <v>1.7200000000000001E-5</v>
+      <c r="I105" s="22">
+        <v>1.75E-6</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>723</v>
       </c>
-      <c r="B106" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C106" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D106" s="22">
-        <v>2.3369999999999998E-2</v>
-      </c>
-      <c r="E106" s="22">
-        <v>0.33999000000000001</v>
-      </c>
-      <c r="F106" s="22">
-        <v>0.39843000000000001</v>
-      </c>
-      <c r="G106" s="22">
-        <v>0.13427</v>
-      </c>
-      <c r="H106" s="22">
-        <v>9.9709999999999993E-2</v>
-      </c>
-      <c r="I106" s="22">
-        <v>4.2300000000000003E-3</v>
+      <c r="B106" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="C106" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D106" s="21">
+        <v>2.068E-2</v>
+      </c>
+      <c r="E106" s="21">
+        <v>0.30087000000000003</v>
+      </c>
+      <c r="F106" s="21">
+        <v>0.35258</v>
+      </c>
+      <c r="G106" s="21">
+        <v>0.11882</v>
+      </c>
+      <c r="H106" s="21">
+        <v>8.8239999999999999E-2</v>
+      </c>
+      <c r="I106" s="21">
+        <v>0.11881</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>723</v>
       </c>
-      <c r="B107" s="14">
-        <v>1.75</v>
+      <c r="B107" s="23">
+        <v>2.1</v>
       </c>
       <c r="C107" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D107" s="22">
-        <v>2.2970000000000001E-2</v>
-      </c>
-      <c r="E107" s="22">
-        <v>0.33418999999999999</v>
-      </c>
-      <c r="F107" s="22">
-        <v>0.39162999999999998</v>
-      </c>
-      <c r="G107" s="22">
-        <v>0.13197999999999999</v>
-      </c>
-      <c r="H107" s="22">
-        <v>9.801E-2</v>
-      </c>
-      <c r="I107" s="22">
-        <v>2.1219999999999999E-2</v>
+      <c r="D107" s="21">
+        <v>2.2780000000000002E-2</v>
+      </c>
+      <c r="E107" s="9">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="F107" s="21">
+        <v>0.38824999999999998</v>
+      </c>
+      <c r="G107" s="21">
+        <v>0.13084000000000001</v>
+      </c>
+      <c r="H107" s="21">
+        <v>9.7159999999999996E-2</v>
+      </c>
+      <c r="I107" s="21">
+        <v>2.9659999999999999E-2</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>723</v>
       </c>
-      <c r="B108" s="24">
+      <c r="B108" s="23">
         <v>2.1</v>
       </c>
-      <c r="C108" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D108" s="22">
-        <v>2.2780000000000002E-2</v>
-      </c>
-      <c r="E108" s="9">
-        <v>0.33129999999999998</v>
-      </c>
-      <c r="F108" s="22">
-        <v>0.38824999999999998</v>
-      </c>
-      <c r="G108" s="22">
-        <v>0.13084000000000001</v>
-      </c>
-      <c r="H108" s="22">
-        <v>9.7159999999999996E-2</v>
-      </c>
-      <c r="I108" s="22">
-        <v>2.9659999999999999E-2</v>
+      <c r="C108" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D108" s="21">
+        <v>2.3349999999999999E-2</v>
+      </c>
+      <c r="E108" s="21">
+        <v>0.33968999999999999</v>
+      </c>
+      <c r="F108" s="21">
+        <v>0.39807999999999999</v>
+      </c>
+      <c r="G108" s="21">
+        <v>0.13416</v>
+      </c>
+      <c r="H108" s="21">
+        <v>9.962E-2</v>
+      </c>
+      <c r="I108" s="21">
+        <v>5.0899999999999999E-3</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>723</v>
       </c>
-      <c r="B109" s="14">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C109" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D109" s="22">
-        <v>2.273E-2</v>
-      </c>
-      <c r="E109" s="22">
-        <v>0.33062999999999998</v>
-      </c>
-      <c r="F109" s="22">
-        <v>0.38746999999999998</v>
-      </c>
-      <c r="G109" s="22">
-        <v>0.13058</v>
-      </c>
-      <c r="H109" s="22">
-        <v>9.6970000000000001E-2</v>
+      <c r="B109" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="C109" s="8">
+        <v>1</v>
+      </c>
+      <c r="D109" s="21">
+        <v>2.3470000000000001E-2</v>
+      </c>
+      <c r="E109" s="21">
+        <v>0.34142</v>
+      </c>
+      <c r="F109" s="21">
+        <v>0.40011000000000002</v>
+      </c>
+      <c r="G109" s="21">
+        <v>0.13483999999999999</v>
+      </c>
+      <c r="H109" s="21">
+        <v>0.10013</v>
       </c>
       <c r="I109" s="22">
-        <v>3.1629999999999998E-2</v>
+        <v>2.3799999999999999E-5</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>723</v>
       </c>
-      <c r="B110" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C110" s="9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D110" s="22">
-        <v>2.2710000000000001E-2</v>
-      </c>
-      <c r="E110" s="22">
-        <v>0.33035999999999999</v>
-      </c>
-      <c r="F110" s="22">
-        <v>0.38713999999999998</v>
-      </c>
-      <c r="G110" s="22">
-        <v>0.13047</v>
-      </c>
-      <c r="H110" s="22">
-        <v>9.6879999999999994E-2</v>
-      </c>
-      <c r="I110" s="22">
-        <v>3.2439999999999997E-2</v>
+      <c r="B110" s="14">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C110" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D110" s="21">
+        <v>2.0639999999999999E-2</v>
+      </c>
+      <c r="E110" s="9">
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="F110" s="21">
+        <v>0.35191</v>
+      </c>
+      <c r="G110" s="9">
+        <v>0.1186</v>
+      </c>
+      <c r="H110" s="21">
+        <v>8.8069999999999996E-2</v>
+      </c>
+      <c r="I110" s="21">
+        <v>0.12048</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8813,57 +8831,57 @@
         <v>723</v>
       </c>
       <c r="B111" s="14">
-        <v>3.15</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C111" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D111" s="22">
-        <v>2.2720000000000001E-2</v>
-      </c>
-      <c r="E111" s="22">
-        <v>0.33045999999999998</v>
-      </c>
-      <c r="F111" s="22">
-        <v>0.38725999999999999</v>
-      </c>
-      <c r="G111" s="22">
-        <v>0.13050999999999999</v>
-      </c>
-      <c r="H111" s="22">
-        <v>9.6909999999999996E-2</v>
-      </c>
-      <c r="I111" s="22">
-        <v>3.2140000000000002E-2</v>
+      <c r="D111" s="21">
+        <v>2.273E-2</v>
+      </c>
+      <c r="E111" s="21">
+        <v>0.33062999999999998</v>
+      </c>
+      <c r="F111" s="21">
+        <v>0.38746999999999998</v>
+      </c>
+      <c r="G111" s="21">
+        <v>0.13058</v>
+      </c>
+      <c r="H111" s="21">
+        <v>9.6970000000000001E-2</v>
+      </c>
+      <c r="I111" s="21">
+        <v>3.1629999999999998E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>723</v>
       </c>
-      <c r="B112" s="8">
-        <v>0</v>
-      </c>
-      <c r="C112" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D112" s="22">
-        <v>2.3470000000000001E-2</v>
-      </c>
-      <c r="E112" s="22">
-        <v>0.34143000000000001</v>
-      </c>
-      <c r="F112" s="22">
-        <v>0.40011999999999998</v>
-      </c>
-      <c r="G112" s="22">
-        <v>0.13483999999999999</v>
-      </c>
-      <c r="H112" s="22">
-        <v>0.10013</v>
-      </c>
-      <c r="I112" s="23">
-        <v>9.8200000000000008E-7</v>
+      <c r="B112" s="14">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C112" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D112" s="21">
+        <v>2.333E-2</v>
+      </c>
+      <c r="E112" s="9">
+        <v>0.33939999999999998</v>
+      </c>
+      <c r="F112" s="21">
+        <v>0.39772999999999997</v>
+      </c>
+      <c r="G112" s="21">
+        <v>0.13403999999999999</v>
+      </c>
+      <c r="H112" s="21">
+        <v>9.9540000000000003E-2</v>
+      </c>
+      <c r="I112" s="21">
+        <v>5.96E-3</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8871,173 +8889,173 @@
         <v>723</v>
       </c>
       <c r="B113" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="C113" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D113" s="22">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C113" s="8">
+        <v>1</v>
+      </c>
+      <c r="D113" s="21">
         <v>2.3470000000000001E-2</v>
       </c>
-      <c r="E113" s="22">
-        <v>0.34143000000000001</v>
-      </c>
-      <c r="F113" s="22">
-        <v>0.40011999999999998</v>
-      </c>
-      <c r="G113" s="22">
+      <c r="E113" s="21">
+        <v>0.34142</v>
+      </c>
+      <c r="F113" s="9">
+        <v>0.40010000000000001</v>
+      </c>
+      <c r="G113" s="21">
         <v>0.13483999999999999</v>
       </c>
-      <c r="H113" s="22">
+      <c r="H113" s="21">
         <v>0.10013</v>
       </c>
-      <c r="I113" s="23">
-        <v>3.6399999999999999E-6</v>
+      <c r="I113" s="22">
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>723</v>
       </c>
-      <c r="B114" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C114" s="24">
+      <c r="B114" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C114" s="23">
         <v>0.2</v>
       </c>
-      <c r="D114" s="22">
-        <v>2.3470000000000001E-2</v>
-      </c>
-      <c r="E114" s="22">
-        <v>0.34137000000000001</v>
-      </c>
-      <c r="F114" s="22">
-        <v>0.40005000000000002</v>
-      </c>
-      <c r="G114" s="22">
-        <v>0.13482</v>
-      </c>
-      <c r="H114" s="22">
-        <v>0.10011</v>
-      </c>
-      <c r="I114" s="23">
-        <v>1.8100000000000001E-4</v>
+      <c r="D114" s="21">
+        <v>2.061E-2</v>
+      </c>
+      <c r="E114" s="21">
+        <v>0.29982999999999999</v>
+      </c>
+      <c r="F114" s="21">
+        <v>0.35137000000000002</v>
+      </c>
+      <c r="G114" s="21">
+        <v>0.11841</v>
+      </c>
+      <c r="H114" s="21">
+        <v>8.7929999999999994E-2</v>
+      </c>
+      <c r="I114" s="21">
+        <v>0.12184</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>723</v>
       </c>
-      <c r="B115" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="C115" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D115" s="22">
-        <v>2.315E-2</v>
-      </c>
-      <c r="E115" s="22">
-        <v>0.33671000000000001</v>
-      </c>
-      <c r="F115" s="22">
-        <v>0.39459</v>
-      </c>
-      <c r="G115" s="22">
-        <v>0.13297999999999999</v>
-      </c>
-      <c r="H115" s="22">
-        <v>9.8750000000000004E-2</v>
-      </c>
-      <c r="I115" s="22">
-        <v>1.3820000000000001E-2</v>
+      <c r="B115" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C115" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D115" s="21">
+        <v>2.2710000000000001E-2</v>
+      </c>
+      <c r="E115" s="21">
+        <v>0.33035999999999999</v>
+      </c>
+      <c r="F115" s="21">
+        <v>0.38713999999999998</v>
+      </c>
+      <c r="G115" s="21">
+        <v>0.13047</v>
+      </c>
+      <c r="H115" s="21">
+        <v>9.6879999999999994E-2</v>
+      </c>
+      <c r="I115" s="21">
+        <v>3.2439999999999997E-2</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>723</v>
       </c>
-      <c r="B116" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C116" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D116" s="22">
-        <v>2.171E-2</v>
-      </c>
-      <c r="E116" s="22">
-        <v>0.31584000000000001</v>
-      </c>
-      <c r="F116" s="22">
-        <v>0.37013000000000001</v>
-      </c>
-      <c r="G116" s="22">
-        <v>0.12474</v>
-      </c>
-      <c r="H116" s="22">
-        <v>9.2630000000000004E-2</v>
-      </c>
-      <c r="I116" s="22">
-        <v>7.4959999999999999E-2</v>
+      <c r="B116" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C116" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D116" s="21">
+        <v>2.333E-2</v>
+      </c>
+      <c r="E116" s="21">
+        <v>0.33933000000000002</v>
+      </c>
+      <c r="F116" s="21">
+        <v>0.39766000000000001</v>
+      </c>
+      <c r="G116" s="21">
+        <v>0.13400999999999999</v>
+      </c>
+      <c r="H116" s="21">
+        <v>9.9519999999999997E-2</v>
+      </c>
+      <c r="I116" s="21">
+        <v>6.1500000000000001E-3</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>723</v>
       </c>
-      <c r="B117" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="C117" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D117" s="22">
-        <v>2.0889999999999999E-2</v>
-      </c>
-      <c r="E117" s="22">
-        <v>0.30381000000000002</v>
-      </c>
-      <c r="F117" s="22">
-        <v>0.35603000000000001</v>
-      </c>
-      <c r="G117" s="22">
-        <v>0.11999</v>
-      </c>
-      <c r="H117" s="9">
-        <v>8.9099999999999999E-2</v>
+      <c r="B117" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C117" s="8">
+        <v>1</v>
+      </c>
+      <c r="D117" s="21">
+        <v>2.3470000000000001E-2</v>
+      </c>
+      <c r="E117" s="21">
+        <v>0.34142</v>
+      </c>
+      <c r="F117" s="9">
+        <v>0.40010000000000001</v>
+      </c>
+      <c r="G117" s="21">
+        <v>0.13483999999999999</v>
+      </c>
+      <c r="H117" s="21">
+        <v>0.10013</v>
       </c>
       <c r="I117" s="22">
-        <v>0.11019</v>
+        <v>4.4400000000000002E-5</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>723</v>
       </c>
-      <c r="B118" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="C118" s="24">
+      <c r="B118" s="14">
+        <v>3.15</v>
+      </c>
+      <c r="C118" s="23">
         <v>0.2</v>
       </c>
-      <c r="D118" s="22">
-        <v>2.068E-2</v>
-      </c>
-      <c r="E118" s="22">
-        <v>0.30087000000000003</v>
-      </c>
-      <c r="F118" s="22">
-        <v>0.35258</v>
-      </c>
-      <c r="G118" s="22">
-        <v>0.11882</v>
-      </c>
-      <c r="H118" s="22">
-        <v>8.8239999999999999E-2</v>
-      </c>
-      <c r="I118" s="22">
-        <v>0.11881</v>
+      <c r="D118" s="21">
+        <v>2.0619999999999999E-2</v>
+      </c>
+      <c r="E118" s="21">
+        <v>0.30001</v>
+      </c>
+      <c r="F118" s="21">
+        <v>0.35156999999999999</v>
+      </c>
+      <c r="G118" s="21">
+        <v>0.11848</v>
+      </c>
+      <c r="H118" s="21">
+        <v>8.7980000000000003E-2</v>
+      </c>
+      <c r="I118" s="21">
+        <v>0.12132999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9045,57 +9063,57 @@
         <v>723</v>
       </c>
       <c r="B119" s="14">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C119" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D119" s="22">
-        <v>2.0639999999999999E-2</v>
-      </c>
-      <c r="E119" s="9">
-        <v>0.30030000000000001</v>
-      </c>
-      <c r="F119" s="22">
-        <v>0.35191</v>
-      </c>
-      <c r="G119" s="9">
-        <v>0.1186</v>
-      </c>
-      <c r="H119" s="22">
-        <v>8.8069999999999996E-2</v>
-      </c>
-      <c r="I119" s="22">
-        <v>0.12048</v>
+        <v>3.15</v>
+      </c>
+      <c r="C119" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D119" s="21">
+        <v>2.2720000000000001E-2</v>
+      </c>
+      <c r="E119" s="21">
+        <v>0.33045999999999998</v>
+      </c>
+      <c r="F119" s="21">
+        <v>0.38725999999999999</v>
+      </c>
+      <c r="G119" s="21">
+        <v>0.13050999999999999</v>
+      </c>
+      <c r="H119" s="21">
+        <v>9.6909999999999996E-2</v>
+      </c>
+      <c r="I119" s="21">
+        <v>3.2140000000000002E-2</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>723</v>
       </c>
-      <c r="B120" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C120" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D120" s="22">
-        <v>2.061E-2</v>
-      </c>
-      <c r="E120" s="22">
-        <v>0.29982999999999999</v>
-      </c>
-      <c r="F120" s="22">
-        <v>0.35137000000000002</v>
-      </c>
-      <c r="G120" s="22">
-        <v>0.11841</v>
-      </c>
-      <c r="H120" s="22">
-        <v>8.7929999999999994E-2</v>
-      </c>
-      <c r="I120" s="22">
-        <v>0.12184</v>
+      <c r="B120" s="14">
+        <v>3.15</v>
+      </c>
+      <c r="C120" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D120" s="21">
+        <v>2.333E-2</v>
+      </c>
+      <c r="E120" s="21">
+        <v>0.33938000000000001</v>
+      </c>
+      <c r="F120" s="21">
+        <v>0.39772000000000002</v>
+      </c>
+      <c r="G120" s="21">
+        <v>0.13403000000000001</v>
+      </c>
+      <c r="H120" s="21">
+        <v>9.9529999999999993E-2</v>
+      </c>
+      <c r="I120" s="10">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9105,26 +9123,26 @@
       <c r="B121" s="14">
         <v>3.15</v>
       </c>
-      <c r="C121" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D121" s="22">
-        <v>2.0619999999999999E-2</v>
-      </c>
-      <c r="E121" s="22">
-        <v>0.30001</v>
-      </c>
-      <c r="F121" s="22">
-        <v>0.35156999999999999</v>
-      </c>
-      <c r="G121" s="22">
-        <v>0.11848</v>
-      </c>
-      <c r="H121" s="22">
-        <v>8.7980000000000003E-2</v>
+      <c r="C121" s="8">
+        <v>1</v>
+      </c>
+      <c r="D121" s="21">
+        <v>2.3470000000000001E-2</v>
+      </c>
+      <c r="E121" s="21">
+        <v>0.34142</v>
+      </c>
+      <c r="F121" s="9">
+        <v>0.40010000000000001</v>
+      </c>
+      <c r="G121" s="21">
+        <v>0.13483999999999999</v>
+      </c>
+      <c r="H121" s="21">
+        <v>0.10013</v>
       </c>
       <c r="I121" s="22">
-        <v>0.12132999999999999</v>
+        <v>4.5000000000000003E-5</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9134,84 +9152,84 @@
       <c r="B122" s="8">
         <v>0</v>
       </c>
-      <c r="C122" s="8">
-        <v>1</v>
-      </c>
-      <c r="D122" s="22">
+      <c r="C122" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D122" s="21">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E122" s="22">
+      <c r="E122" s="21">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F122" s="22">
+      <c r="F122" s="21">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G122" s="22">
+      <c r="G122" s="21">
         <v>0.11827</v>
       </c>
-      <c r="H122" s="22">
+      <c r="H122" s="21">
         <v>8.695E-2</v>
       </c>
-      <c r="I122" s="23">
-        <v>1.8300000000000001E-7</v>
+      <c r="I122" s="22">
+        <v>4.4299999999999998E-7</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>748</v>
       </c>
-      <c r="B123" s="14">
-        <v>0.35</v>
+      <c r="B123" s="8">
+        <v>0</v>
       </c>
       <c r="C123" s="8">
         <v>1</v>
       </c>
-      <c r="D123" s="22">
+      <c r="D123" s="21">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E123" s="22">
+      <c r="E123" s="21">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F123" s="22">
+      <c r="F123" s="21">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G123" s="22">
+      <c r="G123" s="21">
         <v>0.11827</v>
       </c>
-      <c r="H123" s="22">
+      <c r="H123" s="21">
         <v>8.695E-2</v>
       </c>
-      <c r="I123" s="23">
-        <v>1.4000000000000001E-7</v>
+      <c r="I123" s="22">
+        <v>1.8300000000000001E-7</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>748</v>
       </c>
-      <c r="B124" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C124" s="8">
-        <v>1</v>
-      </c>
-      <c r="D124" s="22">
+      <c r="B124" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="C124" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D124" s="21">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E124" s="22">
+      <c r="E124" s="21">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F124" s="22">
+      <c r="F124" s="21">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G124" s="22">
+      <c r="G124" s="21">
         <v>0.11827</v>
       </c>
-      <c r="H124" s="22">
+      <c r="H124" s="21">
         <v>8.695E-2</v>
       </c>
-      <c r="I124" s="23">
-        <v>3.5199999999999998E-7</v>
+      <c r="I124" s="22">
+        <v>4.2599999999999998E-8</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9219,115 +9237,115 @@
         <v>748</v>
       </c>
       <c r="B125" s="14">
-        <v>1.05</v>
+        <v>0.35</v>
       </c>
       <c r="C125" s="8">
         <v>1</v>
       </c>
-      <c r="D125" s="22">
+      <c r="D125" s="21">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E125" s="22">
+      <c r="E125" s="21">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F125" s="22">
+      <c r="F125" s="21">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G125" s="22">
+      <c r="G125" s="21">
         <v>0.11827</v>
       </c>
-      <c r="H125" s="22">
+      <c r="H125" s="21">
         <v>8.695E-2</v>
       </c>
-      <c r="I125" s="23">
-        <v>9.0699999999999996E-7</v>
+      <c r="I125" s="22">
+        <v>1.4000000000000001E-7</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>748</v>
       </c>
-      <c r="B126" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C126" s="8">
-        <v>1</v>
-      </c>
-      <c r="D126" s="22">
+      <c r="B126" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="C126" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D126" s="21">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E126" s="22">
+      <c r="E126" s="21">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F126" s="22">
+      <c r="F126" s="21">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G126" s="22">
+      <c r="G126" s="21">
         <v>0.11827</v>
       </c>
-      <c r="H126" s="22">
+      <c r="H126" s="21">
         <v>8.695E-2</v>
       </c>
-      <c r="I126" s="23">
-        <v>1.52E-8</v>
+      <c r="I126" s="22">
+        <v>1.0999999999999999E-9</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>748</v>
       </c>
-      <c r="B127" s="14">
-        <v>1.75</v>
+      <c r="B127" s="23">
+        <v>0.7</v>
       </c>
       <c r="C127" s="8">
         <v>1</v>
       </c>
-      <c r="D127" s="22">
+      <c r="D127" s="21">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E127" s="22">
+      <c r="E127" s="21">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F127" s="22">
+      <c r="F127" s="21">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G127" s="22">
+      <c r="G127" s="21">
         <v>0.11827</v>
       </c>
-      <c r="H127" s="22">
+      <c r="H127" s="21">
         <v>8.695E-2</v>
       </c>
-      <c r="I127" s="23">
-        <v>1.3999999999999999E-6</v>
+      <c r="I127" s="22">
+        <v>3.5199999999999998E-7</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>748</v>
       </c>
-      <c r="B128" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="C128" s="8">
-        <v>1</v>
-      </c>
-      <c r="D128" s="22">
+      <c r="B128" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="C128" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D128" s="21">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E128" s="22">
+      <c r="E128" s="21">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F128" s="22">
+      <c r="F128" s="21">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G128" s="22">
+      <c r="G128" s="21">
         <v>0.11827</v>
       </c>
-      <c r="H128" s="22">
+      <c r="H128" s="21">
         <v>8.695E-2</v>
       </c>
-      <c r="I128" s="23">
-        <v>3.6200000000000001E-6</v>
+      <c r="I128" s="22">
+        <v>5.5899999999999996E-7</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9335,115 +9353,115 @@
         <v>748</v>
       </c>
       <c r="B129" s="14">
-        <v>2.4500000000000002</v>
+        <v>1.05</v>
       </c>
       <c r="C129" s="8">
         <v>1</v>
       </c>
-      <c r="D129" s="22">
+      <c r="D129" s="21">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E129" s="22">
+      <c r="E129" s="21">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F129" s="22">
+      <c r="F129" s="21">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G129" s="22">
+      <c r="G129" s="21">
         <v>0.11827</v>
       </c>
-      <c r="H129" s="22">
+      <c r="H129" s="21">
         <v>8.695E-2</v>
       </c>
-      <c r="I129" s="23">
-        <v>4.3499999999999999E-6</v>
+      <c r="I129" s="22">
+        <v>9.0699999999999996E-7</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>748</v>
       </c>
-      <c r="B130" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C130" s="8">
-        <v>1</v>
-      </c>
-      <c r="D130" s="22">
-        <v>2.9250000000000002E-2</v>
-      </c>
-      <c r="E130" s="22">
-        <v>0.38192999999999999</v>
-      </c>
-      <c r="F130" s="22">
-        <v>0.38361000000000001</v>
-      </c>
-      <c r="G130" s="22">
-        <v>0.11827</v>
-      </c>
-      <c r="H130" s="22">
-        <v>8.695E-2</v>
-      </c>
-      <c r="I130" s="23">
-        <v>4.5000000000000001E-6</v>
+      <c r="B130" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="C130" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D130" s="21">
+        <v>2.9239999999999999E-2</v>
+      </c>
+      <c r="E130" s="21">
+        <v>0.38180999999999998</v>
+      </c>
+      <c r="F130" s="21">
+        <v>0.38349</v>
+      </c>
+      <c r="G130" s="21">
+        <v>0.11823</v>
+      </c>
+      <c r="H130" s="21">
+        <v>8.6919999999999997E-2</v>
+      </c>
+      <c r="I130" s="22">
+        <v>3.0299999999999999E-4</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>748</v>
       </c>
-      <c r="B131" s="14">
-        <v>3.15</v>
+      <c r="B131" s="23">
+        <v>1.4</v>
       </c>
       <c r="C131" s="8">
         <v>1</v>
       </c>
-      <c r="D131" s="22">
+      <c r="D131" s="21">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E131" s="22">
+      <c r="E131" s="21">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F131" s="22">
+      <c r="F131" s="21">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G131" s="22">
+      <c r="G131" s="21">
         <v>0.11827</v>
       </c>
-      <c r="H131" s="22">
+      <c r="H131" s="21">
         <v>8.695E-2</v>
       </c>
-      <c r="I131" s="23">
-        <v>4.2400000000000001E-6</v>
+      <c r="I131" s="22">
+        <v>1.52E-8</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>748</v>
       </c>
-      <c r="B132" s="8">
-        <v>0</v>
-      </c>
-      <c r="C132" s="24">
+      <c r="B132" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="C132" s="23">
         <v>0.5</v>
       </c>
-      <c r="D132" s="22">
-        <v>2.9250000000000002E-2</v>
-      </c>
-      <c r="E132" s="22">
-        <v>0.38192999999999999</v>
-      </c>
-      <c r="F132" s="22">
-        <v>0.38361000000000001</v>
-      </c>
-      <c r="G132" s="22">
-        <v>0.11827</v>
-      </c>
-      <c r="H132" s="22">
-        <v>8.695E-2</v>
-      </c>
-      <c r="I132" s="23">
-        <v>4.4299999999999998E-7</v>
+      <c r="D132" s="21">
+        <v>2.921E-2</v>
+      </c>
+      <c r="E132" s="21">
+        <v>0.38141000000000003</v>
+      </c>
+      <c r="F132" s="21">
+        <v>0.38308999999999999</v>
+      </c>
+      <c r="G132" s="21">
+        <v>0.11811000000000001</v>
+      </c>
+      <c r="H132" s="21">
+        <v>8.6830000000000004E-2</v>
+      </c>
+      <c r="I132" s="21">
+        <v>1.3600000000000001E-3</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9451,115 +9469,115 @@
         <v>748</v>
       </c>
       <c r="B133" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="C133" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D133" s="22">
+        <v>1.75</v>
+      </c>
+      <c r="C133" s="8">
+        <v>1</v>
+      </c>
+      <c r="D133" s="21">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E133" s="22">
+      <c r="E133" s="21">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F133" s="22">
+      <c r="F133" s="21">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G133" s="22">
+      <c r="G133" s="21">
         <v>0.11827</v>
       </c>
-      <c r="H133" s="22">
+      <c r="H133" s="21">
         <v>8.695E-2</v>
       </c>
-      <c r="I133" s="23">
-        <v>4.2599999999999998E-8</v>
+      <c r="I133" s="22">
+        <v>1.3999999999999999E-6</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>748</v>
       </c>
-      <c r="B134" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C134" s="24">
+      <c r="B134" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="C134" s="23">
         <v>0.5</v>
       </c>
-      <c r="D134" s="22">
-        <v>2.9250000000000002E-2</v>
-      </c>
-      <c r="E134" s="22">
-        <v>0.38192999999999999</v>
-      </c>
-      <c r="F134" s="22">
-        <v>0.38361000000000001</v>
-      </c>
-      <c r="G134" s="22">
-        <v>0.11827</v>
-      </c>
-      <c r="H134" s="22">
-        <v>8.695E-2</v>
-      </c>
-      <c r="I134" s="23">
-        <v>1.0999999999999999E-9</v>
+      <c r="D134" s="21">
+        <v>2.9190000000000001E-2</v>
+      </c>
+      <c r="E134" s="21">
+        <v>0.38123000000000001</v>
+      </c>
+      <c r="F134" s="21">
+        <v>0.38290999999999997</v>
+      </c>
+      <c r="G134" s="21">
+        <v>0.11805</v>
+      </c>
+      <c r="H134" s="21">
+        <v>8.6790000000000006E-2</v>
+      </c>
+      <c r="I134" s="21">
+        <v>1.82E-3</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>748</v>
       </c>
-      <c r="B135" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="C135" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D135" s="22">
+      <c r="B135" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="C135" s="8">
+        <v>1</v>
+      </c>
+      <c r="D135" s="21">
         <v>2.9250000000000002E-2</v>
       </c>
-      <c r="E135" s="22">
+      <c r="E135" s="21">
         <v>0.38192999999999999</v>
       </c>
-      <c r="F135" s="22">
+      <c r="F135" s="21">
         <v>0.38361000000000001</v>
       </c>
-      <c r="G135" s="22">
+      <c r="G135" s="21">
         <v>0.11827</v>
       </c>
-      <c r="H135" s="22">
+      <c r="H135" s="21">
         <v>8.695E-2</v>
       </c>
-      <c r="I135" s="23">
-        <v>5.5899999999999996E-7</v>
+      <c r="I135" s="22">
+        <v>3.6200000000000001E-6</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>748</v>
       </c>
-      <c r="B136" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="C136" s="24">
+      <c r="B136" s="14">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C136" s="23">
         <v>0.5</v>
       </c>
-      <c r="D136" s="22">
-        <v>2.9239999999999999E-2</v>
-      </c>
-      <c r="E136" s="22">
-        <v>0.38180999999999998</v>
-      </c>
-      <c r="F136" s="22">
-        <v>0.38349</v>
-      </c>
-      <c r="G136" s="22">
-        <v>0.11823</v>
-      </c>
-      <c r="H136" s="22">
-        <v>8.6919999999999997E-2</v>
-      </c>
-      <c r="I136" s="23">
-        <v>3.0299999999999999E-4</v>
+      <c r="D136" s="21">
+        <v>2.9190000000000001E-2</v>
+      </c>
+      <c r="E136" s="21">
+        <v>0.38118999999999997</v>
+      </c>
+      <c r="F136" s="21">
+        <v>0.38286999999999999</v>
+      </c>
+      <c r="G136" s="21">
+        <v>0.11804000000000001</v>
+      </c>
+      <c r="H136" s="21">
+        <v>8.6779999999999996E-2</v>
+      </c>
+      <c r="I136" s="21">
+        <v>1.9300000000000001E-3</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9567,115 +9585,115 @@
         <v>748</v>
       </c>
       <c r="B137" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="C137" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D137" s="22">
-        <v>2.921E-2</v>
-      </c>
-      <c r="E137" s="22">
-        <v>0.38141000000000003</v>
-      </c>
-      <c r="F137" s="22">
-        <v>0.38308999999999999</v>
-      </c>
-      <c r="G137" s="22">
-        <v>0.11811000000000001</v>
-      </c>
-      <c r="H137" s="22">
-        <v>8.6830000000000004E-2</v>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C137" s="8">
+        <v>1</v>
+      </c>
+      <c r="D137" s="21">
+        <v>2.9250000000000002E-2</v>
+      </c>
+      <c r="E137" s="21">
+        <v>0.38192999999999999</v>
+      </c>
+      <c r="F137" s="21">
+        <v>0.38361000000000001</v>
+      </c>
+      <c r="G137" s="21">
+        <v>0.11827</v>
+      </c>
+      <c r="H137" s="21">
+        <v>8.695E-2</v>
       </c>
       <c r="I137" s="22">
-        <v>1.3600000000000001E-3</v>
+        <v>4.3499999999999999E-6</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>748</v>
       </c>
-      <c r="B138" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="C138" s="24">
+      <c r="B138" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C138" s="23">
         <v>0.5</v>
       </c>
-      <c r="D138" s="22">
+      <c r="D138" s="21">
         <v>2.9190000000000001E-2</v>
       </c>
-      <c r="E138" s="22">
-        <v>0.38123000000000001</v>
-      </c>
-      <c r="F138" s="22">
-        <v>0.38290999999999997</v>
-      </c>
-      <c r="G138" s="22">
-        <v>0.11805</v>
-      </c>
-      <c r="H138" s="22">
-        <v>8.6790000000000006E-2</v>
-      </c>
-      <c r="I138" s="22">
-        <v>1.82E-3</v>
+      <c r="E138" s="21">
+        <v>0.38118999999999997</v>
+      </c>
+      <c r="F138" s="21">
+        <v>0.38285999999999998</v>
+      </c>
+      <c r="G138" s="21">
+        <v>0.11804000000000001</v>
+      </c>
+      <c r="H138" s="21">
+        <v>8.6779999999999996E-2</v>
+      </c>
+      <c r="I138" s="21">
+        <v>1.9400000000000001E-3</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>748</v>
       </c>
-      <c r="B139" s="14">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C139" s="24">
+      <c r="B139" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C139" s="8">
+        <v>1</v>
+      </c>
+      <c r="D139" s="21">
+        <v>2.9250000000000002E-2</v>
+      </c>
+      <c r="E139" s="21">
+        <v>0.38192999999999999</v>
+      </c>
+      <c r="F139" s="21">
+        <v>0.38361000000000001</v>
+      </c>
+      <c r="G139" s="21">
+        <v>0.11827</v>
+      </c>
+      <c r="H139" s="21">
+        <v>8.695E-2</v>
+      </c>
+      <c r="I139" s="22">
+        <v>4.5000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="27">
+        <v>748</v>
+      </c>
+      <c r="B140" s="28">
+        <v>3.15</v>
+      </c>
+      <c r="C140" s="30">
         <v>0.5</v>
       </c>
-      <c r="D139" s="22">
+      <c r="D140" s="31">
         <v>2.9190000000000001E-2</v>
       </c>
-      <c r="E139" s="22">
-        <v>0.38118999999999997</v>
-      </c>
-      <c r="F139" s="22">
-        <v>0.38286999999999999</v>
-      </c>
-      <c r="G139" s="22">
+      <c r="E140" s="31">
+        <v>0.38118000000000002</v>
+      </c>
+      <c r="F140" s="31">
+        <v>0.38285999999999998</v>
+      </c>
+      <c r="G140" s="31">
         <v>0.11804000000000001</v>
       </c>
-      <c r="H139" s="22">
+      <c r="H140" s="31">
         <v>8.6779999999999996E-2</v>
       </c>
-      <c r="I139" s="22">
-        <v>1.9300000000000001E-3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8">
-        <v>748</v>
-      </c>
-      <c r="B140" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="C140" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D140" s="22">
-        <v>2.9190000000000001E-2</v>
-      </c>
-      <c r="E140" s="22">
-        <v>0.38118999999999997</v>
-      </c>
-      <c r="F140" s="22">
-        <v>0.38285999999999998</v>
-      </c>
-      <c r="G140" s="22">
-        <v>0.11804000000000001</v>
-      </c>
-      <c r="H140" s="22">
-        <v>8.6779999999999996E-2</v>
-      </c>
-      <c r="I140" s="22">
-        <v>1.9400000000000001E-3</v>
+      <c r="I140" s="31">
+        <v>1.9499999999999999E-3</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9685,26 +9703,26 @@
       <c r="B141" s="15">
         <v>3.15</v>
       </c>
-      <c r="C141" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D141" s="26">
-        <v>2.9190000000000001E-2</v>
-      </c>
-      <c r="E141" s="26">
-        <v>0.38118000000000002</v>
-      </c>
-      <c r="F141" s="26">
-        <v>0.38285999999999998</v>
-      </c>
-      <c r="G141" s="26">
-        <v>0.11804000000000001</v>
-      </c>
-      <c r="H141" s="26">
-        <v>8.6779999999999996E-2</v>
-      </c>
-      <c r="I141" s="26">
-        <v>1.9499999999999999E-3</v>
+      <c r="C141" s="11">
+        <v>1</v>
+      </c>
+      <c r="D141" s="24">
+        <v>2.9250000000000002E-2</v>
+      </c>
+      <c r="E141" s="24">
+        <v>0.38192999999999999</v>
+      </c>
+      <c r="F141" s="24">
+        <v>0.38361000000000001</v>
+      </c>
+      <c r="G141" s="24">
+        <v>0.11827</v>
+      </c>
+      <c r="H141" s="24">
+        <v>8.695E-2</v>
+      </c>
+      <c r="I141" s="34">
+        <v>4.2400000000000001E-6</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9725,12 +9743,12 @@
       <c r="F144" s="16"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
+      <c r="A145" s="25"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="25"/>
+      <c r="F145" s="25"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="16"/>
@@ -9741,22 +9759,22 @@
       <c r="F146" s="16"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="25"/>
     </row>
     <row r="148" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="149" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="150" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="28"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="26"/>
     </row>
     <row r="151" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="16"/>
@@ -9767,6 +9785,9 @@
       <c r="F151" s="16"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I155">
+    <sortCondition ref="A2:A155"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data excel.xlsx
+++ b/data excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Documents\UWO CBE\Courses\CBE 9133 - AI in Chemical Engineering\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1344B1B0-7603-4C3D-98E2-C68A988BC555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA453E3-BC6D-4486-A32B-C3B86FC99798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -653,25 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2793,7 +2775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
@@ -5623,9 +5605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5671,7 +5653,7 @@
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="27">
         <v>0.2</v>
       </c>
       <c r="D2" s="20">
@@ -5752,31 +5734,31 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
-        <v>673</v>
-      </c>
-      <c r="B5" s="27">
-        <v>0</v>
-      </c>
-      <c r="C5" s="27">
-        <v>1</v>
-      </c>
-      <c r="D5" s="31">
+      <c r="A5" s="8">
+        <v>673</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
         <v>1.7160000000000002E-2</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="21">
         <v>0.30402000000000001</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="21">
         <v>0.40014</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="21">
         <v>0.16749</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="9">
         <v>0.11119999999999999</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="22">
         <v>1.31E-8</v>
       </c>
     </row>
@@ -6789,8 +6771,7 @@
         <v>0.13108</v>
       </c>
       <c r="H40" s="21">
-        <f>SUM(D40:G40)</f>
-        <v>0.69562000000000002</v>
+        <v>8.7029999999999996E-2</v>
       </c>
       <c r="I40" s="21">
         <v>0.21734999999999999</v>
@@ -9668,31 +9649,31 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="27">
+      <c r="A140" s="8">
         <v>748</v>
       </c>
-      <c r="B140" s="28">
+      <c r="B140" s="14">
         <v>3.15</v>
       </c>
-      <c r="C140" s="30">
+      <c r="C140" s="23">
         <v>0.5</v>
       </c>
-      <c r="D140" s="31">
+      <c r="D140" s="21">
         <v>2.9190000000000001E-2</v>
       </c>
-      <c r="E140" s="31">
+      <c r="E140" s="21">
         <v>0.38118000000000002</v>
       </c>
-      <c r="F140" s="31">
+      <c r="F140" s="21">
         <v>0.38285999999999998</v>
       </c>
-      <c r="G140" s="31">
+      <c r="G140" s="21">
         <v>0.11804000000000001</v>
       </c>
-      <c r="H140" s="31">
+      <c r="H140" s="21">
         <v>8.6779999999999996E-2</v>
       </c>
-      <c r="I140" s="31">
+      <c r="I140" s="21">
         <v>1.9499999999999999E-3</v>
       </c>
     </row>
@@ -9721,7 +9702,7 @@
       <c r="H141" s="24">
         <v>8.695E-2</v>
       </c>
-      <c r="I141" s="34">
+      <c r="I141" s="28">
         <v>4.2400000000000001E-6</v>
       </c>
     </row>

--- a/data excel.xlsx
+++ b/data excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Documents\UWO CBE\Courses\CBE 9133 - AI in Chemical Engineering\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA453E3-BC6D-4486-A32B-C3B86FC99798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1152B8C1-00AD-41EA-87E3-0CDB81B81717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -658,6 +658,9 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -985,7 +988,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1182,181 +1185,181 @@
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="B8" s="9">
-        <v>5.21E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="10">
-        <v>0.66900000000000004</v>
+        <v>0.503</v>
       </c>
       <c r="E8" s="10">
-        <v>11.358000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F8" s="10">
-        <v>15.417999999999999</v>
+        <v>13.363</v>
       </c>
       <c r="G8" s="9">
-        <v>6.3479999999999999</v>
+        <v>5.4909999999999997</v>
       </c>
       <c r="H8" s="9">
-        <v>5.3470000000000004</v>
+        <v>3.13</v>
       </c>
       <c r="I8" s="10">
-        <v>61.527999999999999</v>
+        <v>67.337999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="B9" s="9">
-        <v>6.9400000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="10">
-        <v>0.81499999999999995</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="E9" s="10">
-        <v>13.846</v>
+        <v>13.367000000000001</v>
       </c>
       <c r="F9" s="10">
-        <v>18.795000000000002</v>
+        <v>17.105</v>
       </c>
       <c r="G9" s="9">
-        <v>7.7389999999999999</v>
+        <v>7.1079999999999997</v>
       </c>
       <c r="H9" s="9">
-        <v>6.5190000000000001</v>
+        <v>4.2460000000000004</v>
       </c>
       <c r="I9" s="10">
-        <v>52.853999999999999</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="B10" s="9">
-        <v>8.6800000000000002E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="C10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="10">
-        <v>0.95599999999999996</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="E10" s="10">
-        <v>16.242000000000001</v>
+        <v>14.273999999999999</v>
       </c>
       <c r="F10" s="10">
-        <v>22.047999999999998</v>
+        <v>19.291</v>
       </c>
       <c r="G10" s="9">
-        <v>9.0779999999999994</v>
+        <v>8.7080000000000002</v>
       </c>
       <c r="H10" s="9">
-        <v>7.6470000000000002</v>
+        <v>5.4429999999999996</v>
       </c>
       <c r="I10" s="10">
-        <v>44.503</v>
+        <v>51.387</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="B11" s="9">
-        <v>0.13020000000000001</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="C11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="10">
-        <v>1.1850000000000001</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="E11" s="10">
-        <v>20.116</v>
+        <v>19.242000000000001</v>
       </c>
       <c r="F11" s="10">
-        <v>27.308</v>
+        <v>25.123999999999999</v>
       </c>
       <c r="G11" s="10">
-        <v>11.243</v>
+        <v>10.359</v>
       </c>
       <c r="H11" s="9">
-        <v>9.4710000000000001</v>
+        <v>7.26</v>
       </c>
       <c r="I11" s="10">
-        <v>31.003</v>
+        <v>36.953000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="B12" s="9">
-        <v>0.1736</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="10">
-        <v>1.35</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="E12" s="10">
-        <v>22.922999999999998</v>
+        <v>23.602</v>
       </c>
       <c r="F12" s="10">
-        <v>31.117999999999999</v>
+        <v>30.015999999999998</v>
       </c>
       <c r="G12" s="10">
-        <v>12.811999999999999</v>
-      </c>
-      <c r="H12" s="10">
-        <v>10.792</v>
+        <v>12.493</v>
+      </c>
+      <c r="H12" s="9">
+        <v>8.1859999999999999</v>
       </c>
       <c r="I12" s="10">
-        <v>21.225999999999999</v>
+        <v>24.568999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="B13" s="9">
-        <v>0.26040000000000002</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="C13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="10">
-        <v>1.5389999999999999</v>
+        <v>1.653</v>
       </c>
       <c r="E13" s="10">
-        <v>26.14</v>
+        <v>26.337</v>
       </c>
       <c r="F13" s="10">
-        <v>35.484999999999999</v>
+        <v>35.326000000000001</v>
       </c>
       <c r="G13" s="10">
-        <v>14.61</v>
+        <v>14.505000000000001</v>
       </c>
       <c r="H13" s="10">
-        <v>12.307</v>
+        <v>10.504</v>
       </c>
       <c r="I13" s="10">
-        <v>10.021000000000001</v>
+        <v>11.675000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="B14" s="9">
         <v>1.8800000000000001E-2</v>
@@ -1365,27 +1368,27 @@
         <v>0</v>
       </c>
       <c r="D14" s="10">
-        <v>0.503</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="E14" s="10">
-        <v>10.199999999999999</v>
+        <v>17.518999999999998</v>
       </c>
       <c r="F14" s="10">
-        <v>13.363</v>
+        <v>21.623000000000001</v>
       </c>
       <c r="G14" s="9">
-        <v>5.4909999999999997</v>
+        <v>7.7370000000000001</v>
       </c>
       <c r="H14" s="9">
-        <v>3.13</v>
+        <v>5.6479999999999997</v>
       </c>
       <c r="I14" s="10">
-        <v>67.337999999999994</v>
+        <v>47.073</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="B15" s="9">
         <v>2.5000000000000001E-2</v>
@@ -1394,27 +1397,27 @@
         <v>0</v>
       </c>
       <c r="D15" s="10">
-        <v>0.69699999999999995</v>
+        <v>1.373</v>
       </c>
       <c r="E15" s="10">
-        <v>13.367000000000001</v>
+        <v>21.213999999999999</v>
       </c>
       <c r="F15" s="10">
-        <v>17.105</v>
+        <v>26.183</v>
       </c>
       <c r="G15" s="9">
-        <v>7.1079999999999997</v>
+        <v>9.3689999999999998</v>
       </c>
       <c r="H15" s="9">
-        <v>4.2460000000000004</v>
+        <v>6.8390000000000004</v>
       </c>
       <c r="I15" s="10">
-        <v>57.5</v>
+        <v>35.567999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="B16" s="9">
         <v>3.1300000000000001E-2</v>
@@ -1423,27 +1426,27 @@
         <v>0</v>
       </c>
       <c r="D16" s="10">
-        <v>0.89700000000000002</v>
+        <v>1.516</v>
       </c>
       <c r="E16" s="10">
-        <v>14.273999999999999</v>
+        <v>23.423999999999999</v>
       </c>
       <c r="F16" s="10">
-        <v>19.291</v>
-      </c>
-      <c r="G16" s="9">
-        <v>8.7080000000000002</v>
+        <v>28.911000000000001</v>
+      </c>
+      <c r="G16" s="10">
+        <v>10.345000000000001</v>
       </c>
       <c r="H16" s="9">
-        <v>5.4429999999999996</v>
+        <v>7.5519999999999996</v>
       </c>
       <c r="I16" s="10">
-        <v>51.387</v>
+        <v>28.687000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="B17" s="9">
         <v>4.6899999999999997E-2</v>
@@ -1452,27 +1455,27 @@
         <v>0</v>
       </c>
       <c r="D17" s="10">
-        <v>1.0629999999999999</v>
+        <v>1.7869999999999999</v>
       </c>
       <c r="E17" s="10">
-        <v>19.242000000000001</v>
+        <v>27.61</v>
       </c>
       <c r="F17" s="10">
-        <v>25.123999999999999</v>
+        <v>34.076999999999998</v>
       </c>
       <c r="G17" s="10">
-        <v>10.359</v>
+        <v>12.193</v>
       </c>
       <c r="H17" s="9">
-        <v>7.26</v>
+        <v>8.9019999999999992</v>
       </c>
       <c r="I17" s="10">
-        <v>36.953000000000003</v>
+        <v>15.664</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="B18" s="9">
         <v>6.25E-2</v>
@@ -1481,27 +1484,27 @@
         <v>0</v>
       </c>
       <c r="D18" s="10">
-        <v>1.1339999999999999</v>
+        <v>1.9279999999999999</v>
       </c>
       <c r="E18" s="10">
-        <v>23.602</v>
+        <v>29.789000000000001</v>
       </c>
       <c r="F18" s="10">
-        <v>30.015999999999998</v>
+        <v>36.767000000000003</v>
       </c>
       <c r="G18" s="10">
-        <v>12.493</v>
+        <v>13.156000000000001</v>
       </c>
       <c r="H18" s="9">
-        <v>8.1859999999999999</v>
-      </c>
-      <c r="I18" s="10">
-        <v>24.568999999999999</v>
+        <v>9.6039999999999992</v>
+      </c>
+      <c r="I18" s="9">
+        <v>8.8870000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="B19" s="9">
         <v>9.3799999999999994E-2</v>
@@ -1510,201 +1513,201 @@
         <v>0</v>
       </c>
       <c r="D19" s="10">
-        <v>1.653</v>
+        <v>2.0539999999999998</v>
       </c>
       <c r="E19" s="10">
-        <v>26.337</v>
+        <v>31.744</v>
       </c>
       <c r="F19" s="10">
-        <v>35.326000000000001</v>
+        <v>39.179000000000002</v>
       </c>
       <c r="G19" s="10">
-        <v>14.505000000000001</v>
+        <v>14.019</v>
       </c>
       <c r="H19" s="10">
-        <v>10.504</v>
-      </c>
-      <c r="I19" s="10">
-        <v>11.675000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10.234</v>
+      </c>
+      <c r="I19" s="9">
+        <v>2.8109999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
-        <v>673</v>
+        <v>723</v>
       </c>
       <c r="B20" s="9">
-        <v>5.21E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="C20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="10">
-        <v>0.84199999999999997</v>
+        <v>1.673</v>
       </c>
       <c r="E20" s="10">
-        <v>14.920999999999999</v>
+        <v>24.925000000000001</v>
       </c>
       <c r="F20" s="10">
-        <v>19.638000000000002</v>
-      </c>
-      <c r="G20" s="9">
-        <v>8.2200000000000006</v>
+        <v>31.256</v>
+      </c>
+      <c r="G20" s="10">
+        <v>10.231999999999999</v>
       </c>
       <c r="H20" s="9">
-        <v>5.4569999999999999</v>
+        <v>7.2190000000000003</v>
       </c>
       <c r="I20" s="10">
-        <v>51.682000000000002</v>
+        <v>24.695</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
-        <v>673</v>
+        <v>723</v>
       </c>
       <c r="B21" s="9">
-        <v>6.9400000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C21" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="10">
-        <v>1.0049999999999999</v>
+        <v>2.952</v>
       </c>
       <c r="E21" s="10">
-        <v>17.805</v>
+        <v>28.748999999999999</v>
       </c>
       <c r="F21" s="10">
-        <v>23.434999999999999</v>
-      </c>
-      <c r="G21" s="9">
-        <v>9.8089999999999993</v>
+        <v>35.783000000000001</v>
+      </c>
+      <c r="G21" s="10">
+        <v>11.654999999999999</v>
       </c>
       <c r="H21" s="9">
-        <v>6.5119999999999996</v>
+        <v>8.048</v>
       </c>
       <c r="I21" s="10">
-        <v>42.045999999999999</v>
+        <v>12.813000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
-        <v>673</v>
+        <v>723</v>
       </c>
       <c r="B22" s="9">
-        <v>8.6800000000000002E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="C22" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="10">
-        <v>1.153</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="E22" s="10">
-        <v>20.428999999999998</v>
+        <v>31.039000000000001</v>
       </c>
       <c r="F22" s="10">
-        <v>26.888999999999999</v>
+        <v>35.540999999999997</v>
       </c>
       <c r="G22" s="10">
-        <v>11.255000000000001</v>
+        <v>11.564</v>
       </c>
       <c r="H22" s="9">
-        <v>7.4720000000000004</v>
+        <v>8.9770000000000003</v>
       </c>
       <c r="I22" s="10">
-        <v>33.283000000000001</v>
+        <v>10.843999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
-        <v>673</v>
+        <v>723</v>
       </c>
       <c r="B23" s="9">
-        <v>0.13020000000000001</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="C23" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="10">
-        <v>1.371</v>
+        <v>2.0289999999999999</v>
       </c>
       <c r="E23" s="10">
-        <v>24.302</v>
+        <v>32.811</v>
       </c>
       <c r="F23" s="10">
-        <v>31.986000000000001</v>
+        <v>38.853999999999999</v>
       </c>
       <c r="G23" s="10">
-        <v>13.388</v>
+        <v>12.513</v>
       </c>
       <c r="H23" s="9">
-        <v>8.8889999999999993</v>
-      </c>
-      <c r="I23" s="10">
-        <v>20.353999999999999</v>
+        <v>9.2050000000000001</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5.1890000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
-        <v>673</v>
+        <v>723</v>
       </c>
       <c r="B24" s="9">
-        <v>0.1736</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="10">
-        <v>1.51</v>
+        <v>2.0169999999999999</v>
       </c>
       <c r="E24" s="10">
-        <v>26.760999999999999</v>
+        <v>33.673000000000002</v>
       </c>
       <c r="F24" s="10">
-        <v>35.222000000000001</v>
+        <v>38.622</v>
       </c>
       <c r="G24" s="10">
-        <v>14.743</v>
-      </c>
-      <c r="H24" s="9">
-        <v>9.7880000000000003</v>
-      </c>
-      <c r="I24" s="10">
-        <v>12.148999999999999</v>
+        <v>14.291</v>
+      </c>
+      <c r="H24" s="10">
+        <v>10.461</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
-        <v>673</v>
+        <v>723</v>
       </c>
       <c r="B25" s="9">
-        <v>0.26040000000000002</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="C25" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="10">
-        <v>1.6419999999999999</v>
+        <v>2.3159999999999998</v>
       </c>
       <c r="E25" s="10">
-        <v>29.094000000000001</v>
+        <v>34.939</v>
       </c>
       <c r="F25" s="10">
-        <v>38.292999999999999</v>
+        <v>39.298999999999999</v>
       </c>
       <c r="G25" s="10">
-        <v>16.027999999999999</v>
+        <v>13.419</v>
       </c>
       <c r="H25" s="10">
-        <v>10.641999999999999</v>
+        <v>10.653</v>
       </c>
       <c r="I25" s="9">
-        <v>4.3630000000000004</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
-        <v>698</v>
+        <v>748</v>
       </c>
       <c r="B26" s="9">
         <v>1.8800000000000001E-2</v>
@@ -1713,27 +1716,27 @@
         <v>0</v>
       </c>
       <c r="D26" s="10">
-        <v>1.1339999999999999</v>
+        <v>2.4649999999999999</v>
       </c>
       <c r="E26" s="10">
-        <v>17.518999999999998</v>
+        <v>30.361999999999998</v>
       </c>
       <c r="F26" s="10">
-        <v>21.623000000000001</v>
+        <v>31.047000000000001</v>
       </c>
       <c r="G26" s="9">
-        <v>7.7370000000000001</v>
+        <v>8.2260000000000009</v>
       </c>
       <c r="H26" s="9">
-        <v>5.6479999999999997</v>
+        <v>6.6929999999999996</v>
       </c>
       <c r="I26" s="10">
-        <v>47.073</v>
+        <v>21.207000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
-        <v>698</v>
+        <v>748</v>
       </c>
       <c r="B27" s="9">
         <v>2.5000000000000001E-2</v>
@@ -1742,27 +1745,27 @@
         <v>0</v>
       </c>
       <c r="D27" s="10">
-        <v>1.373</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="E27" s="10">
-        <v>21.213999999999999</v>
+        <v>34.307000000000002</v>
       </c>
       <c r="F27" s="10">
-        <v>26.183</v>
-      </c>
-      <c r="G27" s="9">
-        <v>9.3689999999999998</v>
+        <v>35.423999999999999</v>
+      </c>
+      <c r="G27" s="10">
+        <v>11.414</v>
       </c>
       <c r="H27" s="9">
-        <v>6.8390000000000004</v>
-      </c>
-      <c r="I27" s="10">
-        <v>35.567999999999998</v>
+        <v>7.7469999999999999</v>
+      </c>
+      <c r="I27" s="9">
+        <v>8.3160000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
-        <v>698</v>
+        <v>748</v>
       </c>
       <c r="B28" s="9">
         <v>3.1300000000000001E-2</v>
@@ -1771,27 +1774,27 @@
         <v>0</v>
       </c>
       <c r="D28" s="10">
-        <v>1.516</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="E28" s="10">
-        <v>23.423999999999999</v>
+        <v>37.307000000000002</v>
       </c>
       <c r="F28" s="10">
-        <v>28.911000000000001</v>
+        <v>36.024000000000001</v>
       </c>
       <c r="G28" s="10">
-        <v>10.345000000000001</v>
+        <v>11.614000000000001</v>
       </c>
       <c r="H28" s="9">
-        <v>7.5519999999999996</v>
-      </c>
-      <c r="I28" s="10">
-        <v>28.687000000000001</v>
+        <v>7.9470000000000001</v>
+      </c>
+      <c r="I28" s="9">
+        <v>4.3159999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
-        <v>698</v>
+        <v>748</v>
       </c>
       <c r="B29" s="9">
         <v>4.6899999999999997E-2</v>
@@ -1800,27 +1803,27 @@
         <v>0</v>
       </c>
       <c r="D29" s="10">
-        <v>1.7869999999999999</v>
+        <v>2.76</v>
       </c>
       <c r="E29" s="10">
-        <v>27.61</v>
+        <v>37.512</v>
       </c>
       <c r="F29" s="10">
-        <v>34.076999999999998</v>
+        <v>37.637</v>
       </c>
       <c r="G29" s="10">
-        <v>12.193</v>
+        <v>11.737</v>
       </c>
       <c r="H29" s="9">
-        <v>8.9019999999999992</v>
-      </c>
-      <c r="I29" s="10">
-        <v>15.664</v>
+        <v>8.3260000000000005</v>
+      </c>
+      <c r="I29" s="9">
+        <v>2.028</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
-        <v>698</v>
+        <v>748</v>
       </c>
       <c r="B30" s="9">
         <v>6.25E-2</v>
@@ -1829,27 +1832,27 @@
         <v>0</v>
       </c>
       <c r="D30" s="10">
-        <v>1.9279999999999999</v>
+        <v>2.8620000000000001</v>
       </c>
       <c r="E30" s="10">
-        <v>29.789000000000001</v>
+        <v>37.89</v>
       </c>
       <c r="F30" s="10">
-        <v>36.767000000000003</v>
+        <v>38.052</v>
       </c>
       <c r="G30" s="10">
-        <v>13.156000000000001</v>
+        <v>11.808</v>
       </c>
       <c r="H30" s="9">
-        <v>9.6039999999999992</v>
+        <v>9.0370000000000008</v>
       </c>
       <c r="I30" s="9">
-        <v>8.8870000000000005</v>
+        <v>0.35099999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
-        <v>698</v>
+        <v>748</v>
       </c>
       <c r="B31" s="9">
         <v>9.3799999999999994E-2</v>
@@ -1858,27 +1861,27 @@
         <v>0</v>
       </c>
       <c r="D31" s="10">
-        <v>2.0539999999999998</v>
+        <v>2.8490000000000002</v>
       </c>
       <c r="E31" s="10">
-        <v>31.744</v>
+        <v>38.146999999999998</v>
       </c>
       <c r="F31" s="10">
-        <v>39.179000000000002</v>
+        <v>38.222999999999999</v>
       </c>
       <c r="G31" s="10">
-        <v>14.019</v>
-      </c>
-      <c r="H31" s="10">
-        <v>10.234</v>
+        <v>12.045999999999999</v>
+      </c>
+      <c r="H31" s="9">
+        <v>9.2360000000000007</v>
       </c>
       <c r="I31" s="9">
-        <v>2.8109999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
-        <v>698</v>
+        <v>648</v>
       </c>
       <c r="B32" s="9">
         <v>5.21E-2</v>
@@ -1887,27 +1890,27 @@
         <v>1</v>
       </c>
       <c r="D32" s="10">
-        <v>1.5</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="E32" s="10">
-        <v>23.186</v>
+        <v>11.358000000000001</v>
       </c>
       <c r="F32" s="10">
-        <v>28.617000000000001</v>
-      </c>
-      <c r="G32" s="10">
-        <v>10.24</v>
+        <v>15.417999999999999</v>
+      </c>
+      <c r="G32" s="9">
+        <v>6.3479999999999999</v>
       </c>
       <c r="H32" s="9">
-        <v>7.4749999999999996</v>
+        <v>5.3470000000000004</v>
       </c>
       <c r="I32" s="10">
-        <v>28.981000000000002</v>
+        <v>61.527999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
-        <v>698</v>
+        <v>648</v>
       </c>
       <c r="B33" s="9">
         <v>6.9400000000000003E-2</v>
@@ -1916,27 +1919,27 @@
         <v>1</v>
       </c>
       <c r="D33" s="10">
-        <v>1.6950000000000001</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="E33" s="10">
-        <v>26.2</v>
+        <v>13.846</v>
       </c>
       <c r="F33" s="10">
-        <v>32.337000000000003</v>
-      </c>
-      <c r="G33" s="10">
-        <v>11.571</v>
+        <v>18.795000000000002</v>
+      </c>
+      <c r="G33" s="9">
+        <v>7.7389999999999999</v>
       </c>
       <c r="H33" s="9">
-        <v>8.4469999999999992</v>
+        <v>6.5190000000000001</v>
       </c>
       <c r="I33" s="10">
-        <v>19.75</v>
+        <v>52.853999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
-        <v>698</v>
+        <v>648</v>
       </c>
       <c r="B34" s="9">
         <v>8.6800000000000002E-2</v>
@@ -1945,27 +1948,27 @@
         <v>1</v>
       </c>
       <c r="D34" s="10">
-        <v>1.827</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="E34" s="10">
-        <v>28.242999999999999</v>
+        <v>16.242000000000001</v>
       </c>
       <c r="F34" s="10">
-        <v>34.857999999999997</v>
-      </c>
-      <c r="G34" s="10">
-        <v>12.473000000000001</v>
+        <v>22.047999999999998</v>
+      </c>
+      <c r="G34" s="9">
+        <v>9.0779999999999994</v>
       </c>
       <c r="H34" s="9">
-        <v>9.1059999999999999</v>
+        <v>7.6470000000000002</v>
       </c>
       <c r="I34" s="10">
-        <v>13.494</v>
+        <v>44.503</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
-        <v>698</v>
+        <v>648</v>
       </c>
       <c r="B35" s="9">
         <v>0.13020000000000001</v>
@@ -1974,27 +1977,27 @@
         <v>1</v>
       </c>
       <c r="D35" s="10">
-        <v>2.0049999999999999</v>
+        <v>1.1850000000000001</v>
       </c>
       <c r="E35" s="10">
-        <v>30.981999999999999</v>
+        <v>20.116</v>
       </c>
       <c r="F35" s="10">
-        <v>38.238999999999997</v>
+        <v>27.308</v>
       </c>
       <c r="G35" s="10">
-        <v>13.683</v>
+        <v>11.243</v>
       </c>
       <c r="H35" s="9">
-        <v>9.9890000000000008</v>
-      </c>
-      <c r="I35" s="9">
-        <v>5.1029999999999998</v>
+        <v>9.4710000000000001</v>
+      </c>
+      <c r="I35" s="10">
+        <v>31.003</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
-        <v>698</v>
+        <v>648</v>
       </c>
       <c r="B36" s="9">
         <v>0.1736</v>
@@ -2003,27 +2006,27 @@
         <v>1</v>
       </c>
       <c r="D36" s="10">
-        <v>2.0739999999999998</v>
+        <v>1.35</v>
       </c>
       <c r="E36" s="10">
-        <v>32.048000000000002</v>
+        <v>22.922999999999998</v>
       </c>
       <c r="F36" s="10">
-        <v>39.554000000000002</v>
+        <v>31.117999999999999</v>
       </c>
       <c r="G36" s="10">
-        <v>14.153</v>
+        <v>12.811999999999999</v>
       </c>
       <c r="H36" s="10">
-        <v>10.333</v>
-      </c>
-      <c r="I36" s="9">
-        <v>1.8380000000000001</v>
+        <v>10.792</v>
+      </c>
+      <c r="I36" s="10">
+        <v>21.225999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
-        <v>698</v>
+        <v>648</v>
       </c>
       <c r="B37" s="9">
         <v>0.26040000000000002</v>
@@ -2032,201 +2035,201 @@
         <v>1</v>
       </c>
       <c r="D37" s="10">
-        <v>2.1070000000000002</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="E37" s="10">
-        <v>32.561</v>
+        <v>26.14</v>
       </c>
       <c r="F37" s="10">
-        <v>40.188000000000002</v>
+        <v>35.484999999999999</v>
       </c>
       <c r="G37" s="10">
-        <v>14.38</v>
+        <v>14.61</v>
       </c>
       <c r="H37" s="10">
-        <v>10.497999999999999</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0.26700000000000002</v>
+        <v>12.307</v>
+      </c>
+      <c r="I37" s="10">
+        <v>10.021000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
-        <v>723</v>
+        <v>673</v>
       </c>
       <c r="B38" s="9">
-        <v>1.8800000000000001E-2</v>
+        <v>5.21E-2</v>
       </c>
       <c r="C38" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="10">
-        <v>1.673</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="E38" s="10">
-        <v>24.925000000000001</v>
+        <v>14.920999999999999</v>
       </c>
       <c r="F38" s="10">
-        <v>31.256</v>
-      </c>
-      <c r="G38" s="10">
-        <v>10.231999999999999</v>
+        <v>19.638000000000002</v>
+      </c>
+      <c r="G38" s="9">
+        <v>8.2200000000000006</v>
       </c>
       <c r="H38" s="9">
-        <v>7.2190000000000003</v>
+        <v>5.4569999999999999</v>
       </c>
       <c r="I38" s="10">
-        <v>24.695</v>
+        <v>51.682000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
-        <v>723</v>
+        <v>673</v>
       </c>
       <c r="B39" s="9">
-        <v>2.5000000000000001E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="C39" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="10">
-        <v>2.952</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="E39" s="10">
-        <v>28.748999999999999</v>
+        <v>17.805</v>
       </c>
       <c r="F39" s="10">
-        <v>35.783000000000001</v>
-      </c>
-      <c r="G39" s="10">
-        <v>11.654999999999999</v>
+        <v>23.434999999999999</v>
+      </c>
+      <c r="G39" s="9">
+        <v>9.8089999999999993</v>
       </c>
       <c r="H39" s="9">
-        <v>8.048</v>
+        <v>6.5119999999999996</v>
       </c>
       <c r="I39" s="10">
-        <v>12.813000000000001</v>
+        <v>42.045999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
-        <v>723</v>
+        <v>673</v>
       </c>
       <c r="B40" s="9">
-        <v>3.1300000000000001E-2</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="C40" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="10">
-        <v>2.0350000000000001</v>
+        <v>1.153</v>
       </c>
       <c r="E40" s="10">
-        <v>31.039000000000001</v>
+        <v>20.428999999999998</v>
       </c>
       <c r="F40" s="10">
-        <v>35.540999999999997</v>
+        <v>26.888999999999999</v>
       </c>
       <c r="G40" s="10">
-        <v>11.564</v>
+        <v>11.255000000000001</v>
       </c>
       <c r="H40" s="9">
-        <v>8.9770000000000003</v>
+        <v>7.4720000000000004</v>
       </c>
       <c r="I40" s="10">
-        <v>10.843999999999999</v>
+        <v>33.283000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
-        <v>723</v>
+        <v>673</v>
       </c>
       <c r="B41" s="9">
-        <v>4.6899999999999997E-2</v>
+        <v>0.13020000000000001</v>
       </c>
       <c r="C41" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="10">
-        <v>2.0289999999999999</v>
+        <v>1.371</v>
       </c>
       <c r="E41" s="10">
-        <v>32.811</v>
+        <v>24.302</v>
       </c>
       <c r="F41" s="10">
-        <v>38.853999999999999</v>
+        <v>31.986000000000001</v>
       </c>
       <c r="G41" s="10">
-        <v>12.513</v>
+        <v>13.388</v>
       </c>
       <c r="H41" s="9">
-        <v>9.2050000000000001</v>
-      </c>
-      <c r="I41" s="9">
-        <v>5.1890000000000001</v>
+        <v>8.8889999999999993</v>
+      </c>
+      <c r="I41" s="10">
+        <v>20.353999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
-        <v>723</v>
+        <v>673</v>
       </c>
       <c r="B42" s="9">
-        <v>6.25E-2</v>
+        <v>0.1736</v>
       </c>
       <c r="C42" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="10">
-        <v>2.0169999999999999</v>
+        <v>1.51</v>
       </c>
       <c r="E42" s="10">
-        <v>33.673000000000002</v>
+        <v>26.760999999999999</v>
       </c>
       <c r="F42" s="10">
-        <v>38.622</v>
+        <v>35.222000000000001</v>
       </c>
       <c r="G42" s="10">
-        <v>14.291</v>
-      </c>
-      <c r="H42" s="10">
-        <v>10.461</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0.93700000000000006</v>
+        <v>14.743</v>
+      </c>
+      <c r="H42" s="9">
+        <v>9.7880000000000003</v>
+      </c>
+      <c r="I42" s="10">
+        <v>12.148999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
-        <v>723</v>
+        <v>673</v>
       </c>
       <c r="B43" s="9">
-        <v>9.3799999999999994E-2</v>
+        <v>0.26040000000000002</v>
       </c>
       <c r="C43" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="10">
-        <v>2.3159999999999998</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="E43" s="10">
-        <v>34.939</v>
+        <v>29.094000000000001</v>
       </c>
       <c r="F43" s="10">
-        <v>39.298999999999999</v>
+        <v>38.292999999999999</v>
       </c>
       <c r="G43" s="10">
-        <v>13.419</v>
+        <v>16.027999999999999</v>
       </c>
       <c r="H43" s="10">
-        <v>10.653</v>
+        <v>10.641999999999999</v>
       </c>
       <c r="I43" s="9">
-        <v>0.373</v>
+        <v>4.3630000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="B44" s="9">
         <v>5.21E-2</v>
@@ -2235,27 +2238,27 @@
         <v>1</v>
       </c>
       <c r="D44" s="10">
-        <v>2.105</v>
+        <v>1.5</v>
       </c>
       <c r="E44" s="10">
-        <v>30.609000000000002</v>
+        <v>23.186</v>
       </c>
       <c r="F44" s="10">
-        <v>35.877000000000002</v>
+        <v>28.617000000000001</v>
       </c>
       <c r="G44" s="10">
-        <v>12.125999999999999</v>
+        <v>10.24</v>
       </c>
       <c r="H44" s="9">
-        <v>8.9480000000000004</v>
+        <v>7.4749999999999996</v>
       </c>
       <c r="I44" s="10">
-        <v>10.334</v>
+        <v>28.981000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="B45" s="9">
         <v>6.9400000000000003E-2</v>
@@ -2264,27 +2267,27 @@
         <v>1</v>
       </c>
       <c r="D45" s="10">
-        <v>2.2389999999999999</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="E45" s="10">
-        <v>32.564</v>
+        <v>26.2</v>
       </c>
       <c r="F45" s="10">
-        <v>38.168999999999997</v>
+        <v>32.337000000000003</v>
       </c>
       <c r="G45" s="10">
-        <v>12.901</v>
+        <v>11.571</v>
       </c>
       <c r="H45" s="9">
-        <v>9.52</v>
-      </c>
-      <c r="I45" s="9">
-        <v>4.6059999999999999</v>
+        <v>8.4469999999999992</v>
+      </c>
+      <c r="I45" s="10">
+        <v>19.75</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="B46" s="9">
         <v>8.6800000000000002E-2</v>
@@ -2293,27 +2296,27 @@
         <v>1</v>
       </c>
       <c r="D46" s="10">
-        <v>2.2879999999999998</v>
+        <v>1.827</v>
       </c>
       <c r="E46" s="10">
-        <v>33.277000000000001</v>
+        <v>28.242999999999999</v>
       </c>
       <c r="F46" s="10">
-        <v>39.005000000000003</v>
+        <v>34.857999999999997</v>
       </c>
       <c r="G46" s="10">
-        <v>13.183</v>
+        <v>12.473000000000001</v>
       </c>
       <c r="H46" s="9">
-        <v>9.7279999999999998</v>
-      </c>
-      <c r="I46" s="9">
-        <v>2.5179999999999998</v>
+        <v>9.1059999999999999</v>
+      </c>
+      <c r="I46" s="10">
+        <v>13.494</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="B47" s="9">
         <v>0.13020000000000001</v>
@@ -2322,27 +2325,27 @@
         <v>1</v>
       </c>
       <c r="D47" s="10">
-        <v>2.339</v>
+        <v>2.0049999999999999</v>
       </c>
       <c r="E47" s="10">
-        <v>34.009</v>
+        <v>30.981999999999999</v>
       </c>
       <c r="F47" s="10">
-        <v>39.863</v>
+        <v>38.238999999999997</v>
       </c>
       <c r="G47" s="10">
-        <v>13.473000000000001</v>
+        <v>13.683</v>
       </c>
       <c r="H47" s="9">
-        <v>9.9420000000000002</v>
+        <v>9.9890000000000008</v>
       </c>
       <c r="I47" s="9">
-        <v>0.374</v>
+        <v>5.1029999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="B48" s="9">
         <v>0.1736</v>
@@ -2351,27 +2354,27 @@
         <v>1</v>
       </c>
       <c r="D48" s="10">
-        <v>2.3460000000000001</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="E48" s="10">
-        <v>34.115000000000002</v>
+        <v>32.048000000000002</v>
       </c>
       <c r="F48" s="10">
-        <v>39.988</v>
+        <v>39.554000000000002</v>
       </c>
       <c r="G48" s="10">
-        <v>13.516</v>
-      </c>
-      <c r="H48" s="9">
-        <v>9.9740000000000002</v>
+        <v>14.153</v>
+      </c>
+      <c r="H48" s="10">
+        <v>10.333</v>
       </c>
       <c r="I48" s="9">
-        <v>6.0999999999999999E-2</v>
+        <v>1.8380000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="B49" s="9">
         <v>0.26040000000000002</v>
@@ -2380,196 +2383,196 @@
         <v>1</v>
       </c>
       <c r="D49" s="10">
-        <v>2.347</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="E49" s="10">
-        <v>34.136000000000003</v>
+        <v>32.561</v>
       </c>
       <c r="F49" s="10">
-        <v>40.012</v>
+        <v>40.188000000000002</v>
       </c>
       <c r="G49" s="10">
-        <v>13.523999999999999</v>
-      </c>
-      <c r="H49" s="9">
-        <v>9.98</v>
+        <v>14.38</v>
+      </c>
+      <c r="H49" s="10">
+        <v>10.497999999999999</v>
       </c>
       <c r="I49" s="9">
-        <v>1E-3</v>
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="B50" s="9">
-        <v>1.8800000000000001E-2</v>
+        <v>5.21E-2</v>
       </c>
       <c r="C50" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="10">
-        <v>2.4649999999999999</v>
+        <v>2.105</v>
       </c>
       <c r="E50" s="10">
-        <v>30.361999999999998</v>
+        <v>30.609000000000002</v>
       </c>
       <c r="F50" s="10">
-        <v>31.047000000000001</v>
-      </c>
-      <c r="G50" s="9">
-        <v>8.2260000000000009</v>
+        <v>35.877000000000002</v>
+      </c>
+      <c r="G50" s="10">
+        <v>12.125999999999999</v>
       </c>
       <c r="H50" s="9">
-        <v>6.6929999999999996</v>
+        <v>8.9480000000000004</v>
       </c>
       <c r="I50" s="10">
-        <v>21.207000000000001</v>
+        <v>10.334</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="B51" s="9">
-        <v>2.5000000000000001E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="C51" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="10">
-        <v>2.7919999999999998</v>
+        <v>2.2389999999999999</v>
       </c>
       <c r="E51" s="10">
-        <v>34.307000000000002</v>
+        <v>32.564</v>
       </c>
       <c r="F51" s="10">
-        <v>35.423999999999999</v>
+        <v>38.168999999999997</v>
       </c>
       <c r="G51" s="10">
-        <v>11.414</v>
+        <v>12.901</v>
       </c>
       <c r="H51" s="9">
-        <v>7.7469999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="I51" s="9">
-        <v>8.3160000000000007</v>
+        <v>4.6059999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="B52" s="9">
-        <v>3.1300000000000001E-2</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="C52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="10">
-        <v>2.7919999999999998</v>
+        <v>2.2879999999999998</v>
       </c>
       <c r="E52" s="10">
-        <v>37.307000000000002</v>
+        <v>33.277000000000001</v>
       </c>
       <c r="F52" s="10">
-        <v>36.024000000000001</v>
+        <v>39.005000000000003</v>
       </c>
       <c r="G52" s="10">
-        <v>11.614000000000001</v>
+        <v>13.183</v>
       </c>
       <c r="H52" s="9">
-        <v>7.9470000000000001</v>
+        <v>9.7279999999999998</v>
       </c>
       <c r="I52" s="9">
-        <v>4.3159999999999998</v>
+        <v>2.5179999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="B53" s="9">
-        <v>4.6899999999999997E-2</v>
+        <v>0.13020000000000001</v>
       </c>
       <c r="C53" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="10">
-        <v>2.76</v>
+        <v>2.339</v>
       </c>
       <c r="E53" s="10">
-        <v>37.512</v>
+        <v>34.009</v>
       </c>
       <c r="F53" s="10">
-        <v>37.637</v>
+        <v>39.863</v>
       </c>
       <c r="G53" s="10">
-        <v>11.737</v>
+        <v>13.473000000000001</v>
       </c>
       <c r="H53" s="9">
-        <v>8.3260000000000005</v>
+        <v>9.9420000000000002</v>
       </c>
       <c r="I53" s="9">
-        <v>2.028</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="B54" s="9">
-        <v>6.25E-2</v>
+        <v>0.1736</v>
       </c>
       <c r="C54" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="10">
-        <v>2.8620000000000001</v>
+        <v>2.3460000000000001</v>
       </c>
       <c r="E54" s="10">
-        <v>37.89</v>
+        <v>34.115000000000002</v>
       </c>
       <c r="F54" s="10">
-        <v>38.052</v>
+        <v>39.988</v>
       </c>
       <c r="G54" s="10">
-        <v>11.808</v>
+        <v>13.516</v>
       </c>
       <c r="H54" s="9">
-        <v>9.0370000000000008</v>
+        <v>9.9740000000000002</v>
       </c>
       <c r="I54" s="9">
-        <v>0.35099999999999998</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="B55" s="9">
-        <v>9.3799999999999994E-2</v>
+        <v>0.26040000000000002</v>
       </c>
       <c r="C55" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="10">
-        <v>2.8490000000000002</v>
+        <v>2.347</v>
       </c>
       <c r="E55" s="10">
-        <v>38.146999999999998</v>
+        <v>34.136000000000003</v>
       </c>
       <c r="F55" s="10">
-        <v>38.222999999999999</v>
+        <v>40.012</v>
       </c>
       <c r="G55" s="10">
-        <v>12.045999999999999</v>
+        <v>13.523999999999999</v>
       </c>
       <c r="H55" s="9">
-        <v>9.2360000000000007</v>
+        <v>9.98</v>
       </c>
       <c r="I55" s="9">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2767,6 +2770,9 @@
     <row r="80" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="22.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I81">
+    <sortCondition ref="C2:C81"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5605,9 +5611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
